--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,36 +452,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00201662457429101</v>
+        <v>0.001965916502864335</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02360345451329423</v>
+        <v>0.02330636580045176</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>AI.PA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001694175316391205</v>
+        <v>0.0005630637044797611</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02026204934483848</v>
+        <v>0.01493207543416745</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.001651575163367829</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02000694397426247</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>MC.PA</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.001317171046907658</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01925130228065546</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>MSFT</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.001739983520179622</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.02168035855548691</v>
+      <c r="B6" t="n">
+        <v>0.001696231832603212</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.02140726355664707</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.005928016706353079</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.04625324658590867</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,75 +452,322 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001965916502864335</v>
+        <v>0.000409195432119712</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02330636580045176</v>
+        <v>0.01577304597325203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AI.PA</t>
+          <t>ADA-USD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0005630637044797611</v>
+        <v>0.002109322907709398</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01493207543416745</v>
+        <v>0.05385911692947309</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001651575163367829</v>
+        <v>-6.331447102676818e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02000694397426247</v>
+        <v>0.0197547657637857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MC.PA</t>
+          <t>BABA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001317171046907658</v>
+        <v>-0.0006555208053647794</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01925130228065546</v>
+        <v>0.02917146136629337</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>BNB-USD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001696231832603212</v>
+        <v>0.003300274737707548</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02140726355664707</v>
+        <v>0.05275003261595376</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>BTC-USD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.005928016706353079</v>
+        <v>0.001338890310131067</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04625324658590867</v>
+        <v>0.03414030084679871</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>DAI-USD</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2.317790536334618e-05</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.002147598150660589</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>DOGE-USD</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.007118002616628462</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1316804669561277</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>DOT-USD</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.001307446046721384</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05807611652739767</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>ETH-USD</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.002288183890886724</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0450493043897679</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0005561434150984816</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01657202065415029</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0005525675125263694</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01659933490063376</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8.346392399517444e-05</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.008663813227800198</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0004363184681520799</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01386509989112363</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>MATIC-USD</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.005231289252545505</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.07498958764790675</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0004038578094758204</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01497815621918233</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>SOL-USD</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.004044725884465609</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.07182484297952729</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>TON-USD</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0006277791916024</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.06824254427809426</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>TRX-USD</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.002231566251630027</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.04737623518475711</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>USDC-USD</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.439140654660258e-06</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.001241952029302097</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>USDT-USD</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-2.050810642745787e-06</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0007281035275920827</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.000151766101611962</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.01318653829784571</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>VOD</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.0002438401746817289</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.014529915233304</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>WBTC-USD</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.001281691832933432</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.03417820766614947</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>XRP-USD</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.002536448557910965</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.06508533059648003</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stocks" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Crypto" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,321 +453,352 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.000409195432119712</v>
+        <v>0.001054895583622141</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01577304597325203</v>
+        <v>0.01847867590763628</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ADA-USD</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002109322907709398</v>
+        <v>0.001178874713675017</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05385911692947309</v>
+        <v>0.02102636305894617</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>BABA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-6.331447102676818e-05</v>
+        <v>0.0002677426938746988</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0197547657637857</v>
+        <v>0.02667360023865977</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>BABA</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0006555208053647794</v>
+        <v>0.0008966390261401635</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02917146136629337</v>
+        <v>0.0179986699792909</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>BNB-USD</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003300274737707548</v>
+        <v>0.0008872120707870734</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05275003261595376</v>
+        <v>0.01795765358692025</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>BTC-USD</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001338890310131067</v>
+        <v>0.0003566857385153873</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03414030084679871</v>
+        <v>0.01162558218396622</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>DAI-USD</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.317790536334618e-05</v>
+        <v>0.0006470654447110065</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002147598150660589</v>
+        <v>0.01767014212288854</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>DOGE-USD</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007118002616628462</v>
+        <v>0.001088953473443014</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1316804669561277</v>
+        <v>0.01764321156525108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DOT-USD</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001307446046721384</v>
+        <v>0.000720909043013748</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05807611652739767</v>
+        <v>0.01599213059296209</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>VOD</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.0001898836618308103</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01724309977823213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rendement moyen</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Risque</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ADA-USD</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.002109322907709398</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.05385911692947309</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>BNB-USD</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.003300274737707548</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.05275003261595376</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>BTC-USD</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.001338890310131067</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03414030084679871</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>DAI-USD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-2.317790536334618e-05</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.002147598150660589</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DOGE-USD</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.007118002616628462</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1316804669561277</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
           <t>ETH-USD</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>0.002288183890886724</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0450493043897679</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>LINK-USD</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.001057863688019033</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05777973265314883</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>MATIC-USD</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.005231289252545505</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07498958764790675</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>SOL-USD</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.004044725884465609</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.07182484297952729</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>TON-USD</t>
+        </is>
+      </c>
       <c r="B11" t="n">
-        <v>0.002288183890886724</v>
+        <v>0.0006277791916024</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0450493043897679</v>
+        <v>0.06824254427809426</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>TRX-USD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0005561434150984816</v>
+        <v>0.002231566251630027</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01657202065415029</v>
+        <v>0.04737623518475711</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>USDC-USD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0005525675125263694</v>
+        <v>-1.439140654660258e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01659933490063376</v>
+        <v>0.001241952029302097</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>USDT-USD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.346392399517444e-05</v>
+        <v>-2.050810642745787e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.008663813227800198</v>
+        <v>0.0007281035275920827</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>WBTC-USD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0004363184681520799</v>
+        <v>0.001281691832933432</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01386509989112363</v>
+        <v>0.03417820766614947</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MATIC-USD</t>
+          <t>XRP-USD</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.005231289252545505</v>
+        <v>0.002536448557910965</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07498958764790675</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.0004038578094758204</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.01497815621918233</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>SOL-USD</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.004044725884465609</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.07182484297952729</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>TON-USD</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.0006277791916024</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.06824254427809426</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>TRX-USD</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.002231566251630027</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.04737623518475711</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>USDC-USD</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-1.439140654660258e-06</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.001241952029302097</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>USDT-USD</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-2.050810642745787e-06</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0007281035275920827</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.000151766101611962</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.01318653829784571</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>VOD</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-0.0002438401746817289</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.014529915233304</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>WBTC-USD</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.001281691832933432</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.03417820766614947</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>XRP-USD</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.002536448557910965</v>
-      </c>
-      <c r="C26" t="n">
         <v>0.06508533059648003</v>
       </c>
     </row>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001054895583622141</v>
+        <v>0.001054895673114402</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01847867590763628</v>
+        <v>0.01847867491084466</v>
       </c>
     </row>
     <row r="3">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0003566857385153873</v>
+        <v>0.0003566856272082148</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01162558218396622</v>
+        <v>0.01162557969174242</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006470654447110065</v>
+        <v>0.000647065282355376</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01767014212288854</v>
+        <v>0.01767013478761275</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001088953473443014</v>
+        <v>0.001088953552583018</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01764321156525108</v>
+        <v>0.0176432111797335</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.000720909043013748</v>
+        <v>0.000720908710344716</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01599213059296209</v>
+        <v>0.01599212540642186</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0001898836618308103</v>
+        <v>-0.000189883565488892</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01724309977823213</v>
+        <v>0.01724310015810733</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,127 +453,647 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001054895673114402</v>
+        <v>0.001054895555572944</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01847867491084466</v>
+        <v>0.01847867447482333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>ABT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001178874713675017</v>
+        <v>0.0005416952747756926</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02102636305894617</v>
+        <v>0.01528473715601849</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>BABA</t>
+          <t>ADBE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0002677426938746988</v>
+        <v>0.001103402251514695</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02667360023865977</v>
+        <v>0.02071299372257333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0008966390261401635</v>
+        <v>0.001178874713675017</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0179986699792909</v>
+        <v>0.02102636305894617</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0008872120707870734</v>
+        <v>0.0005758481949983286</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01795765358692025</v>
+        <v>0.02599460379136834</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>BABA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0003566856272082148</v>
+        <v>0.0002677426938746988</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01162557969174242</v>
+        <v>0.02667360023865977</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>BAC</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000647065282355376</v>
+        <v>0.0004755326305487854</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01767013478761275</v>
+        <v>0.02015362844580841</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001088953552583018</v>
+        <v>0.000198496488061298</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0176432111797335</v>
+        <v>0.02120421753556118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>CHT</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.000720908710344716</v>
+        <v>0.0002925562990510213</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01599212540642186</v>
+        <v>0.007506619568297861</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>CMCSA</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0004072126462929388</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01594469559111097</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>CRM</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0008006283835088566</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02203660521589867</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0005563831765782725</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01622023947879483</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0005415622464441914</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01931672930484613</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0001225323252324117</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01771910474715318</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0008966390261401635</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0179986699792909</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0008872120707870734</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01795765358692025</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0007035886399835734</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01565987103049416</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>HSBC</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0002628874616754772</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01604904221548137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.00032415145076059</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.02099409740675201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.000356685720064391</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.01162558073970719</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0006470655300461573</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.01767014449839382</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0003232159775259994</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.01152940373432401</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0008744038336714326</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0175626250479894</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0006600250271876321</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01312145462965447</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>MDT</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0002404683460474732</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01481739115347224</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0005058900741592228</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01373317277032184</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.001088953681894291</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01764321646456598</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.001330089453165128</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.02838096262369716</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0005307746960312861</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0184806303912544</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.002509128495901868</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.03056223456099247</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>NVS</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.000317494012692424</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01210752382619397</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>ORCL</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0005998772596722054</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01681757401731631</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0004512322086985446</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01190252649444108</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0003006471583654739</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01449131441738842</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0004017943256566751</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01190528152653688</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RHHBF</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0003914420364050721</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.02184836397603263</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RHHBY</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.0002223290596726381</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.01343890498633811</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RHHVF</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.0002523824579198857</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.01632904171870275</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0004927507634865519</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0169410408420956</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.0001637919229711534</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01442551156712614</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>TM</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.0002837993017355613</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0136433983537864</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.001928560184339646</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.03573105759613723</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>TSM</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.0009268842049703122</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.01951412695222395</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.000929681528033192</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01654615943172479</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.0007209088022789359</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01599212785112045</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
           <t>VOD</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>-0.000189883565488892</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01724310015810733</v>
+      <c r="B47" t="n">
+        <v>-0.000189883576742713</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.01724310204498695</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>9.194114477108505e-05</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01190623577692457</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.0001839663886612432</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.02007242291628378</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.0004578236793863101</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.01352588199460474</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.000449779314394794</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0180944416600923</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,647 +453,1037 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001054895555572944</v>
+        <v>0.001040274712496932</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01847867447482333</v>
+        <v>0.01869454606494516</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>ABBV</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0005416952747756926</v>
+        <v>0.0006949433238281674</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01528473715601849</v>
+        <v>0.0171459505138156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>ABT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001103402251514695</v>
+        <v>0.0005167005741716238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02071299372257333</v>
+        <v>0.01551571658795296</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>ACN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001178874713675017</v>
+        <v>0.0007470265847573993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02102636305894617</v>
+        <v>0.0160162917444123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>ADBE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0005758481949983286</v>
+        <v>0.00111405222135381</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02599460379136834</v>
+        <v>0.02110556694851463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>BABA</t>
+          <t>AMGN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0002677426938746988</v>
+        <v>0.0005033745486264566</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02667360023865977</v>
+        <v>0.01564144202365207</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>BAC</t>
+          <t>AMT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004755326305487854</v>
+        <v>0.0004784298732386342</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02015362844580841</v>
+        <v>0.01624234732177186</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.000198496488061298</v>
+        <v>0.001070108456191469</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02120421753556118</v>
+        <v>0.02098810031423293</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>CHT</t>
+          <t>ASML</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0002925562990510213</v>
+        <v>0.001145376488215516</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007506619568297861</v>
+        <v>0.02279879211792592</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>CMCSA</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0004072126462929388</v>
+        <v>0.00124300916108987</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01594469559111097</v>
+        <v>0.02204348568091246</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>AZN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0008006283835088566</v>
+        <v>0.0006150341856561306</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02203660521589867</v>
+        <v>0.01594618905452322</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0005563831765782725</v>
+        <v>0.0005622893665982008</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01622023947879483</v>
+        <v>0.02659193012552118</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>BABA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0005415622464441914</v>
+        <v>0.00039661981651828</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01931672930484613</v>
+        <v>0.02708216616083434</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>BAC</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001225323252324117</v>
+        <v>0.0005219527112686506</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01771910474715318</v>
+        <v>0.0204611850116288</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>BMY</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0008966390261401635</v>
+        <v>0.0001591416873560012</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0179986699792909</v>
+        <v>0.01531360324710696</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0008872120707870734</v>
+        <v>0.0004404400740882937</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01795765358692025</v>
+        <v>0.02080516409145954</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0007035886399835734</v>
+        <v>0.0001977317003174867</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01565987103049416</v>
+        <v>0.02160798314775424</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>HSBC</t>
+          <t>CHT</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0002628874616754772</v>
+        <v>0.0002721477637507958</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01604904221548137</v>
+        <v>0.007540397599973695</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>CHTR</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.00032415145076059</v>
+        <v>0.0006303396917614483</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02099409740675201</v>
+        <v>0.01911559578395541</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>CMCSA</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.000356685720064391</v>
+        <v>0.0003834017391341349</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01162558073970719</v>
+        <v>0.01617251789775197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>COST</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0006470655300461573</v>
+        <v>0.0008541703144026839</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01767014449839382</v>
+        <v>0.01398766061320373</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>CRM</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0003232159775259994</v>
+        <v>0.0007605320909565963</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01152940373432401</v>
+        <v>0.0220482232836806</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0008744038336714326</v>
+        <v>0.0005836712933622332</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0175626250479894</v>
+        <v>0.01633593444576443</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0006600250271876321</v>
+        <v>0.0006430528549161332</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01312145462965447</v>
+        <v>0.01964229323332322</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>MDT</t>
+          <t>DHR</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0002404683460474732</v>
+        <v>0.000781467436176839</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01481739115347224</v>
+        <v>0.01512624526583509</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0005058900741592228</v>
+        <v>2.182023778795684e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01373317277032184</v>
+        <v>0.01802903637272476</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.001088953681894291</v>
+        <v>0.0001522795535976519</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01764321646456598</v>
+        <v>0.02294337523605364</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.001330089453165128</v>
+        <v>0.0009469310892465169</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02838096262369716</v>
+        <v>0.01828251623091311</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0005307746960312861</v>
+        <v>0.0009218935219076105</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0184806303912544</v>
+        <v>0.01823216814295374</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>GSK</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.002509128495901868</v>
+        <v>0.0002242078706366557</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03056223456099247</v>
+        <v>0.0131977607087973</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>NVS</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.000317494012692424</v>
+        <v>0.0007011406953281733</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01210752382619397</v>
+        <v>0.01583273506341279</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>HDB</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0005998772596722054</v>
+        <v>0.0005118192318930531</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01681757401731631</v>
+        <v>0.01870428705087024</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>HON</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0004512322086985446</v>
+        <v>0.0005017442478523136</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01190252649444108</v>
+        <v>0.01497661315069674</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>HSBC</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0003006471583654739</v>
+        <v>0.0002883856868494984</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01449131441738842</v>
+        <v>0.01627308243611357</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0004017943256566751</v>
+        <v>0.0002410523659261634</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01190528152653688</v>
+        <v>0.01534360579187221</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>RHHBF</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0003914420364050721</v>
+        <v>0.0004214887261212904</v>
       </c>
       <c r="C37" t="n">
-        <v>0.02184836397603263</v>
+        <v>0.02127119141551402</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>RHHBY</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0002223290596726381</v>
+        <v>0.0003987860734584995</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01343890498633811</v>
+        <v>0.01173882219438895</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>RHHVF</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0002523824579198857</v>
+        <v>0.0006394180401038443</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01632904171870275</v>
+        <v>0.01794303872269249</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0004927507634865519</v>
+        <v>0.0003650690823340727</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0169410408420956</v>
+        <v>0.01170302512921251</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0001637919229711534</v>
+        <v>0.0007474156529249695</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01442551156712614</v>
+        <v>0.01518539472510748</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0002837993017355613</v>
+        <v>0.001114912085511683</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0136433983537864</v>
+        <v>0.01754760181198701</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>LMT</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.001928560184339646</v>
+        <v>0.0005876769508331293</v>
       </c>
       <c r="C43" t="n">
-        <v>0.03573105759613723</v>
+        <v>0.0145863059109185</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0009268842049703122</v>
+        <v>0.0008741162985255469</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01951412695222395</v>
+        <v>0.01785245061885934</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.000929681528033192</v>
+        <v>0.0006758201781620831</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01654615943172479</v>
+        <v>0.01323086522511892</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>MDT</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0007209088022789359</v>
+        <v>0.0002353458499757061</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01599212785112045</v>
+        <v>0.01496592391687696</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>VOD</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.000189883576742713</v>
+        <v>0.000522099454154111</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01724310204498695</v>
+        <v>0.01385985528482957</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>9.194114477108505e-05</v>
+        <v>0.001164256153656773</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01190623577692457</v>
+        <v>0.01764232476946816</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>WFC</t>
+          <t>NEE</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0001839663886612432</v>
+        <v>0.000610552935649201</v>
       </c>
       <c r="C49" t="n">
-        <v>0.02007242291628378</v>
+        <v>0.01511815085587126</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0004578236793863101</v>
+        <v>0.001078914039647918</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01352588199460474</v>
+        <v>0.02837877324274769</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.000486770507990219</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.01883846124946516</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.002645968446390227</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.03113619053404869</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>NVO</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.0008808813949338766</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0171249478307399</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>NVS</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.0002869199237869058</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.01212595909007617</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>ORCL</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.0006747964049142747</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.01705886525317844</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.0004697778152418988</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01206818433716957</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.0002795394824347836</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.01475740658564985</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.0004755091609152649</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01207480020860235</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.0003809284463944712</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.01495336088290114</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>PYPL</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.0005231166197433573</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.02433993671223285</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>RHHBF</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0003837764111473149</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.02216581233544691</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>RHHBY</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.0001987648848414008</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.01346611755009137</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>RHHVF</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.0002358167200730865</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.01651415077428993</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RY</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.0004139167344853909</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.01326155702326036</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0005213024874377283</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.0170845767090589</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>SBUX</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.0004730922397425397</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.01715972526691126</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>SNY</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.0003043075690955607</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.0142444928280821</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.0001286430124237801</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.0146671489292896</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>TM</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.0002644469688683192</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.01380701248722747</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.0007958074141930897</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.01612866431402587</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.001915866421564695</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.03646031276961033</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>TSM</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0009458049877070196</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.01968058183180242</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>TXN</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.0008162825796689865</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.01819887473394996</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.0008832852283905833</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.0166593941348576</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>UNP</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0005928200884897495</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.01682684885544203</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.000745228200302246</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.01620161548149334</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>VOD</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.0002489200742549407</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.01747335551474773</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>8.346677648507286e-05</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.01208491114502974</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0001703374148714387</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.02051377383034084</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0005577931832144811</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.01367609594544045</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
           <t>XOM</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>0.000449779314394794</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.0180944416600923</v>
+      <c r="B81" t="n">
+        <v>0.0005228492757351416</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.01845269081528596</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -272,10 +272,10 @@
     <t>BTC-USD</t>
   </si>
   <si>
-    <t>DAI-USD</t>
-  </si>
-  <si>
     <t>DOGE-USD</t>
+  </si>
+  <si>
+    <t>DOT-USD</t>
   </si>
   <si>
     <t>ETH-USD</t>
@@ -682,10 +682,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.001040274793576649</v>
+        <v>0.001040274805943864</v>
       </c>
       <c r="C2">
-        <v>0.01869454551851843</v>
+        <v>0.01869454577872105</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -693,10 +693,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.0006949431587481252</v>
+        <v>0.0006949433457509914</v>
       </c>
       <c r="C3">
-        <v>0.01714595212948727</v>
+        <v>0.01714595398544126</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -704,10 +704,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.0005167005253239857</v>
+        <v>0.0005167004672045829</v>
       </c>
       <c r="C4">
-        <v>0.01551571916841456</v>
+        <v>0.01551572079405033</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -715,10 +715,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.0007470266001052135</v>
+        <v>0.0007470263954237301</v>
       </c>
       <c r="C5">
-        <v>0.01601628973094562</v>
+        <v>0.01601628517350174</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -737,10 +737,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.0005033744457933448</v>
+        <v>0.0005033747232596893</v>
       </c>
       <c r="C7">
-        <v>0.01564143728690767</v>
+        <v>0.01564144545509704</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -748,10 +748,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.000478430078814772</v>
+        <v>0.0004784300136614811</v>
       </c>
       <c r="C8">
-        <v>0.0162423512276156</v>
+        <v>0.01624235007327382</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -770,10 +770,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.001145376418813511</v>
+        <v>0.001145376479342465</v>
       </c>
       <c r="C10">
-        <v>0.02279878919941314</v>
+        <v>0.02279879191341065</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -781,10 +781,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.001243009105459026</v>
+        <v>0.001243009109070928</v>
       </c>
       <c r="C11">
-        <v>0.02204348364064606</v>
+        <v>0.02204348697407759</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -792,10 +792,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.0006150340834873372</v>
+        <v>0.0006150341346900171</v>
       </c>
       <c r="C12">
-        <v>0.01594619196578224</v>
+        <v>0.0159461907015981</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -803,10 +803,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.0005622893610758368</v>
+        <v>0.0005622893994287648</v>
       </c>
       <c r="C13">
-        <v>0.0265919298829404</v>
+        <v>0.02659193029580943</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -825,10 +825,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.0005219525961043611</v>
+        <v>0.0005219524393068289</v>
       </c>
       <c r="C15">
-        <v>0.02046118396830489</v>
+        <v>0.02046117811023034</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -836,10 +836,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.0001591416707333016</v>
+        <v>0.0001591414459888042</v>
       </c>
       <c r="C16">
-        <v>0.01531360908444834</v>
+        <v>0.01531359660101454</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -847,10 +847,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.0004404400951194965</v>
+        <v>0.0004404400974900765</v>
       </c>
       <c r="C17">
-        <v>0.02080516372794215</v>
+        <v>0.02080516373726509</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -858,10 +858,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.0001977318544392257</v>
+        <v>0.0001977318121623644</v>
       </c>
       <c r="C18">
-        <v>0.02160798504112185</v>
+        <v>0.02160799037043204</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -869,10 +869,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.00027214780445621</v>
+        <v>0.0002721477072497585</v>
       </c>
       <c r="C19">
-        <v>0.007540397389800299</v>
+        <v>0.007540395733154363</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -891,10 +891,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.0003834016245025595</v>
+        <v>0.0003834017122983347</v>
       </c>
       <c r="C21">
-        <v>0.01617251061915201</v>
+        <v>0.01617251175688755</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -902,10 +902,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.0008541704241408355</v>
+        <v>0.0008541702915496731</v>
       </c>
       <c r="C22">
-        <v>0.01398765962390736</v>
+        <v>0.01398766111829008</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -924,10 +924,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.0005836714039404678</v>
+        <v>0.0005836712815873848</v>
       </c>
       <c r="C24">
-        <v>0.01633594130910484</v>
+        <v>0.01633593916632693</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -935,10 +935,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.0006430528423527042</v>
+        <v>0.000643053007192623</v>
       </c>
       <c r="C25">
-        <v>0.01964229565032276</v>
+        <v>0.01964230048833777</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -946,10 +946,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.0007814674685147466</v>
+        <v>0.0007814675614885127</v>
       </c>
       <c r="C26">
-        <v>0.01512624513602869</v>
+        <v>0.01512624906783477</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -957,10 +957,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>2.18202816645283E-05</v>
+        <v>2.182021188460377E-05</v>
       </c>
       <c r="C27">
-        <v>0.01802903684648597</v>
+        <v>0.0180290367383379</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -968,10 +968,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.0001522796564959937</v>
+        <v>0.0001522794625631943</v>
       </c>
       <c r="C28">
-        <v>0.02294337726117686</v>
+        <v>0.02294337554453492</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.0002242079351802173</v>
+        <v>0.0002242077814322748</v>
       </c>
       <c r="C31">
-        <v>0.01319776292892342</v>
+        <v>0.0131977588250851</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.0007011406281034636</v>
+        <v>0.0007011405672606856</v>
       </c>
       <c r="C32">
-        <v>0.0158327287414195</v>
+        <v>0.01583273226599517</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.0005118191958027631</v>
+        <v>0.0005118191814721143</v>
       </c>
       <c r="C33">
-        <v>0.01870428691721769</v>
+        <v>0.01870428613517179</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.000501744186504392</v>
+        <v>0.0005017443887235558</v>
       </c>
       <c r="C34">
-        <v>0.01497661223651078</v>
+        <v>0.01497661687076971</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.0002883858280490644</v>
+        <v>0.0002883859169647865</v>
       </c>
       <c r="C35">
-        <v>0.01627308316444551</v>
+        <v>0.01627308676744977</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.0002410524111640956</v>
+        <v>0.0002410526056787282</v>
       </c>
       <c r="C36">
-        <v>0.01534361062057859</v>
+        <v>0.01534361462446466</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.000421488468727475</v>
+        <v>0.0004214885173098026</v>
       </c>
       <c r="C37">
-        <v>0.02127118103451454</v>
+        <v>0.02127118682541714</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.0003987863166829072</v>
+        <v>0.0003987861640579937</v>
       </c>
       <c r="C38">
-        <v>0.01173882319763964</v>
+        <v>0.01173882212740428</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.0006394179709844974</v>
+        <v>0.0006394180108161035</v>
       </c>
       <c r="C39">
-        <v>0.01794303483947307</v>
+        <v>0.01794304293207898</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.000365069007675816</v>
+        <v>0.0003650689361128029</v>
       </c>
       <c r="C40">
-        <v>0.01170301889743642</v>
+        <v>0.01170302295075284</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.0007474156467365147</v>
+        <v>0.0007474156643399355</v>
       </c>
       <c r="C41">
-        <v>0.01518538968818282</v>
+        <v>0.0151853932899955</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.001114912109240892</v>
+        <v>0.001114912019626893</v>
       </c>
       <c r="C42">
-        <v>0.0175476069134987</v>
+        <v>0.01754759844811884</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.0005876771007511115</v>
+        <v>0.0005876770654467698</v>
       </c>
       <c r="C43">
-        <v>0.01458630952493351</v>
+        <v>0.01458630688395485</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.0008741160044996112</v>
+        <v>0.000874116228186846</v>
       </c>
       <c r="C44">
-        <v>0.01785244579738341</v>
+        <v>0.01785245366507381</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.0006758200458304094</v>
+        <v>0.0006758199255548094</v>
       </c>
       <c r="C45">
-        <v>0.01323086951056783</v>
+        <v>0.0132308602556366</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.0002353458236733962</v>
+        <v>0.0002353456120550179</v>
       </c>
       <c r="C46">
-        <v>0.01496592441942003</v>
+        <v>0.01496592226932979</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.0005220994557936554</v>
+        <v>0.0005220993984260933</v>
       </c>
       <c r="C47">
-        <v>0.01385985534356964</v>
+        <v>0.01385985442728419</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.001164256283209483</v>
+        <v>0.001164256288947322</v>
       </c>
       <c r="C48">
-        <v>0.01764232950902494</v>
+        <v>0.01764232710184882</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.0006105528774445658</v>
+        <v>0.0006105529046968781</v>
       </c>
       <c r="C49">
-        <v>0.01511814983439084</v>
+        <v>0.01511814561634551</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.0004867706781588385</v>
+        <v>0.000486770779842394</v>
       </c>
       <c r="C51">
-        <v>0.01883846427043449</v>
+        <v>0.01883846632750532</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.002645968531756273</v>
+        <v>0.002645968338421937</v>
       </c>
       <c r="C52">
-        <v>0.03113619324976485</v>
+        <v>0.03113618432632288</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.0008808813650958994</v>
+        <v>0.0008808812895971894</v>
       </c>
       <c r="C53">
-        <v>0.01712494574277756</v>
+        <v>0.01712494443486227</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.000286919919167304</v>
+        <v>0.0002869198445529987</v>
       </c>
       <c r="C54">
-        <v>0.01212595871818864</v>
+        <v>0.01212595722966888</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.0006747963983309762</v>
+        <v>0.0006747962661647984</v>
       </c>
       <c r="C55">
-        <v>0.01705886812664482</v>
+        <v>0.01705886620269276</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.0004697778897861447</v>
+        <v>0.0004697779166595275</v>
       </c>
       <c r="C56">
-        <v>0.01206818647530891</v>
+        <v>0.01206818851698195</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.0002795394147740729</v>
+        <v>0.00027953951258137</v>
       </c>
       <c r="C57">
-        <v>0.01475740721730078</v>
+        <v>0.0147574114256138</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.0004755091659047333</v>
+        <v>0.0004755092624498337</v>
       </c>
       <c r="C58">
-        <v>0.01207479310335409</v>
+        <v>0.01207479412072682</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.000380928611523525</v>
+        <v>0.0003809285866428235</v>
       </c>
       <c r="C59">
-        <v>0.01495336946450668</v>
+        <v>0.01495336095858413</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.0003837763950892709</v>
+        <v>0.0003837763352706466</v>
       </c>
       <c r="C61">
-        <v>0.02216581140425623</v>
+        <v>0.02216581016518313</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.0001987649291742242</v>
+        <v>0.0001987648500499688</v>
       </c>
       <c r="C62">
-        <v>0.01346611836942242</v>
+        <v>0.01346611503024537</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.0002358167285076431</v>
+        <v>0.0002358167096391119</v>
       </c>
       <c r="C63">
-        <v>0.01651414918410494</v>
+        <v>0.01651415209573394</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.0004139167363193164</v>
+        <v>0.0004139167453992826</v>
       </c>
       <c r="C64">
-        <v>0.01326156653178704</v>
+        <v>0.01326156426985187</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.0005213024877225206</v>
+        <v>0.0005213024922746487</v>
       </c>
       <c r="C65">
-        <v>0.01708457499038899</v>
+        <v>0.01708457339245396</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.0004730922529033808</v>
+        <v>0.0004730921216594786</v>
       </c>
       <c r="C66">
-        <v>0.01715971919885855</v>
+        <v>0.01715971856654771</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.0003043075695365771</v>
+        <v>0.0003043076244917839</v>
       </c>
       <c r="C67">
-        <v>0.014244492693151</v>
+        <v>0.01424449283468452</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.000128643057756283</v>
+        <v>0.0001286428637827233</v>
       </c>
       <c r="C68">
-        <v>0.0146671497751484</v>
+        <v>0.01466714787473131</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.0002644469939333272</v>
+        <v>0.0002644469651902904</v>
       </c>
       <c r="C69">
-        <v>0.01380701219902051</v>
+        <v>0.01380701223177128</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.0007958074280448582</v>
+        <v>0.0007958073266762181</v>
       </c>
       <c r="C70">
-        <v>0.01612867059587225</v>
+        <v>0.01612866966790688</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.0009458051700513702</v>
+        <v>0.0009458049701675722</v>
       </c>
       <c r="C72">
-        <v>0.01968058332649429</v>
+        <v>0.01968057830413482</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.0008162825134869176</v>
+        <v>0.0008162825466445646</v>
       </c>
       <c r="C73">
-        <v>0.01819887399733678</v>
+        <v>0.01819887291172259</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.0008832851998999488</v>
+        <v>0.0008832852936993715</v>
       </c>
       <c r="C74">
-        <v>0.01665939672184346</v>
+        <v>0.01665940029502935</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.0005928200734554233</v>
+        <v>0.0005928200250519067</v>
       </c>
       <c r="C75">
-        <v>0.01682684233213257</v>
+        <v>0.01682683958795737</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.0007452283691047083</v>
+        <v>0.0007452283662661815</v>
       </c>
       <c r="C76">
-        <v>0.01620161539187021</v>
+        <v>0.01620161865235581</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>-0.0002489200072177894</v>
+        <v>-0.00024891996758383</v>
       </c>
       <c r="C77">
-        <v>0.01747335713598355</v>
+        <v>0.01747335449581276</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>8.346649977394596E-05</v>
+        <v>8.346650527783939E-05</v>
       </c>
       <c r="C78">
-        <v>0.01208490043294877</v>
+        <v>0.01208490838389468</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.0001703375762789769</v>
+        <v>0.0001703375457198461</v>
       </c>
       <c r="C79">
-        <v>0.02051378161692472</v>
+        <v>0.02051378024748879</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.0005577931079438303</v>
+        <v>0.0005577931824642184</v>
       </c>
       <c r="C80">
-        <v>0.01367609040550348</v>
+        <v>0.01367608902130595</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.0005228493493823619</v>
+        <v>0.0005228493615443696</v>
       </c>
       <c r="C81">
-        <v>0.01845269795586207</v>
+        <v>0.01845269540396306</v>
       </c>
     </row>
   </sheetData>
@@ -1616,10 +1616,10 @@
         <v>85</v>
       </c>
       <c r="B5">
-        <v>-2.317790536334618E-05</v>
+        <v>0.007118002616628451</v>
       </c>
       <c r="C5">
-        <v>0.00214759815066059</v>
+        <v>0.1316804669561276</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1627,10 +1627,10 @@
         <v>86</v>
       </c>
       <c r="B6">
-        <v>0.007118002616628451</v>
+        <v>0.001307446046721381</v>
       </c>
       <c r="C6">
-        <v>0.1316804669561276</v>
+        <v>0.05807611652739762</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -682,10 +682,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.001040274805943864</v>
+        <v>0.001040274756821002</v>
       </c>
       <c r="C2">
-        <v>0.01869454577872105</v>
+        <v>0.01869454521168331</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -693,10 +693,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.0006949433457509914</v>
+        <v>0.0006949432967698696</v>
       </c>
       <c r="C3">
-        <v>0.01714595398544126</v>
+        <v>0.01714594907271711</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -704,10 +704,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.0005167004672045829</v>
+        <v>0.0005167005371119633</v>
       </c>
       <c r="C4">
-        <v>0.01551572079405033</v>
+        <v>0.01551571979066211</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -715,10 +715,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.0007470263954237301</v>
+        <v>0.0007470265754584007</v>
       </c>
       <c r="C5">
-        <v>0.01601628517350174</v>
+        <v>0.0160162908321481</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -737,10 +737,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.0005033747232596893</v>
+        <v>0.0005033746239616729</v>
       </c>
       <c r="C7">
-        <v>0.01564144545509704</v>
+        <v>0.01564143922280147</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -748,10 +748,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.0004784300136614811</v>
+        <v>0.0004784299577116592</v>
       </c>
       <c r="C8">
-        <v>0.01624235007327382</v>
+        <v>0.0162423524210238</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -770,10 +770,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.001145376479342465</v>
+        <v>0.001145376488938215</v>
       </c>
       <c r="C10">
-        <v>0.02279879191341065</v>
+        <v>0.02279879054115951</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -781,10 +781,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.001243009109070928</v>
+        <v>0.001243009195957348</v>
       </c>
       <c r="C11">
-        <v>0.02204348697407759</v>
+        <v>0.0220434843360698</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -792,10 +792,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.0006150341346900171</v>
+        <v>0.0006150341426012738</v>
       </c>
       <c r="C12">
-        <v>0.0159461907015981</v>
+        <v>0.0159461934058178</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -803,10 +803,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.0005622893994287648</v>
+        <v>0.0005622894991643764</v>
       </c>
       <c r="C13">
-        <v>0.02659193029580943</v>
+        <v>0.02659193172178421</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -825,10 +825,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.0005219524393068289</v>
+        <v>0.0005219526754124028</v>
       </c>
       <c r="C15">
-        <v>0.02046117811023034</v>
+        <v>0.02046118515225863</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -836,10 +836,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.0001591414459888042</v>
+        <v>0.0001591416740289222</v>
       </c>
       <c r="C16">
-        <v>0.01531359660101454</v>
+        <v>0.01531359785407953</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -847,10 +847,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.0004404400974900765</v>
+        <v>0.0004404400466081354</v>
       </c>
       <c r="C17">
-        <v>0.02080516373726509</v>
+        <v>0.02080516163973757</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -858,10 +858,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.0001977318121623644</v>
+        <v>0.0001977318408605276</v>
       </c>
       <c r="C18">
-        <v>0.02160799037043204</v>
+        <v>0.02160799036929658</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -869,10 +869,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.0002721477072497585</v>
+        <v>0.0002721477545911181</v>
       </c>
       <c r="C19">
-        <v>0.007540395733154363</v>
+        <v>0.007540396380124268</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -891,10 +891,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.0003834017122983347</v>
+        <v>0.0003834016700380002</v>
       </c>
       <c r="C21">
-        <v>0.01617251175688755</v>
+        <v>0.01617251131429077</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -902,10 +902,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.0008541702915496731</v>
+        <v>0.0008541704052971146</v>
       </c>
       <c r="C22">
-        <v>0.01398766111829008</v>
+        <v>0.01398766251612367</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -924,10 +924,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.0005836712815873848</v>
+        <v>0.000583671307142252</v>
       </c>
       <c r="C24">
-        <v>0.01633593916632693</v>
+        <v>0.01633593782458157</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -935,10 +935,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.000643053007192623</v>
+        <v>0.0006430528266175385</v>
       </c>
       <c r="C25">
-        <v>0.01964230048833777</v>
+        <v>0.01964229211114272</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -946,10 +946,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.0007814675614885127</v>
+        <v>0.0007814674620417726</v>
       </c>
       <c r="C26">
-        <v>0.01512624906783477</v>
+        <v>0.01512624915833519</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -957,10 +957,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>2.182021188460377E-05</v>
+        <v>2.1820211494836E-05</v>
       </c>
       <c r="C27">
-        <v>0.0180290367383379</v>
+        <v>0.01802903676198264</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -968,10 +968,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.0001522794625631943</v>
+        <v>0.0001522796078584949</v>
       </c>
       <c r="C28">
-        <v>0.02294337554453492</v>
+        <v>0.0229433796401166</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.0002242077814322748</v>
+        <v>0.0002242079261936986</v>
       </c>
       <c r="C31">
-        <v>0.0131977588250851</v>
+        <v>0.01319776492045858</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.0007011405672606856</v>
+        <v>0.0007011407353023524</v>
       </c>
       <c r="C32">
-        <v>0.01583273226599517</v>
+        <v>0.01583273547892684</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.0005118191814721143</v>
+        <v>0.0005118192594203425</v>
       </c>
       <c r="C33">
-        <v>0.01870428613517179</v>
+        <v>0.01870428688590076</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.0005017443887235558</v>
+        <v>0.0005017443870830003</v>
       </c>
       <c r="C34">
-        <v>0.01497661687076971</v>
+        <v>0.01497662256455324</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.0002883859169647865</v>
+        <v>0.0002883858166826272</v>
       </c>
       <c r="C35">
-        <v>0.01627308676744977</v>
+        <v>0.01627308451735921</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.0002410526056787282</v>
+        <v>0.000241052451119039</v>
       </c>
       <c r="C36">
-        <v>0.01534361462446466</v>
+        <v>0.0153436133441924</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.0004214885173098026</v>
+        <v>0.0004214884611809981</v>
       </c>
       <c r="C37">
-        <v>0.02127118682541714</v>
+        <v>0.02127118610311857</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.0003987861640579937</v>
+        <v>0.0003987860786340199</v>
       </c>
       <c r="C38">
-        <v>0.01173882212740428</v>
+        <v>0.01173882262606762</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.0006394180108161035</v>
+        <v>0.0006394180126307248</v>
       </c>
       <c r="C39">
-        <v>0.01794304293207898</v>
+        <v>0.01794303705331793</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.0003650689361128029</v>
+        <v>0.0003650689616029806</v>
       </c>
       <c r="C40">
-        <v>0.01170302295075284</v>
+        <v>0.01170301979080316</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.0007474156643399355</v>
+        <v>0.0007474155820355542</v>
       </c>
       <c r="C41">
-        <v>0.0151853932899955</v>
+        <v>0.01518538528468607</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.001114912019626893</v>
+        <v>0.001114912090395078</v>
       </c>
       <c r="C42">
-        <v>0.01754759844811884</v>
+        <v>0.01754760254396012</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.0005876770654467698</v>
+        <v>0.0005876771120935258</v>
       </c>
       <c r="C43">
-        <v>0.01458630688395485</v>
+        <v>0.01458631337376214</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.000874116228186846</v>
+        <v>0.0008741162994031474</v>
       </c>
       <c r="C44">
-        <v>0.01785245366507381</v>
+        <v>0.01785245086576402</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.0006758199255548094</v>
+        <v>0.0006758200529767223</v>
       </c>
       <c r="C45">
-        <v>0.0132308602556366</v>
+        <v>0.01323086639665938</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.0002353456120550179</v>
+        <v>0.0002353457928866959</v>
       </c>
       <c r="C46">
-        <v>0.01496592226932979</v>
+        <v>0.01496593185999087</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.0005220993984260933</v>
+        <v>0.0005220994993949138</v>
       </c>
       <c r="C47">
-        <v>0.01385985442728419</v>
+        <v>0.01385984928488124</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.001164256288947322</v>
+        <v>0.001164256203869369</v>
       </c>
       <c r="C48">
-        <v>0.01764232710184882</v>
+        <v>0.01764232747531761</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.0006105529046968781</v>
+        <v>0.0006105526487410794</v>
       </c>
       <c r="C49">
-        <v>0.01511814561634551</v>
+        <v>0.01511814067173513</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.000486770779842394</v>
+        <v>0.0004867707076766866</v>
       </c>
       <c r="C51">
-        <v>0.01883846632750532</v>
+        <v>0.01883846806087422</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.002645968338421937</v>
+        <v>0.002645968756772918</v>
       </c>
       <c r="C52">
-        <v>0.03113618432632288</v>
+        <v>0.03113619702021269</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.0008808812895971894</v>
+        <v>0.0008808813448649547</v>
       </c>
       <c r="C53">
-        <v>0.01712494443486227</v>
+        <v>0.01712494482232172</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.0002869198445529987</v>
+        <v>0.0002869198703428493</v>
       </c>
       <c r="C54">
-        <v>0.01212595722966888</v>
+        <v>0.01212595932631403</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.0006747962661647984</v>
+        <v>0.0006747965813157805</v>
       </c>
       <c r="C55">
-        <v>0.01705886620269276</v>
+        <v>0.0170588663113588</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.0004697779166595275</v>
+        <v>0.0004697777637473266</v>
       </c>
       <c r="C56">
-        <v>0.01206818851698195</v>
+        <v>0.01206818393885808</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.00027953951258137</v>
+        <v>0.0002795395359936851</v>
       </c>
       <c r="C57">
-        <v>0.0147574114256138</v>
+        <v>0.0147574102662215</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.0004755092624498337</v>
+        <v>0.000475509104600712</v>
       </c>
       <c r="C58">
-        <v>0.01207479412072682</v>
+        <v>0.01207479779150704</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.0003809285866428235</v>
+        <v>0.0003809284035322529</v>
       </c>
       <c r="C59">
-        <v>0.01495336095858413</v>
+        <v>0.01495335534640442</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.0003837763352706466</v>
+        <v>0.0003837763014442458</v>
       </c>
       <c r="C61">
-        <v>0.02216581016518313</v>
+        <v>0.02216580870153535</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.0001987648500499688</v>
+        <v>0.0001987647726997432</v>
       </c>
       <c r="C62">
-        <v>0.01346611503024537</v>
+        <v>0.01346611175757829</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.0002358167096391119</v>
+        <v>0.0002358167603066813</v>
       </c>
       <c r="C63">
-        <v>0.01651415209573394</v>
+        <v>0.0165141511155172</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.0004139167453992826</v>
+        <v>0.000413916783199276</v>
       </c>
       <c r="C64">
-        <v>0.01326156426985187</v>
+        <v>0.01326156382642471</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.0005213024922746487</v>
+        <v>0.00052130240285592</v>
       </c>
       <c r="C65">
-        <v>0.01708457339245396</v>
+        <v>0.01708457352997719</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.0004730921216594786</v>
+        <v>0.0004730922225808298</v>
       </c>
       <c r="C66">
-        <v>0.01715971856654771</v>
+        <v>0.01715971971717857</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.0003043076244917839</v>
+        <v>0.000304307526695444</v>
       </c>
       <c r="C67">
-        <v>0.01424449283468452</v>
+        <v>0.01424449333761882</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.0001286428637827233</v>
+        <v>0.0001286430225213921</v>
       </c>
       <c r="C68">
-        <v>0.01466714787473131</v>
+        <v>0.0146671472767493</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.0002644469651902904</v>
+        <v>0.0002644469945805133</v>
       </c>
       <c r="C69">
-        <v>0.01380701223177128</v>
+        <v>0.01380701225172753</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.0007958073266762181</v>
+        <v>0.0007958074456768196</v>
       </c>
       <c r="C70">
-        <v>0.01612866966790688</v>
+        <v>0.01612866283346465</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.0009458049701675722</v>
+        <v>0.000945805159618892</v>
       </c>
       <c r="C72">
-        <v>0.01968057830413482</v>
+        <v>0.01968058515087048</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.0008162825466445646</v>
+        <v>0.0008162826952337798</v>
       </c>
       <c r="C73">
-        <v>0.01819887291172259</v>
+        <v>0.01819887879042482</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.0008832852936993715</v>
+        <v>0.0008832852260685303</v>
       </c>
       <c r="C74">
-        <v>0.01665940029502935</v>
+        <v>0.01665939566371919</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.0005928200250519067</v>
+        <v>0.0005928199885702944</v>
       </c>
       <c r="C75">
-        <v>0.01682683958795737</v>
+        <v>0.0168268372792204</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.0007452283662661815</v>
+        <v>0.0007452282413881049</v>
       </c>
       <c r="C76">
-        <v>0.01620161865235581</v>
+        <v>0.01620161084059062</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>-0.00024891996758383</v>
+        <v>-0.0002489200805213392</v>
       </c>
       <c r="C77">
-        <v>0.01747335449581276</v>
+        <v>0.01747335515358839</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>8.346650527783939E-05</v>
+        <v>8.346656750366252E-05</v>
       </c>
       <c r="C78">
-        <v>0.01208490838389468</v>
+        <v>0.01208490847195566</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.0001703375457198461</v>
+        <v>0.0001703374829970331</v>
       </c>
       <c r="C79">
-        <v>0.02051378024748879</v>
+        <v>0.02051377941315982</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.0005577931824642184</v>
+        <v>0.0005577928908012457</v>
       </c>
       <c r="C80">
-        <v>0.01367608902130595</v>
+        <v>0.01367608550231379</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.0005228493615443696</v>
+        <v>0.0005228492549236774</v>
       </c>
       <c r="C81">
-        <v>0.01845269540396306</v>
+        <v>0.01845269303755741</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="440">
   <si>
     <t>Rendement moyen</t>
   </si>
@@ -29,33 +29,117 @@
     <t>ABBV</t>
   </si>
   <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>ABEC</t>
+  </si>
+  <si>
     <t>ABT</t>
   </si>
   <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>ACES</t>
+  </si>
+  <si>
     <t>ACN</t>
   </si>
   <si>
+    <t>ACRO</t>
+  </si>
+  <si>
+    <t>ADB</t>
+  </si>
+  <si>
     <t>ADBE</t>
   </si>
   <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>AEM</t>
+  </si>
+  <si>
+    <t>AFMC</t>
+  </si>
+  <si>
+    <t>AFPR</t>
+  </si>
+  <si>
+    <t>AGI</t>
+  </si>
+  <si>
+    <t>AIH</t>
+  </si>
+  <si>
+    <t>ALCN</t>
+  </si>
+  <si>
+    <t>ALEX</t>
+  </si>
+  <si>
+    <t>ALHE</t>
+  </si>
+  <si>
+    <t>ALRPR</t>
+  </si>
+  <si>
+    <t>AMER</t>
+  </si>
+  <si>
     <t>AMGN</t>
   </si>
   <si>
+    <t>AMOT</t>
+  </si>
+  <si>
     <t>AMT</t>
   </si>
   <si>
     <t>AMZN</t>
   </si>
   <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>APIC</t>
+  </si>
+  <si>
+    <t>AQN</t>
+  </si>
+  <si>
+    <t>ARCC</t>
+  </si>
+  <si>
+    <t>ARPT</t>
+  </si>
+  <si>
+    <t>ASHG</t>
+  </si>
+  <si>
+    <t>ASII</t>
+  </si>
+  <si>
     <t>ASML</t>
   </si>
   <si>
+    <t>AUB</t>
+  </si>
+  <si>
     <t>AVGO</t>
   </si>
   <si>
+    <t>AXP</t>
+  </si>
+  <si>
     <t>AZN</t>
   </si>
   <si>
+    <t>AZRG</t>
+  </si>
+  <si>
     <t>BA</t>
   </si>
   <si>
@@ -65,114 +149,744 @@
     <t>BAC</t>
   </si>
   <si>
+    <t>BAM</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>BBCA</t>
+  </si>
+  <si>
+    <t>BBMD</t>
+  </si>
+  <si>
+    <t>BBU</t>
+  </si>
+  <si>
+    <t>BCAP</t>
+  </si>
+  <si>
+    <t>BCE</t>
+  </si>
+  <si>
+    <t>BCI</t>
+  </si>
+  <si>
+    <t>BCO</t>
+  </si>
+  <si>
+    <t>BDX</t>
+  </si>
+  <si>
+    <t>BEP</t>
+  </si>
+  <si>
+    <t>BEZQ</t>
+  </si>
+  <si>
+    <t>BFIN</t>
+  </si>
+  <si>
+    <t>BHC</t>
+  </si>
+  <si>
+    <t>BHP</t>
+  </si>
+  <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t>BINA</t>
+  </si>
+  <si>
+    <t>BIOC</t>
+  </si>
+  <si>
+    <t>BIP</t>
+  </si>
+  <si>
+    <t>BIRD</t>
+  </si>
+  <si>
+    <t>BJBR</t>
+  </si>
+  <si>
+    <t>BKNG</t>
+  </si>
+  <si>
+    <t>BLDP</t>
+  </si>
+  <si>
+    <t>BLK</t>
+  </si>
+  <si>
+    <t>BMC</t>
+  </si>
+  <si>
+    <t>BMO</t>
+  </si>
+  <si>
+    <t>BMTR</t>
+  </si>
+  <si>
     <t>BMY</t>
   </si>
   <si>
+    <t>BNH</t>
+  </si>
+  <si>
+    <t>BNS</t>
+  </si>
+  <si>
+    <t>BOGA</t>
+  </si>
+  <si>
     <t>BP</t>
   </si>
   <si>
+    <t>BRYN</t>
+  </si>
+  <si>
+    <t>BSDE</t>
+  </si>
+  <si>
+    <t>BSIM</t>
+  </si>
+  <si>
+    <t>BSSR</t>
+  </si>
+  <si>
+    <t>BTI</t>
+  </si>
+  <si>
+    <t>BTO</t>
+  </si>
+  <si>
+    <t>BUD</t>
+  </si>
+  <si>
+    <t>BVC</t>
+  </si>
+  <si>
+    <t>BX</t>
+  </si>
+  <si>
+    <t>BYD</t>
+  </si>
+  <si>
+    <t>BYSD</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>CASA</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>CCAP</t>
+  </si>
+  <si>
+    <t>CCI</t>
+  </si>
+  <si>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>CCO</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>CDAY</t>
+  </si>
+  <si>
+    <t>CEF</t>
+  </si>
+  <si>
+    <t>CHP</t>
+  </si>
+  <si>
     <t>CHT</t>
   </si>
   <si>
     <t>CHTR</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>CIGI</t>
+  </si>
+  <si>
+    <t>CITA</t>
+  </si>
+  <si>
+    <t>CIX</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CLAY</t>
+  </si>
+  <si>
+    <t>CLEO</t>
+  </si>
+  <si>
+    <t>CLH</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>CMC</t>
+  </si>
+  <si>
     <t>CMCSA</t>
   </si>
   <si>
+    <t>CME</t>
+  </si>
+  <si>
+    <t>CMNP</t>
+  </si>
+  <si>
+    <t>CNEC</t>
+  </si>
+  <si>
+    <t>CNI</t>
+  </si>
+  <si>
+    <t>CNQ</t>
+  </si>
+  <si>
+    <t>COSG</t>
+  </si>
+  <si>
     <t>COST</t>
   </si>
   <si>
+    <t>CP</t>
+  </si>
+  <si>
     <t>CRM</t>
   </si>
   <si>
     <t>CSCO</t>
   </si>
   <si>
+    <t>CTC</t>
+  </si>
+  <si>
+    <t>CTRA</t>
+  </si>
+  <si>
+    <t>CVE</t>
+  </si>
+  <si>
+    <t>CVS</t>
+  </si>
+  <si>
     <t>CVX</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>DEDR</t>
+  </si>
+  <si>
+    <t>DEO</t>
+  </si>
+  <si>
     <t>DHR</t>
   </si>
   <si>
     <t>DIS</t>
   </si>
   <si>
+    <t>DLEKG</t>
+  </si>
+  <si>
+    <t>DLTA</t>
+  </si>
+  <si>
+    <t>DOL</t>
+  </si>
+  <si>
+    <t>DOO</t>
+  </si>
+  <si>
+    <t>DSCT</t>
+  </si>
+  <si>
+    <t>DTEGF</t>
+  </si>
+  <si>
+    <t>DTEGY</t>
+  </si>
+  <si>
+    <t>DUK</t>
+  </si>
+  <si>
+    <t>EAC</t>
+  </si>
+  <si>
+    <t>EAST</t>
+  </si>
+  <si>
+    <t>ECL</t>
+  </si>
+  <si>
+    <t>EIM</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>ELCO</t>
+  </si>
+  <si>
+    <t>ELF</t>
+  </si>
+  <si>
+    <t>ELTR</t>
+  </si>
+  <si>
+    <t>EMP</t>
+  </si>
+  <si>
+    <t>ENB</t>
+  </si>
+  <si>
+    <t>ENLT</t>
+  </si>
+  <si>
+    <t>ENOG</t>
+  </si>
+  <si>
+    <t>ENRG</t>
+  </si>
+  <si>
+    <t>EPMT</t>
+  </si>
+  <si>
+    <t>ERAA</t>
+  </si>
+  <si>
+    <t>ESGI</t>
+  </si>
+  <si>
+    <t>ESLT</t>
+  </si>
+  <si>
+    <t>ETB</t>
+  </si>
+  <si>
+    <t>EVLI</t>
+  </si>
+  <si>
+    <t>EXCL</t>
+  </si>
+  <si>
+    <t>FAST</t>
+  </si>
+  <si>
+    <t>FIBI</t>
+  </si>
+  <si>
+    <t>FIBIH</t>
+  </si>
+  <si>
+    <t>FIS</t>
+  </si>
+  <si>
+    <t>FLS</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>FNV</t>
+  </si>
+  <si>
+    <t>FORTY</t>
+  </si>
+  <si>
+    <t>FSV</t>
+  </si>
+  <si>
+    <t>FTAL</t>
+  </si>
+  <si>
+    <t>FTS</t>
+  </si>
+  <si>
     <t>GE</t>
   </si>
   <si>
+    <t>GEB</t>
+  </si>
+  <si>
+    <t>GFH</t>
+  </si>
+  <si>
+    <t>GGRP</t>
+  </si>
+  <si>
+    <t>GHG</t>
+  </si>
+  <si>
+    <t>GIAA</t>
+  </si>
+  <si>
+    <t>GIB</t>
+  </si>
+  <si>
+    <t>GIL</t>
+  </si>
+  <si>
+    <t>GILD</t>
+  </si>
+  <si>
+    <t>GMAB</t>
+  </si>
+  <si>
+    <t>GOOD</t>
+  </si>
+  <si>
     <t>GOOG</t>
   </si>
   <si>
     <t>GOOGL</t>
   </si>
   <si>
+    <t>GOOS</t>
+  </si>
+  <si>
+    <t>GRT</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
     <t>GSK</t>
   </si>
   <si>
+    <t>GSSC</t>
+  </si>
+  <si>
+    <t>GZT</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>HARL</t>
+  </si>
+  <si>
+    <t>HART</t>
+  </si>
+  <si>
     <t>HD</t>
   </si>
   <si>
     <t>HDB</t>
   </si>
   <si>
+    <t>HEAL</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
     <t>HON</t>
   </si>
   <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>HRME</t>
+  </si>
+  <si>
     <t>HSBC</t>
   </si>
   <si>
+    <t>IAG</t>
+  </si>
+  <si>
+    <t>IAM</t>
+  </si>
+  <si>
+    <t>IBLD</t>
+  </si>
+  <si>
     <t>IBM</t>
   </si>
   <si>
+    <t>ICL</t>
+  </si>
+  <si>
+    <t>IFF</t>
+  </si>
+  <si>
+    <t>IGM</t>
+  </si>
+  <si>
+    <t>ILCO</t>
+  </si>
+  <si>
+    <t>IMO</t>
+  </si>
+  <si>
+    <t>IMPC</t>
+  </si>
+  <si>
+    <t>INCO</t>
+  </si>
+  <si>
+    <t>INDF</t>
+  </si>
+  <si>
+    <t>INFI</t>
+  </si>
+  <si>
+    <t>INFY</t>
+  </si>
+  <si>
+    <t>INL</t>
+  </si>
+  <si>
     <t>INTC</t>
   </si>
   <si>
+    <t>INTP</t>
+  </si>
+  <si>
+    <t>INTU</t>
+  </si>
+  <si>
+    <t>IPL</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>ISA</t>
+  </si>
+  <si>
+    <t>ISAT</t>
+  </si>
+  <si>
+    <t>ISRG</t>
+  </si>
+  <si>
+    <t>ISRS</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>JKON</t>
+  </si>
+  <si>
     <t>JNJ</t>
   </si>
   <si>
     <t>JPM</t>
   </si>
   <si>
+    <t>JRPT</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>KIJA</t>
+  </si>
+  <si>
     <t>KO</t>
   </si>
   <si>
+    <t>KOTA</t>
+  </si>
+  <si>
+    <t>KRAS</t>
+  </si>
+  <si>
+    <t>KRE</t>
+  </si>
+  <si>
+    <t>KREN</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>LIFE</t>
+  </si>
+  <si>
     <t>LIN</t>
   </si>
   <si>
+    <t>LINK</t>
+  </si>
+  <si>
     <t>LLY</t>
   </si>
   <si>
     <t>LMT</t>
   </si>
   <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>LPPF</t>
+  </si>
+  <si>
+    <t>LPSN</t>
+  </si>
+  <si>
+    <t>LSIP</t>
+  </si>
+  <si>
+    <t>LUMI</t>
+  </si>
+  <si>
     <t>MA</t>
   </si>
   <si>
+    <t>MASA</t>
+  </si>
+  <si>
+    <t>MBSC</t>
+  </si>
+  <si>
     <t>MCD</t>
   </si>
   <si>
+    <t>MDLZ</t>
+  </si>
+  <si>
     <t>MDT</t>
   </si>
   <si>
+    <t>MEGA</t>
+  </si>
+  <si>
+    <t>MENA</t>
+  </si>
+  <si>
+    <t>MFC</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>MGOR</t>
+  </si>
+  <si>
+    <t>MLSR</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MOH</t>
+  </si>
+  <si>
+    <t>MPRO</t>
+  </si>
+  <si>
     <t>MRK</t>
   </si>
   <si>
+    <t>MS</t>
+  </si>
+  <si>
     <t>MSFT</t>
   </si>
   <si>
+    <t>MTRX</t>
+  </si>
+  <si>
+    <t>MUFG</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>NAN</t>
+  </si>
+  <si>
+    <t>NATO</t>
+  </si>
+  <si>
+    <t>NBB</t>
+  </si>
+  <si>
     <t>NEE</t>
   </si>
   <si>
+    <t>NESR</t>
+  </si>
+  <si>
+    <t>NETC</t>
+  </si>
+  <si>
     <t>NFLX</t>
   </si>
   <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>NGT</t>
+  </si>
+  <si>
+    <t>NICE</t>
+  </si>
+  <si>
     <t>NKE</t>
   </si>
   <si>
+    <t>NOHO</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>NTG</t>
+  </si>
+  <si>
+    <t>NTR</t>
+  </si>
+  <si>
+    <t>NVD</t>
+  </si>
+  <si>
     <t>NVDA</t>
   </si>
   <si>
@@ -182,9 +896,36 @@
     <t>NVS</t>
   </si>
   <si>
+    <t>OIH</t>
+  </si>
+  <si>
+    <t>OPCE</t>
+  </si>
+  <si>
+    <t>ORA</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
     <t>ORCL</t>
   </si>
   <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>OTEX</t>
+  </si>
+  <si>
+    <t>OVV</t>
+  </si>
+  <si>
+    <t>PAAS</t>
+  </si>
+  <si>
+    <t>PBH</t>
+  </si>
+  <si>
     <t>PEP</t>
   </si>
   <si>
@@ -194,12 +935,78 @@
     <t>PG</t>
   </si>
   <si>
+    <t>PGAS</t>
+  </si>
+  <si>
+    <t>PHAR</t>
+  </si>
+  <si>
+    <t>PHOE</t>
+  </si>
+  <si>
+    <t>PHYS</t>
+  </si>
+  <si>
+    <t>PLD</t>
+  </si>
+  <si>
     <t>PM</t>
   </si>
   <si>
+    <t>PNLF</t>
+  </si>
+  <si>
+    <t>POLI</t>
+  </si>
+  <si>
+    <t>PORT</t>
+  </si>
+  <si>
+    <t>PPL</t>
+  </si>
+  <si>
+    <t>PRG</t>
+  </si>
+  <si>
+    <t>PRGO</t>
+  </si>
+  <si>
+    <t>PSAB</t>
+  </si>
+  <si>
+    <t>PTPP</t>
+  </si>
+  <si>
     <t>PYPL</t>
   </si>
   <si>
+    <t>PZOL</t>
+  </si>
+  <si>
+    <t>QCOM</t>
+  </si>
+  <si>
+    <t>QSR</t>
+  </si>
+  <si>
+    <t>RALS</t>
+  </si>
+  <si>
+    <t>RAYA</t>
+  </si>
+  <si>
+    <t>RBA</t>
+  </si>
+  <si>
+    <t>RCI</t>
+  </si>
+  <si>
+    <t>REAC</t>
+  </si>
+  <si>
+    <t>REI</t>
+  </si>
+  <si>
     <t>RHHBF</t>
   </si>
   <si>
@@ -209,60 +1016,282 @@
     <t>RHHVF</t>
   </si>
   <si>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>RISE</t>
+  </si>
+  <si>
+    <t>RIT1</t>
+  </si>
+  <si>
+    <t>RNW</t>
+  </si>
+  <si>
+    <t>ROTI</t>
+  </si>
+  <si>
+    <t>RTX</t>
+  </si>
+  <si>
     <t>RY</t>
   </si>
   <si>
+    <t>SAE</t>
+  </si>
+  <si>
     <t>SAP</t>
   </si>
   <si>
+    <t>SBS</t>
+  </si>
+  <si>
     <t>SBUX</t>
   </si>
   <si>
+    <t>SCD</t>
+  </si>
+  <si>
+    <t>SCHO</t>
+  </si>
+  <si>
+    <t>SDRA</t>
+  </si>
+  <si>
+    <t>SHID</t>
+  </si>
+  <si>
+    <t>SHOP</t>
+  </si>
+  <si>
+    <t>SIF</t>
+  </si>
+  <si>
+    <t>SIG</t>
+  </si>
+  <si>
+    <t>SILO</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>SKBN</t>
+  </si>
+  <si>
+    <t>SLF</t>
+  </si>
+  <si>
+    <t>SMAR</t>
+  </si>
+  <si>
+    <t>SMCB</t>
+  </si>
+  <si>
+    <t>SMPP</t>
+  </si>
+  <si>
+    <t>SMSM</t>
+  </si>
+  <si>
+    <t>SMT</t>
+  </si>
+  <si>
     <t>SNY</t>
   </si>
   <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>SPEN</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>SPGI</t>
+  </si>
+  <si>
+    <t>SPNS</t>
+  </si>
+  <si>
+    <t>SQMI</t>
+  </si>
+  <si>
+    <t>SSMS</t>
+  </si>
+  <si>
+    <t>STG</t>
+  </si>
+  <si>
+    <t>STN</t>
+  </si>
+  <si>
+    <t>STRS</t>
+  </si>
+  <si>
+    <t>STTP</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>SURE</t>
+  </si>
+  <si>
+    <t>SYK</t>
+  </si>
+  <si>
     <t>T</t>
   </si>
   <si>
+    <t>TCM</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>TECK</t>
+  </si>
+  <si>
+    <t>TEVA</t>
+  </si>
+  <si>
+    <t>TFC</t>
+  </si>
+  <si>
+    <t>TFII</t>
+  </si>
+  <si>
+    <t>TGKA</t>
+  </si>
+  <si>
+    <t>TGT</t>
+  </si>
+  <si>
+    <t>TIH</t>
+  </si>
+  <si>
+    <t>TJX</t>
+  </si>
+  <si>
     <t>TM</t>
   </si>
   <si>
     <t>TMO</t>
   </si>
   <si>
+    <t>TMUS</t>
+  </si>
+  <si>
+    <t>TOM</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>TPIA</t>
+  </si>
+  <si>
+    <t>TPX</t>
+  </si>
+  <si>
+    <t>TRI</t>
+  </si>
+  <si>
+    <t>TRP</t>
+  </si>
+  <si>
+    <t>TSEM</t>
+  </si>
+  <si>
     <t>TSLA</t>
   </si>
   <si>
     <t>TSM</t>
   </si>
   <si>
+    <t>TSPC</t>
+  </si>
+  <si>
+    <t>TURI</t>
+  </si>
+  <si>
     <t>TXN</t>
   </si>
   <si>
+    <t>UCID</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
     <t>UNH</t>
   </si>
   <si>
+    <t>UNIT</t>
+  </si>
+  <si>
     <t>UNP</t>
   </si>
   <si>
+    <t>UPM</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>URBN</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
     <t>V</t>
   </si>
   <si>
+    <t>VIS</t>
+  </si>
+  <si>
     <t>VOD</t>
   </si>
   <si>
     <t>VZ</t>
   </si>
   <si>
+    <t>WCN</t>
+  </si>
+  <si>
+    <t>WEED</t>
+  </si>
+  <si>
     <t>WFC</t>
   </si>
   <si>
     <t>WMT</t>
   </si>
   <si>
+    <t>WPM</t>
+  </si>
+  <si>
+    <t>WSBP</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>XOM</t>
   </si>
   <si>
+    <t>ZINC</t>
+  </si>
+  <si>
+    <t>ZTS</t>
+  </si>
+  <si>
     <t>ADA-USD</t>
   </si>
   <si>
@@ -272,10 +1301,10 @@
     <t>BTC-USD</t>
   </si>
   <si>
+    <t>DAI-USD</t>
+  </si>
+  <si>
     <t>DOGE-USD</t>
-  </si>
-  <si>
-    <t>DOT-USD</t>
   </si>
   <si>
     <t>ETH-USD</t>
@@ -663,7 +1692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,880 +1710,2115 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>0.001040274756821002</v>
-      </c>
-      <c r="C2">
-        <v>0.01869454521168331</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>0.0006949432967698696</v>
-      </c>
-      <c r="C3">
-        <v>0.01714594907271711</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0.0005167005371119633</v>
-      </c>
-      <c r="C4">
-        <v>0.01551571979066211</v>
-      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>0.0007470265754584007</v>
-      </c>
-      <c r="C5">
-        <v>0.0160162908321481</v>
-      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0.001114052221353812</v>
-      </c>
-      <c r="C6">
-        <v>0.02110556694851465</v>
-      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>0.0005033746239616729</v>
-      </c>
-      <c r="C7">
-        <v>0.01564143922280147</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>0.0004784299577116592</v>
-      </c>
-      <c r="C8">
-        <v>0.0162423524210238</v>
-      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>0.001070108456191471</v>
-      </c>
-      <c r="C9">
-        <v>0.02098810031423292</v>
-      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>0.001145376488938215</v>
-      </c>
-      <c r="C10">
-        <v>0.02279879054115951</v>
-      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>0.001243009195957348</v>
-      </c>
-      <c r="C11">
-        <v>0.0220434843360698</v>
-      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>0.0006150341426012738</v>
-      </c>
-      <c r="C12">
-        <v>0.0159461934058178</v>
-      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>0.0005622894991643764</v>
-      </c>
-      <c r="C13">
-        <v>0.02659193172178421</v>
-      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>0.0003966198165182806</v>
-      </c>
-      <c r="C14">
-        <v>0.02708216616083434</v>
-      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>0.0005219526754124028</v>
-      </c>
-      <c r="C15">
-        <v>0.02046118515225863</v>
-      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>0.0001591416740289222</v>
-      </c>
-      <c r="C16">
-        <v>0.01531359785407953</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>0.0004404400466081354</v>
-      </c>
-      <c r="C17">
-        <v>0.02080516163973757</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>0.0001977318408605276</v>
-      </c>
-      <c r="C18">
-        <v>0.02160799036929658</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>0.0002721477545911181</v>
-      </c>
-      <c r="C19">
-        <v>0.007540396380124268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>0.0006303396917614479</v>
-      </c>
-      <c r="C20">
-        <v>0.01911559578395543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>0.0003834016700380002</v>
-      </c>
-      <c r="C21">
-        <v>0.01617251131429077</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>0.0008541704052971146</v>
-      </c>
-      <c r="C22">
-        <v>0.01398766251612367</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>0.0007605320909565966</v>
-      </c>
-      <c r="C23">
-        <v>0.0220482232836806</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
-        <v>0.000583671307142252</v>
-      </c>
-      <c r="C24">
-        <v>0.01633593782458157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>0.0006430528266175385</v>
-      </c>
-      <c r="C25">
-        <v>0.01964229211114272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
-        <v>0.0007814674620417726</v>
-      </c>
-      <c r="C26">
-        <v>0.01512624915833519</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
-        <v>2.1820211494836E-05</v>
-      </c>
-      <c r="C27">
-        <v>0.01802903676198264</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
-        <v>0.0001522796078584949</v>
-      </c>
-      <c r="C28">
-        <v>0.0229433796401166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
-        <v>0.0009469310892465162</v>
-      </c>
-      <c r="C29">
-        <v>0.01828251623091308</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
-        <v>0.0009218935219076107</v>
-      </c>
-      <c r="C30">
-        <v>0.01823216814295375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
-        <v>0.0002242079261936986</v>
-      </c>
-      <c r="C31">
-        <v>0.01319776492045858</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
-        <v>0.0007011407353023524</v>
-      </c>
-      <c r="C32">
-        <v>0.01583273547892684</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
-        <v>0.0005118192594203425</v>
-      </c>
-      <c r="C33">
-        <v>0.01870428688590076</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
-        <v>0.0005017443870830003</v>
-      </c>
-      <c r="C34">
-        <v>0.01497662256455324</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
-        <v>0.0002883858166826272</v>
-      </c>
-      <c r="C35">
-        <v>0.01627308451735921</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
-        <v>0.000241052451119039</v>
-      </c>
-      <c r="C36">
-        <v>0.0153436133441924</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
-        <v>0.0004214884611809981</v>
-      </c>
-      <c r="C37">
-        <v>0.02127118610311857</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
-        <v>0.0003987860786340199</v>
-      </c>
-      <c r="C38">
-        <v>0.01173882262606762</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
-        <v>0.0006394180126307248</v>
-      </c>
-      <c r="C39">
-        <v>0.01794303705331793</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
-        <v>0.0003650689616029806</v>
-      </c>
-      <c r="C40">
-        <v>0.01170301979080316</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
-        <v>0.0007474155820355542</v>
-      </c>
-      <c r="C41">
-        <v>0.01518538528468607</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
-        <v>0.001114912090395078</v>
-      </c>
-      <c r="C42">
-        <v>0.01754760254396012</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
-        <v>0.0005876771120935258</v>
-      </c>
-      <c r="C43">
-        <v>0.01458631337376214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
-        <v>0.0008741162994031474</v>
-      </c>
-      <c r="C44">
-        <v>0.01785245086576402</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
-        <v>0.0006758200529767223</v>
-      </c>
-      <c r="C45">
-        <v>0.01323086639665938</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
-        <v>0.0002353457928866959</v>
-      </c>
-      <c r="C46">
-        <v>0.01496593185999087</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
-        <v>0.0005220994993949138</v>
-      </c>
-      <c r="C47">
-        <v>0.01385984928488124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B48">
-        <v>0.001164256203869369</v>
-      </c>
-      <c r="C48">
-        <v>0.01764232747531761</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B49">
-        <v>0.0006105526487410794</v>
-      </c>
-      <c r="C49">
-        <v>0.01511814067173513</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B50">
-        <v>0.001078914039647919</v>
-      </c>
-      <c r="C50">
-        <v>0.02837877324274766</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B51">
-        <v>0.0004867707076766866</v>
-      </c>
-      <c r="C51">
-        <v>0.01883846806087422</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B52">
-        <v>0.002645968756772918</v>
-      </c>
-      <c r="C52">
-        <v>0.03113619702021269</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B53">
-        <v>0.0008808813448649547</v>
-      </c>
-      <c r="C53">
-        <v>0.01712494482232172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+    </row>
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B54">
-        <v>0.0002869198703428493</v>
-      </c>
-      <c r="C54">
-        <v>0.01212595932631403</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+    </row>
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B55">
-        <v>0.0006747965813157805</v>
-      </c>
-      <c r="C55">
-        <v>0.0170588663113588</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+    </row>
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B56">
-        <v>0.0004697777637473266</v>
-      </c>
-      <c r="C56">
-        <v>0.01206818393885808</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B57">
-        <v>0.0002795395359936851</v>
-      </c>
-      <c r="C57">
-        <v>0.0147574102662215</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+    </row>
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B58">
-        <v>0.000475509104600712</v>
-      </c>
-      <c r="C58">
-        <v>0.01207479779150704</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+    </row>
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B59">
-        <v>0.0003809284035322529</v>
-      </c>
-      <c r="C59">
-        <v>0.01495335534640442</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+    </row>
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B60">
-        <v>0.0005231166197433576</v>
-      </c>
-      <c r="C60">
-        <v>0.02433993671223284</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B61">
-        <v>0.0003837763014442458</v>
-      </c>
-      <c r="C61">
-        <v>0.02216580870153535</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+    </row>
+    <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B62">
-        <v>0.0001987647726997432</v>
-      </c>
-      <c r="C62">
-        <v>0.01346611175757829</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B63">
-        <v>0.0002358167603066813</v>
-      </c>
-      <c r="C63">
-        <v>0.0165141511155172</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B64">
-        <v>0.000413916783199276</v>
-      </c>
-      <c r="C64">
-        <v>0.01326156382642471</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+    </row>
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B65">
-        <v>0.00052130240285592</v>
-      </c>
-      <c r="C65">
-        <v>0.01708457352997719</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B66">
-        <v>0.0004730922225808298</v>
-      </c>
-      <c r="C66">
-        <v>0.01715971971717857</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+    </row>
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B67">
-        <v>0.000304307526695444</v>
-      </c>
-      <c r="C67">
-        <v>0.01424449333761882</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+    </row>
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B68">
-        <v>0.0001286430225213921</v>
-      </c>
-      <c r="C68">
-        <v>0.0146671472767493</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+    </row>
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B69">
-        <v>0.0002644469945805133</v>
-      </c>
-      <c r="C69">
-        <v>0.01380701225172753</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+    </row>
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B70">
-        <v>0.0007958074456768196</v>
-      </c>
-      <c r="C70">
-        <v>0.01612866283346465</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+    </row>
+    <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B71">
-        <v>0.001915866421564697</v>
-      </c>
-      <c r="C71">
-        <v>0.03646031276961034</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+    </row>
+    <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B72">
-        <v>0.000945805159618892</v>
-      </c>
-      <c r="C72">
-        <v>0.01968058515087048</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+    </row>
+    <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B73">
-        <v>0.0008162826952337798</v>
-      </c>
-      <c r="C73">
-        <v>0.01819887879042482</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B74">
-        <v>0.0008832852260685303</v>
-      </c>
-      <c r="C74">
-        <v>0.01665939566371919</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+    </row>
+    <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B75">
-        <v>0.0005928199885702944</v>
-      </c>
-      <c r="C75">
-        <v>0.0168268372792204</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+    </row>
+    <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B76">
-        <v>0.0007452282413881049</v>
-      </c>
-      <c r="C76">
-        <v>0.01620161084059062</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+    </row>
+    <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B77">
-        <v>-0.0002489200805213392</v>
-      </c>
-      <c r="C77">
-        <v>0.01747335515358839</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+    </row>
+    <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B78">
-        <v>8.346656750366252E-05</v>
-      </c>
-      <c r="C78">
-        <v>0.01208490847195566</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+    </row>
+    <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B79">
-        <v>0.0001703374829970331</v>
-      </c>
-      <c r="C79">
-        <v>0.02051377941315982</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B80">
-        <v>0.0005577928908012457</v>
-      </c>
-      <c r="C80">
-        <v>0.01367608550231379</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+    </row>
+    <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B81">
-        <v>0.0005228492549236774</v>
-      </c>
-      <c r="C81">
-        <v>0.01845269303755741</v>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -1580,7 +3844,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>425</v>
       </c>
       <c r="B2">
         <v>0.002109322907709401</v>
@@ -1591,7 +3855,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>426</v>
       </c>
       <c r="B3">
         <v>0.003300274737707542</v>
@@ -1602,7 +3866,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>427</v>
       </c>
       <c r="B4">
         <v>0.001338890310131064</v>
@@ -1613,29 +3877,29 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>428</v>
       </c>
       <c r="B5">
-        <v>0.007118002616628451</v>
+        <v>-2.317790536334618E-05</v>
       </c>
       <c r="C5">
-        <v>0.1316804669561276</v>
+        <v>0.00214759815066059</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>429</v>
       </c>
       <c r="B6">
-        <v>0.001307446046721381</v>
+        <v>0.007118002616628451</v>
       </c>
       <c r="C6">
-        <v>0.05807611652739762</v>
+        <v>0.1316804669561276</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>430</v>
       </c>
       <c r="B7">
         <v>0.002288183890886727</v>
@@ -1646,7 +3910,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>431</v>
       </c>
       <c r="B8">
         <v>0.001057863688019033</v>
@@ -1657,7 +3921,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>432</v>
       </c>
       <c r="B9">
         <v>0.005231289252545505</v>
@@ -1668,7 +3932,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>433</v>
       </c>
       <c r="B10">
         <v>0.004044725884465605</v>
@@ -1679,7 +3943,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>434</v>
       </c>
       <c r="B11">
         <v>0.0006277791916024005</v>
@@ -1690,7 +3954,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>435</v>
       </c>
       <c r="B12">
         <v>0.002231566251630028</v>
@@ -1701,7 +3965,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>436</v>
       </c>
       <c r="B13">
         <v>-1.439140654660258E-06</v>
@@ -1712,7 +3976,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>437</v>
       </c>
       <c r="B14">
         <v>-2.050810642745787E-06</v>
@@ -1723,7 +3987,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
       <c r="B15">
         <v>0.001281691832933432</v>
@@ -1734,7 +3998,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>439</v>
       </c>
       <c r="B16">
         <v>0.002536448557910958</v>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -4264,7 +4264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4291,192 +4291,322 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.002109322907709398</v>
+        <v>-0.0009462549077120909</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05385911692947309</v>
+        <v>0.03630537429437645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AVAX-USD</t>
+          <t>ATOM-USD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002862531155113034</v>
+        <v>0.0004004341971715087</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06968383359983502</v>
+        <v>0.04330960451409918</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>BNB-USD</t>
+          <t>AVAX-USD</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003300274737707548</v>
+        <v>-0.0009475469251185598</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05275003261595376</v>
+        <v>0.04485220147448776</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>BTC-USD</t>
+          <t>BCH-USD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001338890310131067</v>
+        <v>0.001407352743383836</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03414030084679871</v>
+        <v>0.04430072809446627</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>DOGE-USD</t>
+          <t>BNB-USD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.007118002616628462</v>
+        <v>-0.0002666370955085417</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1316804669561277</v>
+        <v>0.02895642791321457</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>DOT-USD</t>
+          <t>BTC-USD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001307446046721384</v>
+        <v>0.0001698017340538461</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05807611652739767</v>
+        <v>0.02728721768065267</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ETH-USD</t>
+          <t>CRO-USD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002288183890886724</v>
+        <v>-0.001935140215022296</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0450493043897679</v>
+        <v>0.03557390366834624</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>LINK-USD</t>
+          <t>DOGE-USD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001057863688019033</v>
+        <v>0.0005055873766004</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05777973265314883</v>
+        <v>0.04694877812707692</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MATIC-USD</t>
+          <t>DOT-USD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.005231289252545505</v>
+        <v>-0.001076934762782215</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07498958764790675</v>
+        <v>0.03583406844817972</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>SOL-USD</t>
+          <t>ETC-USD</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.004044725884465609</v>
+        <v>0.0005457174036354702</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07182484297952729</v>
+        <v>0.04918708106781185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>TON-USD</t>
+          <t>ETH-USD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0006277791916024</v>
+        <v>0.0004779069833942835</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06824254427809426</v>
+        <v>0.03619237636843207</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>TRX-USD</t>
+          <t>KAS-USD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.002231566251630027</v>
+        <v>0.01744103067694832</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04737623518475711</v>
+        <v>0.1230996776299637</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>USDC-USD</t>
+          <t>LEO-USD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.439140654660258e-06</v>
+        <v>-0.0002853039963843259</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001241952029302097</v>
+        <v>0.02466974165848193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>USDT-USD</t>
+          <t>LINK-USD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.050810642745787e-06</v>
+        <v>0.001232268108914391</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0007281035275920827</v>
+        <v>0.04220231508622439</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>LTC-USD</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0009022075568424984</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.04038740999764472</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>MATIC-USD</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0009886723621352019</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.05065994433348981</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>OKB-USD</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.003389285708800178</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.03770878311670382</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>SHIB-USD</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0004775359105210174</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.05382868312718332</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>SOL-USD</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0002351162794294515</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05479576322261236</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>TON-USD</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.0001231138256954889</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.04772686211557989</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>TRX-USD</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0004388946013284949</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.02490479007018209</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>WBTC-USD</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.000179030553937395</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.02758758242718384</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>XLM-USD</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0004373874387499149</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.04372835900203738</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>XMR-USD</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.0001819086296563999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.02952524701840095</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
           <t>XRP-USD</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0.002536448557910965</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06508533059648003</v>
+      <c r="B26" t="n">
+        <v>0.001573038748370876</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.04954929129429662</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C424"/>
+  <dimension ref="A1:C939"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>0QIU</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -467,7 +467,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -476,7 +476,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ABEC</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -485,7 +485,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -494,7 +494,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>1088</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -503,7 +503,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ACES</t>
+          <t>1093</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -512,7 +512,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -521,7 +521,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ACRO</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -530,7 +530,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ADB</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -539,7 +539,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>1140</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -548,7 +548,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -557,7 +557,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>1180</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -566,7 +566,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AFMC</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -575,7 +575,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AFPR</t>
+          <t>1216</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -584,7 +584,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>1288</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -593,7 +593,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AIH</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -602,7 +602,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ALCN</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -611,7 +611,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ALEX</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -620,7 +620,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ALHE</t>
+          <t>1326</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -629,7 +629,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ALRPR</t>
+          <t>1398</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -638,7 +638,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AMER</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -647,7 +647,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AMGN</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -656,7 +656,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AMOT</t>
+          <t>1801</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -665,7 +665,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AMT</t>
+          <t>1802</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -674,7 +674,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>1803</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -683,7 +683,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -692,7 +692,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>APIC</t>
+          <t>1812</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -701,7 +701,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AQN</t>
+          <t>1878</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -710,7 +710,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>1911</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -719,7 +719,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ARPT</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -728,7 +728,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ASHG</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -737,7 +737,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ASII</t>
+          <t>1COV</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -746,7 +746,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ASML</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -755,7 +755,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -764,7 +764,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -773,7 +773,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -782,7 +782,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>AZN</t>
+          <t>2181</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -791,7 +791,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>AZRG</t>
+          <t>2207</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -800,7 +800,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>2222</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -809,7 +809,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>BABA</t>
+          <t>2267</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -818,7 +818,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>BAC</t>
+          <t>2269</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -827,7 +827,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>BAM</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -836,7 +836,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -845,7 +845,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>BBCA</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -854,7 +854,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>BBMD</t>
+          <t>2313</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -863,7 +863,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>BBU</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -872,7 +872,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>BCAP</t>
+          <t>2318</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -881,7 +881,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>BCE</t>
+          <t>2319</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -890,7 +890,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>BCI</t>
+          <t>2328</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -899,7 +899,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>BCO</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -908,7 +908,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>BDX</t>
+          <t>2331</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -917,7 +917,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>BEP</t>
+          <t>2345</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -926,7 +926,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>BEZQ</t>
+          <t>2357</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -935,7 +935,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>BFIN</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -944,7 +944,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>BHC</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -953,7 +953,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>BHP</t>
+          <t>2412</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -962,7 +962,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>BIG</t>
+          <t>2413</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -971,7 +971,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>BINA</t>
+          <t>2433</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -980,7 +980,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>BIOC</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -989,7 +989,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>BIP</t>
+          <t>2502</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -998,7 +998,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>BIRD</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -1007,7 +1007,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>BJBR</t>
+          <t>2587</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1016,7 +1016,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>2601</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>BLDP</t>
+          <t>2628</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -1034,7 +1034,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>BLK</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -1043,7 +1043,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>BMC</t>
+          <t>2688</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -1052,7 +1052,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>BMO</t>
+          <t>2768</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1061,7 +1061,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>BMTR</t>
+          <t>2784</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -1070,7 +1070,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>BMY</t>
+          <t>2801</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -1079,7 +1079,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>BNH</t>
+          <t>2802</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>BNS</t>
+          <t>2875</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -1097,7 +1097,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>BOGA</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1106,7 +1106,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -1115,7 +1115,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>BRYN</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -1124,7 +1124,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>BSDE</t>
+          <t>2883</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -1133,7 +1133,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>BSIM</t>
+          <t>2884</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -1142,7 +1142,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>BSSR</t>
+          <t>2885</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1151,7 +1151,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>BTI</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -1160,7 +1160,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>BTO</t>
+          <t>2887</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -1169,7 +1169,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>BUD</t>
+          <t>2890</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -1178,7 +1178,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>BVC</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -1187,7 +1187,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>2892</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1196,7 +1196,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>BYD</t>
+          <t>2897</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -1205,7 +1205,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>BYSD</t>
+          <t>2899</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -1214,7 +1214,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -1223,7 +1223,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>2914</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -1232,7 +1232,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>3003</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1241,7 +1241,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>CASA</t>
+          <t>300750</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -1250,7 +1250,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>3008</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -1259,7 +1259,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>CCAP</t>
+          <t>3037</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -1277,7 +1277,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>3038</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -1286,7 +1286,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>CCL</t>
+          <t>3064</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -1295,7 +1295,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>CCO</t>
+          <t>3088</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -1304,7 +1304,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>CCU</t>
+          <t>3092</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -1313,7 +1313,7 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>CDAY</t>
+          <t>3099</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
@@ -1322,7 +1322,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>CEF</t>
+          <t>3197</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -1331,7 +1331,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>CHP</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>CHT</t>
+          <t>3291</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -1349,7 +1349,7 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>CHTR</t>
+          <t>3382</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
@@ -1358,7 +1358,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
@@ -1367,7 +1367,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>CIGI</t>
+          <t>3405</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -1376,7 +1376,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>CITA</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
@@ -1385,7 +1385,7 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>CIX</t>
+          <t>3436</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
@@ -1394,7 +1394,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>3626</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
@@ -1403,7 +1403,7 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>CLAY</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
@@ -1412,7 +1412,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>CLEO</t>
+          <t>3690</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -1421,7 +1421,7 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>CLH</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
@@ -1430,7 +1430,7 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
@@ -1439,7 +1439,7 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>CMC</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
@@ -1448,7 +1448,7 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>CMCSA</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
@@ -1457,7 +1457,7 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -1466,7 +1466,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>CMNP</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
@@ -1475,7 +1475,7 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>CNEC</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>CNI</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
@@ -1493,7 +1493,7 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>CNQ</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
@@ -1502,7 +1502,7 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>COSG</t>
+          <t>4013</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -1511,7 +1511,7 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
@@ -1520,7 +1520,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>CP</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
@@ -1529,7 +1529,7 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
@@ -1538,7 +1538,7 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
@@ -1547,7 +1547,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>CTC</t>
+          <t>4091</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>CTRA</t>
+          <t>4151</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
@@ -1565,7 +1565,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>CVE</t>
+          <t>4183</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
@@ -1574,7 +1574,7 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>4185</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
@@ -1583,7 +1583,7 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
@@ -1592,7 +1592,7 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -1601,7 +1601,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>DAC</t>
+          <t>4307</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
@@ -1610,7 +1610,7 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>DEDR</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
@@ -1619,7 +1619,7 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>DEO</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
@@ -1628,7 +1628,7 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>4502</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
@@ -1637,7 +1637,7 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>4503</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -1646,7 +1646,7 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>DLEKG</t>
+          <t>4507</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
@@ -1655,7 +1655,7 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>DLTA</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
@@ -1664,7 +1664,7 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>DOL</t>
+          <t>4523</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
@@ -1673,7 +1673,7 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>DOO</t>
+          <t>4527</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -1682,7 +1682,7 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>DSCT</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -1691,7 +1691,7 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>DTEGF</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
@@ -1700,7 +1700,7 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>DTEGY</t>
+          <t>4543</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
@@ -1709,7 +1709,7 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>DUK</t>
+          <t>4568</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
@@ -1718,7 +1718,7 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>EAC</t>
+          <t>4578</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
@@ -1727,7 +1727,7 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>EAST</t>
+          <t>4612</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -1736,7 +1736,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>ECL</t>
+          <t>4661</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
@@ -1745,7 +1745,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>EIM</t>
+          <t>4684</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -1754,7 +1754,7 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
@@ -1763,7 +1763,7 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>ELCO</t>
+          <t>4704</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
@@ -1772,7 +1772,7 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>ELF</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -1781,7 +1781,7 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>ELTR</t>
+          <t>4751</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
@@ -1790,7 +1790,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>EMP</t>
+          <t>4755</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -1799,7 +1799,7 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>ENB</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
@@ -1808,7 +1808,7 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>ENLT</t>
+          <t>4901</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
@@ -1817,7 +1817,7 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>ENOG</t>
+          <t>4911</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -1826,7 +1826,7 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>ENRG</t>
+          <t>4922</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
@@ -1835,7 +1835,7 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>EPMT</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
@@ -1844,7 +1844,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>ERAA</t>
+          <t>500049</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>ESGI</t>
+          <t>500112</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
@@ -1862,7 +1862,7 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>ESLT</t>
+          <t>500114</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
@@ -1871,7 +1871,7 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>ETB</t>
+          <t>500124</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
@@ -1880,7 +1880,7 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>EVLI</t>
+          <t>500228</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
@@ -1889,7 +1889,7 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>EXCL</t>
+          <t>500247</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
@@ -1898,7 +1898,7 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>FAST</t>
+          <t>500440</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
@@ -1907,7 +1907,7 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>FIBI</t>
+          <t>500470</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -1916,7 +1916,7 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>FIBIH</t>
+          <t>500510</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
@@ -1925,7 +1925,7 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>500570</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
@@ -1934,7 +1934,7 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>FLS</t>
+          <t>500696</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
@@ -1943,7 +1943,7 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>FM</t>
+          <t>500790</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
@@ -1952,7 +1952,7 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>FNV</t>
+          <t>5019</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -1961,7 +1961,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>FORTY</t>
+          <t>5020</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
@@ -1970,7 +1970,7 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>FSV</t>
+          <t>505200</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
@@ -1979,7 +1979,7 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>FTAL</t>
+          <t>507685</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
@@ -1988,7 +1988,7 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>FTS</t>
+          <t>5108</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
@@ -1997,7 +1997,7 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>511218</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -2006,7 +2006,7 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>GEB</t>
+          <t>511243</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
@@ -2015,7 +2015,7 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>GFH</t>
+          <t>5201</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
@@ -2024,7 +2024,7 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>GGRP</t>
+          <t>532215</t>
         </is>
       </c>
       <c r="B177" t="inlineStr"/>
@@ -2033,7 +2033,7 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>GHG</t>
+          <t>532454</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
@@ -2042,7 +2042,7 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>GIAA</t>
+          <t>5332</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -2051,7 +2051,7 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>5333</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
@@ -2060,7 +2060,7 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>GIL</t>
+          <t>5334</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
@@ -2069,7 +2069,7 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>GILD</t>
+          <t>5401</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
@@ -2078,7 +2078,7 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>GMAB</t>
+          <t>5406</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
@@ -2087,7 +2087,7 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>GOOD</t>
+          <t>5411</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -2096,7 +2096,7 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>5713</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
@@ -2105,7 +2105,7 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>5802</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
@@ -2114,7 +2114,7 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>GOOS</t>
+          <t>5831</t>
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
@@ -2123,7 +2123,7 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>5871</t>
         </is>
       </c>
       <c r="B188" t="inlineStr"/>
@@ -2132,7 +2132,7 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -2141,7 +2141,7 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
@@ -2150,7 +2150,7 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>GSSC</t>
+          <t>600036</t>
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
@@ -2159,7 +2159,7 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>GZT</t>
+          <t>600519</t>
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>6028</t>
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
@@ -2177,7 +2177,7 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>HARL</t>
+          <t>6098</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -2186,7 +2186,7 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>HART</t>
+          <t>6113</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
@@ -2195,7 +2195,7 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>6146</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
@@ -2204,7 +2204,7 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>HDB</t>
+          <t>6160</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
@@ -2213,7 +2213,7 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>HEAL</t>
+          <t>6178</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
@@ -2222,7 +2222,7 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>HF</t>
+          <t>6201</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -2231,7 +2231,7 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>HON</t>
+          <t>6268</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
@@ -2240,7 +2240,7 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>6273</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -2249,7 +2249,7 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>HRME</t>
+          <t>6301</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
@@ -2258,7 +2258,7 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>HSBC</t>
+          <t>6326</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
@@ -2267,7 +2267,7 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>6361</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -2276,7 +2276,7 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>6367</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
@@ -2285,7 +2285,7 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>IBLD</t>
+          <t>6370</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -2294,7 +2294,7 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
@@ -2303,7 +2303,7 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>ICL</t>
+          <t>6448</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
@@ -2312,7 +2312,7 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>IFF</t>
+          <t>6460</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -2321,7 +2321,7 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>IGM</t>
+          <t>6465</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
@@ -2330,7 +2330,7 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>ILCO</t>
+          <t>6479</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
@@ -2339,7 +2339,7 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>IMO</t>
+          <t>6501</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
@@ -2348,7 +2348,7 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>IMPC</t>
+          <t>6502</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
@@ -2357,7 +2357,7 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>INCO</t>
+          <t>6503</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -2366,7 +2366,7 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>INDF</t>
+          <t>6504</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
@@ -2375,7 +2375,7 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>INFI</t>
+          <t>6506</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -2384,7 +2384,7 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>6532</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
@@ -2393,7 +2393,7 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>INL</t>
+          <t>6586</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
@@ -2402,7 +2402,7 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>6594</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -2411,7 +2411,7 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>INTP</t>
+          <t>6618</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
@@ -2420,7 +2420,7 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>6645</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
@@ -2429,7 +2429,7 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>IPL</t>
+          <t>6690</t>
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
@@ -2438,7 +2438,7 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>IRON</t>
+          <t>6701</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
@@ -2447,7 +2447,7 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>ISA</t>
+          <t>6702</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -2456,7 +2456,7 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>ISAT</t>
+          <t>6723</t>
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
@@ -2465,7 +2465,7 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>6724</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
@@ -2474,7 +2474,7 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>ISRS</t>
+          <t>6752</t>
         </is>
       </c>
       <c r="B227" t="inlineStr"/>
@@ -2483,7 +2483,7 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>6758</t>
         </is>
       </c>
       <c r="B228" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>JKON</t>
+          <t>6762</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -2501,7 +2501,7 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>6806</t>
         </is>
       </c>
       <c r="B230" t="inlineStr"/>
@@ -2510,7 +2510,7 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>6841</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
@@ -2519,7 +2519,7 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>JRPT</t>
+          <t>6845</t>
         </is>
       </c>
       <c r="B232" t="inlineStr"/>
@@ -2528,7 +2528,7 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>6857</t>
         </is>
       </c>
       <c r="B233" t="inlineStr"/>
@@ -2537,7 +2537,7 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>KEY</t>
+          <t>6861</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -2546,7 +2546,7 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>KIJA</t>
+          <t>6869</t>
         </is>
       </c>
       <c r="B235" t="inlineStr"/>
@@ -2555,7 +2555,7 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>688</t>
         </is>
       </c>
       <c r="B236" t="inlineStr"/>
@@ -2564,7 +2564,7 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>KOTA</t>
+          <t>6902</t>
         </is>
       </c>
       <c r="B237" t="inlineStr"/>
@@ -2573,7 +2573,7 @@
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>KRAS</t>
+          <t>6920</t>
         </is>
       </c>
       <c r="B238" t="inlineStr"/>
@@ -2582,7 +2582,7 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>KRE</t>
+          <t>6923</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -2591,7 +2591,7 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>KREN</t>
+          <t>6954</t>
         </is>
       </c>
       <c r="B240" t="inlineStr"/>
@@ -2600,7 +2600,7 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>6963</t>
         </is>
       </c>
       <c r="B241" t="inlineStr"/>
@@ -2609,7 +2609,7 @@
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>LIFE</t>
+          <t>6965</t>
         </is>
       </c>
       <c r="B242" t="inlineStr"/>
@@ -2618,7 +2618,7 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>LIN</t>
+          <t>6971</t>
         </is>
       </c>
       <c r="B243" t="inlineStr"/>
@@ -2627,7 +2627,7 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>6981</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -2636,7 +2636,7 @@
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>6988</t>
         </is>
       </c>
       <c r="B245" t="inlineStr"/>
@@ -2645,7 +2645,7 @@
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>LMT</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B246" t="inlineStr"/>
@@ -2654,7 +2654,7 @@
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>7010</t>
         </is>
       </c>
       <c r="B247" t="inlineStr"/>
@@ -2663,7 +2663,7 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>LPPF</t>
+          <t>7011</t>
         </is>
       </c>
       <c r="B248" t="inlineStr"/>
@@ -2672,7 +2672,7 @@
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>LPSN</t>
+          <t>7012</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -2681,7 +2681,7 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>LSIP</t>
+          <t>7013</t>
         </is>
       </c>
       <c r="B250" t="inlineStr"/>
@@ -2690,7 +2690,7 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>LUMI</t>
+          <t>7181</t>
         </is>
       </c>
       <c r="B251" t="inlineStr"/>
@@ -2699,7 +2699,7 @@
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>7182</t>
         </is>
       </c>
       <c r="B252" t="inlineStr"/>
@@ -2708,7 +2708,7 @@
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>MASA</t>
+          <t>7186</t>
         </is>
       </c>
       <c r="B253" t="inlineStr"/>
@@ -2717,7 +2717,7 @@
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>MBSC</t>
+          <t>7201</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -2726,7 +2726,7 @@
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>7202</t>
         </is>
       </c>
       <c r="B255" t="inlineStr"/>
@@ -2735,7 +2735,7 @@
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>MDLZ</t>
+          <t>7203</t>
         </is>
       </c>
       <c r="B256" t="inlineStr"/>
@@ -2744,7 +2744,7 @@
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>MDT</t>
+          <t>7259</t>
         </is>
       </c>
       <c r="B257" t="inlineStr"/>
@@ -2753,7 +2753,7 @@
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>MEGA</t>
+          <t>7261</t>
         </is>
       </c>
       <c r="B258" t="inlineStr"/>
@@ -2762,7 +2762,7 @@
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>MENA</t>
+          <t>7267</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -2771,7 +2771,7 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>MFC</t>
+          <t>7269</t>
         </is>
       </c>
       <c r="B260" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>7270</t>
         </is>
       </c>
       <c r="B261" t="inlineStr"/>
@@ -2789,7 +2789,7 @@
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>MGOR</t>
+          <t>7272</t>
         </is>
       </c>
       <c r="B262" t="inlineStr"/>
@@ -2798,7 +2798,7 @@
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>MLSR</t>
+          <t>7276</t>
         </is>
       </c>
       <c r="B263" t="inlineStr"/>
@@ -2807,7 +2807,7 @@
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>7309</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -2816,7 +2816,7 @@
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>7459</t>
         </is>
       </c>
       <c r="B265" t="inlineStr"/>
@@ -2825,7 +2825,7 @@
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>MOH</t>
+          <t>7532</t>
         </is>
       </c>
       <c r="B266" t="inlineStr"/>
@@ -2834,7 +2834,7 @@
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>MPRO</t>
+          <t>7550</t>
         </is>
       </c>
       <c r="B267" t="inlineStr"/>
@@ -2843,7 +2843,7 @@
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>7701</t>
         </is>
       </c>
       <c r="B268" t="inlineStr"/>
@@ -2852,7 +2852,7 @@
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>7731</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -2861,7 +2861,7 @@
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>7733</t>
         </is>
       </c>
       <c r="B270" t="inlineStr"/>
@@ -2870,7 +2870,7 @@
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>MTRX</t>
+          <t>7741</t>
         </is>
       </c>
       <c r="B271" t="inlineStr"/>
@@ -2879,7 +2879,7 @@
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>MUFG</t>
+          <t>7747</t>
         </is>
       </c>
       <c r="B272" t="inlineStr"/>
@@ -2888,7 +2888,7 @@
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>7751</t>
         </is>
       </c>
       <c r="B273" t="inlineStr"/>
@@ -2897,7 +2897,7 @@
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>NAN</t>
+          <t>7752</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -2906,7 +2906,7 @@
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>NATO</t>
+          <t>7832</t>
         </is>
       </c>
       <c r="B275" t="inlineStr"/>
@@ -2915,7 +2915,7 @@
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>NBB</t>
+          <t>7911</t>
         </is>
       </c>
       <c r="B276" t="inlineStr"/>
@@ -2924,7 +2924,7 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>NEE</t>
+          <t>7912</t>
         </is>
       </c>
       <c r="B277" t="inlineStr"/>
@@ -2933,7 +2933,7 @@
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>NESR</t>
+          <t>7936</t>
         </is>
       </c>
       <c r="B278" t="inlineStr"/>
@@ -2942,7 +2942,7 @@
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>NETC</t>
+          <t>7951</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -2951,7 +2951,7 @@
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>7974</t>
         </is>
       </c>
       <c r="B280" t="inlineStr"/>
@@ -2960,7 +2960,7 @@
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="B281" t="inlineStr"/>
@@ -2969,7 +2969,7 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>NGT</t>
+          <t>8002</t>
         </is>
       </c>
       <c r="B282" t="inlineStr"/>
@@ -2978,7 +2978,7 @@
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>NICE</t>
+          <t>8015</t>
         </is>
       </c>
       <c r="B283" t="inlineStr"/>
@@ -2987,7 +2987,7 @@
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>8031</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -2996,7 +2996,7 @@
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>NOHO</t>
+          <t>8035</t>
         </is>
       </c>
       <c r="B285" t="inlineStr"/>
@@ -3005,7 +3005,7 @@
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>8053</t>
         </is>
       </c>
       <c r="B286" t="inlineStr"/>
@@ -3014,7 +3014,7 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>NTG</t>
+          <t>8058</t>
         </is>
       </c>
       <c r="B287" t="inlineStr"/>
@@ -3023,7 +3023,7 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>NTR</t>
+          <t>8111</t>
         </is>
       </c>
       <c r="B288" t="inlineStr"/>
@@ -3032,7 +3032,7 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>NVD</t>
+          <t>8113</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -3041,7 +3041,7 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>8267</t>
         </is>
       </c>
       <c r="B290" t="inlineStr"/>
@@ -3050,7 +3050,7 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>NVO</t>
+          <t>8306</t>
         </is>
       </c>
       <c r="B291" t="inlineStr"/>
@@ -3059,7 +3059,7 @@
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>NVS</t>
+          <t>8308</t>
         </is>
       </c>
       <c r="B292" t="inlineStr"/>
@@ -3068,7 +3068,7 @@
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>OIH</t>
+          <t>8309</t>
         </is>
       </c>
       <c r="B293" t="inlineStr"/>
@@ -3077,7 +3077,7 @@
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>OPCE</t>
+          <t>8316</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -3086,7 +3086,7 @@
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>ORA</t>
+          <t>8331</t>
         </is>
       </c>
       <c r="B295" t="inlineStr"/>
@@ -3095,7 +3095,7 @@
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>ORC</t>
+          <t>8369</t>
         </is>
       </c>
       <c r="B296" t="inlineStr"/>
@@ -3104,7 +3104,7 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>8411</t>
         </is>
       </c>
       <c r="B297" t="inlineStr"/>
@@ -3113,7 +3113,7 @@
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>8473</t>
         </is>
       </c>
       <c r="B298" t="inlineStr"/>
@@ -3122,7 +3122,7 @@
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>OTEX</t>
+          <t>857</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -3131,7 +3131,7 @@
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>OVV</t>
+          <t>8591</t>
         </is>
       </c>
       <c r="B300" t="inlineStr"/>
@@ -3140,7 +3140,7 @@
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>PAAS</t>
+          <t>8593</t>
         </is>
       </c>
       <c r="B301" t="inlineStr"/>
@@ -3149,7 +3149,7 @@
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>PBH</t>
+          <t>8601</t>
         </is>
       </c>
       <c r="B302" t="inlineStr"/>
@@ -3158,7 +3158,7 @@
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>8604</t>
         </is>
       </c>
       <c r="B303" t="inlineStr"/>
@@ -3167,7 +3167,7 @@
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>8630</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -3176,7 +3176,7 @@
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>8697</t>
         </is>
       </c>
       <c r="B305" t="inlineStr"/>
@@ -3185,7 +3185,7 @@
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>PGAS</t>
+          <t>8725</t>
         </is>
       </c>
       <c r="B306" t="inlineStr"/>
@@ -3194,7 +3194,7 @@
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>PHAR</t>
+          <t>8750</t>
         </is>
       </c>
       <c r="B307" t="inlineStr"/>
@@ -3203,7 +3203,7 @@
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>PHOE</t>
+          <t>8766</t>
         </is>
       </c>
       <c r="B308" t="inlineStr"/>
@@ -3212,7 +3212,7 @@
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>PHYS</t>
+          <t>8795</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -3221,7 +3221,7 @@
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>PLD</t>
+          <t>8801</t>
         </is>
       </c>
       <c r="B310" t="inlineStr"/>
@@ -3230,7 +3230,7 @@
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>8802</t>
         </is>
       </c>
       <c r="B311" t="inlineStr"/>
@@ -3239,7 +3239,7 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>PNLF</t>
+          <t>8830</t>
         </is>
       </c>
       <c r="B312" t="inlineStr"/>
@@ -3248,7 +3248,7 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>POLI</t>
+          <t>9001</t>
         </is>
       </c>
       <c r="B313" t="inlineStr"/>
@@ -3257,7 +3257,7 @@
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>PORT</t>
+          <t>9005</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -3266,7 +3266,7 @@
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>PPL</t>
+          <t>9007</t>
         </is>
       </c>
       <c r="B315" t="inlineStr"/>
@@ -3275,7 +3275,7 @@
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>PRG</t>
+          <t>9008</t>
         </is>
       </c>
       <c r="B316" t="inlineStr"/>
@@ -3284,7 +3284,7 @@
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>PRGO</t>
+          <t>9009</t>
         </is>
       </c>
       <c r="B317" t="inlineStr"/>
@@ -3293,7 +3293,7 @@
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>PSAB</t>
+          <t>9020</t>
         </is>
       </c>
       <c r="B318" t="inlineStr"/>
@@ -3302,7 +3302,7 @@
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>PTPP</t>
+          <t>9021</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -3311,7 +3311,7 @@
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>9022</t>
         </is>
       </c>
       <c r="B320" t="inlineStr"/>
@@ -3320,7 +3320,7 @@
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>PZOL</t>
+          <t>9041</t>
         </is>
       </c>
       <c r="B321" t="inlineStr"/>
@@ -3329,7 +3329,7 @@
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>9042</t>
         </is>
       </c>
       <c r="B322" t="inlineStr"/>
@@ -3338,7 +3338,7 @@
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>QSR</t>
+          <t>9045</t>
         </is>
       </c>
       <c r="B323" t="inlineStr"/>
@@ -3347,7 +3347,7 @@
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>RALS</t>
+          <t>9048</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -3356,7 +3356,7 @@
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>RAYA</t>
+          <t>9064</t>
         </is>
       </c>
       <c r="B325" t="inlineStr"/>
@@ -3365,7 +3365,7 @@
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>RBA</t>
+          <t>9101</t>
         </is>
       </c>
       <c r="B326" t="inlineStr"/>
@@ -3374,7 +3374,7 @@
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>RCI</t>
+          <t>9104</t>
         </is>
       </c>
       <c r="B327" t="inlineStr"/>
@@ -3383,7 +3383,7 @@
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>REAC</t>
+          <t>9107</t>
         </is>
       </c>
       <c r="B328" t="inlineStr"/>
@@ -3392,7 +3392,7 @@
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>REI</t>
+          <t>9142</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -3401,7 +3401,7 @@
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>RHHBF</t>
+          <t>9143</t>
         </is>
       </c>
       <c r="B330" t="inlineStr"/>
@@ -3410,7 +3410,7 @@
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>RHHBY</t>
+          <t>9147</t>
         </is>
       </c>
       <c r="B331" t="inlineStr"/>
@@ -3419,7 +3419,7 @@
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>RHHVF</t>
+          <t>9201</t>
         </is>
       </c>
       <c r="B332" t="inlineStr"/>
@@ -3428,7 +3428,7 @@
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>RIO</t>
+          <t>9202</t>
         </is>
       </c>
       <c r="B333" t="inlineStr"/>
@@ -3437,7 +3437,7 @@
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>RISE</t>
+          <t>939</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -3446,7 +3446,7 @@
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>RIT1</t>
+          <t>9432</t>
         </is>
       </c>
       <c r="B335" t="inlineStr"/>
@@ -3455,7 +3455,7 @@
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>RNW</t>
+          <t>9433</t>
         </is>
       </c>
       <c r="B336" t="inlineStr"/>
@@ -3464,7 +3464,7 @@
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>ROTI</t>
+          <t>9434</t>
         </is>
       </c>
       <c r="B337" t="inlineStr"/>
@@ -3473,7 +3473,7 @@
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>9435</t>
         </is>
       </c>
       <c r="B338" t="inlineStr"/>
@@ -3482,7 +3482,7 @@
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>RY</t>
+          <t>9501</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -3491,7 +3491,7 @@
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>SAE</t>
+          <t>9502</t>
         </is>
       </c>
       <c r="B340" t="inlineStr"/>
@@ -3500,7 +3500,7 @@
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>9503</t>
         </is>
       </c>
       <c r="B341" t="inlineStr"/>
@@ -3509,7 +3509,7 @@
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>SBS</t>
+          <t>9531</t>
         </is>
       </c>
       <c r="B342" t="inlineStr"/>
@@ -3518,7 +3518,7 @@
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>9532</t>
         </is>
       </c>
       <c r="B343" t="inlineStr"/>
@@ -3527,7 +3527,7 @@
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>SCD</t>
+          <t>9602</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -3536,7 +3536,7 @@
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>SCHO</t>
+          <t>9613</t>
         </is>
       </c>
       <c r="B345" t="inlineStr"/>
@@ -3545,7 +3545,7 @@
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>SDRA</t>
+          <t>9618</t>
         </is>
       </c>
       <c r="B346" t="inlineStr"/>
@@ -3554,7 +3554,7 @@
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>SHID</t>
+          <t>9633</t>
         </is>
       </c>
       <c r="B347" t="inlineStr"/>
@@ -3563,7 +3563,7 @@
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>9684</t>
         </is>
       </c>
       <c r="B348" t="inlineStr"/>
@@ -3572,7 +3572,7 @@
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>SIF</t>
+          <t>9697</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -3581,7 +3581,7 @@
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>SIG</t>
+          <t>9706</t>
         </is>
       </c>
       <c r="B350" t="inlineStr"/>
@@ -3590,7 +3590,7 @@
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>SILO</t>
+          <t>9735</t>
         </is>
       </c>
       <c r="B351" t="inlineStr"/>
@@ -3599,7 +3599,7 @@
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>SIM</t>
+          <t>9766</t>
         </is>
       </c>
       <c r="B352" t="inlineStr"/>
@@ -3608,7 +3608,7 @@
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>SKBN</t>
+          <t>9831</t>
         </is>
       </c>
       <c r="B353" t="inlineStr"/>
@@ -3617,7 +3617,7 @@
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>SLF</t>
+          <t>9843</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -3626,7 +3626,7 @@
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>SMAR</t>
+          <t>9868</t>
         </is>
       </c>
       <c r="B355" t="inlineStr"/>
@@ -3635,7 +3635,7 @@
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>SMCB</t>
+          <t>9888</t>
         </is>
       </c>
       <c r="B356" t="inlineStr"/>
@@ -3644,7 +3644,7 @@
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>SMPP</t>
+          <t>9901</t>
         </is>
       </c>
       <c r="B357" t="inlineStr"/>
@@ -3653,7 +3653,7 @@
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>SMSM</t>
+          <t>992</t>
         </is>
       </c>
       <c r="B358" t="inlineStr"/>
@@ -3662,7 +3662,7 @@
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>SMT</t>
+          <t>9961</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -3671,7 +3671,7 @@
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>SNY</t>
+          <t>9962</t>
         </is>
       </c>
       <c r="B360" t="inlineStr"/>
@@ -3680,7 +3680,7 @@
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>9983</t>
         </is>
       </c>
       <c r="B361" t="inlineStr"/>
@@ -3689,7 +3689,7 @@
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>SPEN</t>
+          <t>9984</t>
         </is>
       </c>
       <c r="B362" t="inlineStr"/>
@@ -3698,7 +3698,7 @@
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>9988</t>
         </is>
       </c>
       <c r="B363" t="inlineStr"/>
@@ -3707,7 +3707,7 @@
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>9999</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -3716,7 +3716,7 @@
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>SPNS</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B365" t="inlineStr"/>
@@ -3725,7 +3725,7 @@
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>SQMI</t>
+          <t>A000270</t>
         </is>
       </c>
       <c r="B366" t="inlineStr"/>
@@ -3734,7 +3734,7 @@
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>SSMS</t>
+          <t>A000660</t>
         </is>
       </c>
       <c r="B367" t="inlineStr"/>
@@ -3743,7 +3743,7 @@
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>STG</t>
+          <t>A000810</t>
         </is>
       </c>
       <c r="B368" t="inlineStr"/>
@@ -3752,7 +3752,7 @@
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>STN</t>
+          <t>A003550</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -3761,7 +3761,7 @@
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>STRS</t>
+          <t>A003670</t>
         </is>
       </c>
       <c r="B370" t="inlineStr"/>
@@ -3770,7 +3770,7 @@
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>STTP</t>
+          <t>A005380</t>
         </is>
       </c>
       <c r="B371" t="inlineStr"/>
@@ -3779,7 +3779,7 @@
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>SU</t>
+          <t>A005490</t>
         </is>
       </c>
       <c r="B372" t="inlineStr"/>
@@ -3788,7 +3788,7 @@
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>SURE</t>
+          <t>A005930</t>
         </is>
       </c>
       <c r="B373" t="inlineStr"/>
@@ -3797,7 +3797,7 @@
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>SYK</t>
+          <t>A005935</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -3806,7 +3806,7 @@
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A006400</t>
         </is>
       </c>
       <c r="B375" t="inlineStr"/>
@@ -3815,7 +3815,7 @@
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>TCM</t>
+          <t>A009150</t>
         </is>
       </c>
       <c r="B376" t="inlineStr"/>
@@ -3824,7 +3824,7 @@
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>A012330</t>
         </is>
       </c>
       <c r="B377" t="inlineStr"/>
@@ -3833,7 +3833,7 @@
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>TD</t>
+          <t>A028260</t>
         </is>
       </c>
       <c r="B378" t="inlineStr"/>
@@ -3842,7 +3842,7 @@
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>TECK</t>
+          <t>A033780</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -3851,7 +3851,7 @@
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>TEVA</t>
+          <t>A034020</t>
         </is>
       </c>
       <c r="B380" t="inlineStr"/>
@@ -3860,7 +3860,7 @@
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>TFC</t>
+          <t>A035420</t>
         </is>
       </c>
       <c r="B381" t="inlineStr"/>
@@ -3869,7 +3869,7 @@
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>TFII</t>
+          <t>A035720</t>
         </is>
       </c>
       <c r="B382" t="inlineStr"/>
@@ -3878,7 +3878,7 @@
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>TGKA</t>
+          <t>A051910</t>
         </is>
       </c>
       <c r="B383" t="inlineStr"/>
@@ -3887,7 +3887,7 @@
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>TGT</t>
+          <t>A055550</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -3896,7 +3896,7 @@
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>TIH</t>
+          <t>A066570</t>
         </is>
       </c>
       <c r="B385" t="inlineStr"/>
@@ -3905,7 +3905,7 @@
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>A068270</t>
         </is>
       </c>
       <c r="B386" t="inlineStr"/>
@@ -3914,7 +3914,7 @@
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>A086520</t>
         </is>
       </c>
       <c r="B387" t="inlineStr"/>
@@ -3923,7 +3923,7 @@
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>A086790</t>
         </is>
       </c>
       <c r="B388" t="inlineStr"/>
@@ -3932,7 +3932,7 @@
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>A096770</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -3941,7 +3941,7 @@
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>TOM</t>
+          <t>A105560</t>
         </is>
       </c>
       <c r="B390" t="inlineStr"/>
@@ -3950,7 +3950,7 @@
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>TOP</t>
+          <t>A207940</t>
         </is>
       </c>
       <c r="B391" t="inlineStr"/>
@@ -3959,7 +3959,7 @@
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>TPIA</t>
+          <t>A247540</t>
         </is>
       </c>
       <c r="B392" t="inlineStr"/>
@@ -3968,7 +3968,7 @@
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>TPX</t>
+          <t>A373220</t>
         </is>
       </c>
       <c r="B393" t="inlineStr"/>
@@ -3977,7 +3977,7 @@
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -3986,7 +3986,7 @@
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>TRP</t>
+          <t>ABBN</t>
         </is>
       </c>
       <c r="B395" t="inlineStr"/>
@@ -3995,7 +3995,7 @@
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>TSEM</t>
+          <t>ABBV</t>
         </is>
       </c>
       <c r="B396" t="inlineStr"/>
@@ -4004,7 +4004,7 @@
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>ABEV3</t>
         </is>
       </c>
       <c r="B397" t="inlineStr"/>
@@ -4013,7 +4013,7 @@
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>ABG</t>
         </is>
       </c>
       <c r="B398" t="inlineStr"/>
@@ -4022,7 +4022,7 @@
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>TSPC</t>
+          <t>ABI</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -4031,7 +4031,7 @@
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>TURI</t>
+          <t>ABNB</t>
         </is>
       </c>
       <c r="B400" t="inlineStr"/>
@@ -4040,7 +4040,7 @@
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>TXN</t>
+          <t>ABT</t>
         </is>
       </c>
       <c r="B401" t="inlineStr"/>
@@ -4049,7 +4049,7 @@
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
         <is>
-          <t>UCID</t>
+          <t>ACA</t>
         </is>
       </c>
       <c r="B402" t="inlineStr"/>
@@ -4058,7 +4058,7 @@
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
         <is>
-          <t>UL</t>
+          <t>ACKB</t>
         </is>
       </c>
       <c r="B403" t="inlineStr"/>
@@ -4067,7 +4067,7 @@
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>ACN</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -4076,7 +4076,7 @@
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
         <is>
-          <t>UNIT</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="B405" t="inlineStr"/>
@@ -4085,7 +4085,7 @@
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
         <is>
-          <t>UNP</t>
+          <t>ADBE</t>
         </is>
       </c>
       <c r="B406" t="inlineStr"/>
@@ -4094,7 +4094,7 @@
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
         <is>
-          <t>UPM</t>
+          <t>ADCB</t>
         </is>
       </c>
       <c r="B407" t="inlineStr"/>
@@ -4103,7 +4103,7 @@
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
         <is>
-          <t>UPS</t>
+          <t>ADI</t>
         </is>
       </c>
       <c r="B408" t="inlineStr"/>
@@ -4112,7 +4112,7 @@
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
         <is>
-          <t>URBN</t>
+          <t>ADM</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -4121,7 +4121,7 @@
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>USB</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="B410" t="inlineStr"/>
@@ -4130,7 +4130,7 @@
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>ADS</t>
         </is>
       </c>
       <c r="B411" t="inlineStr"/>
@@ -4139,7 +4139,7 @@
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>VIS</t>
+          <t>ADSK</t>
         </is>
       </c>
       <c r="B412" t="inlineStr"/>
@@ -4148,7 +4148,7 @@
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>VOD</t>
+          <t>ADVANC-R</t>
         </is>
       </c>
       <c r="B413" t="inlineStr"/>
@@ -4157,7 +4157,7 @@
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>ADYEN</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -4166,7 +4166,7 @@
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>AED</t>
         </is>
       </c>
       <c r="B415" t="inlineStr"/>
@@ -4175,7 +4175,7 @@
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
         <is>
-          <t>WEED</t>
+          <t>AEP</t>
         </is>
       </c>
       <c r="B416" t="inlineStr"/>
@@ -4184,7 +4184,7 @@
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
         <is>
-          <t>WFC</t>
+          <t>AFL</t>
         </is>
       </c>
       <c r="B417" t="inlineStr"/>
@@ -4193,7 +4193,7 @@
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>AGS</t>
         </is>
       </c>
       <c r="B418" t="inlineStr"/>
@@ -4202,7 +4202,7 @@
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
         <is>
-          <t>WPM</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="B419" t="inlineStr"/>
@@ -4211,7 +4211,7 @@
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
         <is>
-          <t>WSBP</t>
+          <t>AIG</t>
         </is>
       </c>
       <c r="B420" t="inlineStr"/>
@@ -4220,7 +4220,7 @@
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>AIR</t>
         </is>
       </c>
       <c r="B421" t="inlineStr"/>
@@ -4229,7 +4229,7 @@
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>AJG</t>
         </is>
       </c>
       <c r="B422" t="inlineStr"/>
@@ -4238,7 +4238,7 @@
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
         <is>
-          <t>ZINC</t>
+          <t>ALC</t>
         </is>
       </c>
       <c r="B423" t="inlineStr"/>
@@ -4247,11 +4247,4646 @@
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
         <is>
-          <t>ZTS</t>
+          <t>ALDAR</t>
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
       <c r="C424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>ALGN</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr"/>
+      <c r="C425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>ALO</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr"/>
+      <c r="C426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>ALV</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr"/>
+      <c r="C427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr"/>
+      <c r="C428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr"/>
+      <c r="C429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr"/>
+      <c r="C430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr"/>
+      <c r="C431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>AMP</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr"/>
+      <c r="C432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>AMT</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr"/>
+      <c r="C433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>AMX B</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr"/>
+      <c r="C434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr"/>
+      <c r="C435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>ANET</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr"/>
+      <c r="C436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>ANSS</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr"/>
+      <c r="C437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>ANZ</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr"/>
+      <c r="C438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>AOD1</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr"/>
+      <c r="C439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>AON</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr"/>
+      <c r="C440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>AOT-R</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr"/>
+      <c r="C441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>APAM</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr"/>
+      <c r="C442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>APD</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr"/>
+      <c r="C443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr"/>
+      <c r="C444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="inlineStr">
+        <is>
+          <t>APOLLOHOSP</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr"/>
+      <c r="C445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="inlineStr">
+        <is>
+          <t>ARGX</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr"/>
+      <c r="C446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="inlineStr">
+        <is>
+          <t>ASIANPAINT</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr"/>
+      <c r="C447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="inlineStr">
+        <is>
+          <t>ASII</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr"/>
+      <c r="C448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="inlineStr">
+        <is>
+          <t>ASML</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr"/>
+      <c r="C449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr"/>
+      <c r="C450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr"/>
+      <c r="C451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>AZN</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr"/>
+      <c r="C452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>AZO</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr"/>
+      <c r="C453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>B3SA3</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr"/>
+      <c r="C454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr"/>
+      <c r="C455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr"/>
+      <c r="C456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>BAJAJFINSV</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr"/>
+      <c r="C457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>BAJFINANCE</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr"/>
+      <c r="C458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>BAP</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr"/>
+      <c r="C459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>BAR</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr"/>
+      <c r="C460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>BAS</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr"/>
+      <c r="C461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>BATS</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr"/>
+      <c r="C462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>BAYN</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr"/>
+      <c r="C463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr"/>
+      <c r="C464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>BBCA</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr"/>
+      <c r="C465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>BBDC4</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr"/>
+      <c r="C466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>BBRI</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr"/>
+      <c r="C467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr"/>
+      <c r="C468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>BDMS-R</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr"/>
+      <c r="C469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>BDO</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr"/>
+      <c r="C470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>BDX</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr"/>
+      <c r="C471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>BEI</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr"/>
+      <c r="C472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>BEKE</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr"/>
+      <c r="C473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>BHP</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr"/>
+      <c r="C474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>BID</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr"/>
+      <c r="C475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr"/>
+      <c r="C476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>BIMBO A</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr"/>
+      <c r="C477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr"/>
+      <c r="C478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>BKNG</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr"/>
+      <c r="C479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>BKR</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr"/>
+      <c r="C480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr"/>
+      <c r="C481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>BMO</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr"/>
+      <c r="C482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>BMRI</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr"/>
+      <c r="C483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr"/>
+      <c r="C484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>BMY</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr"/>
+      <c r="C485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>BN</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr"/>
+      <c r="C486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>BNP</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr"/>
+      <c r="C487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>BNR</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr"/>
+      <c r="C488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>BNS</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr"/>
+      <c r="C489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>BP.</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr"/>
+      <c r="C490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>BPAC11</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr"/>
+      <c r="C491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>BRITANNIA</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr"/>
+      <c r="C492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>BRK.B</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>BSX</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr"/>
+      <c r="C494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>BX</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr"/>
+      <c r="C495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr"/>
+      <c r="C496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr"/>
+      <c r="C497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>CAP</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr"/>
+      <c r="C498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>CARR</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr"/>
+      <c r="C499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr"/>
+      <c r="C500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr"/>
+      <c r="C501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>CBA</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr"/>
+      <c r="C502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>CBK</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr"/>
+      <c r="C503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>CCI</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr"/>
+      <c r="C504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>CDNS</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr"/>
+      <c r="C505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>CEG</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr"/>
+      <c r="C506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>CEMEX CPO</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr"/>
+      <c r="C507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>CEZ</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr"/>
+      <c r="C508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr"/>
+      <c r="C509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>CHTR</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr"/>
+      <c r="C510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>CI</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr"/>
+      <c r="C511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>CIMB</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr"/>
+      <c r="C512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>CIPLA</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr"/>
+      <c r="C513" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr"/>
+      <c r="C514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>CMCSA</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr"/>
+      <c r="C515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr"/>
+      <c r="C516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>CMG</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr"/>
+      <c r="C517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr"/>
+      <c r="C518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>CNC</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr"/>
+      <c r="C519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>CNQ</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr"/>
+      <c r="C520" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>CNR</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr"/>
+      <c r="C521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>COF</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr"/>
+      <c r="C522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>COFB</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr"/>
+      <c r="C523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>CON</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr"/>
+      <c r="C524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>COP</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr"/>
+      <c r="C525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr"/>
+      <c r="C526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>CP</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr"/>
+      <c r="C527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>CPALL-R</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr"/>
+      <c r="C528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>CPI</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr"/>
+      <c r="C529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>CPRT</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr"/>
+      <c r="C530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>CRH</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr"/>
+      <c r="C531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>CRM</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr"/>
+      <c r="C532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr"/>
+      <c r="C533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr"/>
+      <c r="C534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr"/>
+      <c r="C535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>CSGP</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr"/>
+      <c r="C536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>CSL</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr"/>
+      <c r="C537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>CSX</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr"/>
+      <c r="C538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>CTAS</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr"/>
+      <c r="C539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr"/>
+      <c r="C540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>CTVA</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr"/>
+      <c r="C541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>CVS</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr"/>
+      <c r="C542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr"/>
+      <c r="C543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr"/>
+      <c r="C544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>DB1</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr"/>
+      <c r="C545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>DBK</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr"/>
+      <c r="C546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr"/>
+      <c r="C547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr"/>
+      <c r="C548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr"/>
+      <c r="C549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>DELTA-R</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr"/>
+      <c r="C550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>DG</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr"/>
+      <c r="C551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>DGE</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr"/>
+      <c r="C552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="inlineStr">
+        <is>
+          <t>DHI</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr"/>
+      <c r="C553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="inlineStr">
+        <is>
+          <t>DHL</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr"/>
+      <c r="C554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr"/>
+      <c r="C555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="inlineStr">
+        <is>
+          <t>DIE</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr"/>
+      <c r="C556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr"/>
+      <c r="C557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="inlineStr">
+        <is>
+          <t>DLR</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr"/>
+      <c r="C558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr"/>
+      <c r="C559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="inlineStr">
+        <is>
+          <t>DMART</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr"/>
+      <c r="C560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr"/>
+      <c r="C561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="inlineStr">
+        <is>
+          <t>DSY</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr"/>
+      <c r="C562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>DTE</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr"/>
+      <c r="C563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>DTG</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr"/>
+      <c r="C564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>DUK</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr"/>
+      <c r="C565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr"/>
+      <c r="C566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr"/>
+      <c r="C567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr"/>
+      <c r="C568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>EAND</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr"/>
+      <c r="C569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="inlineStr">
+        <is>
+          <t>EBAY</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr"/>
+      <c r="C570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
+          <t>ECL</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr"/>
+      <c r="C571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr"/>
+      <c r="C572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>EDEN</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr"/>
+      <c r="C573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr"/>
+      <c r="C574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="inlineStr">
+        <is>
+          <t>ELET3</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr"/>
+      <c r="C575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="inlineStr">
+        <is>
+          <t>ELI</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr"/>
+      <c r="C576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="inlineStr">
+        <is>
+          <t>ELV</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr"/>
+      <c r="C577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="inlineStr">
+        <is>
+          <t>EMAAR</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr"/>
+      <c r="C578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="inlineStr">
+        <is>
+          <t>EMIRATESNBD</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr"/>
+      <c r="C579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="inlineStr">
+        <is>
+          <t>EMR</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr"/>
+      <c r="C580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr"/>
+      <c r="C581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>ENB</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr"/>
+      <c r="C582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>ENEL</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr"/>
+      <c r="C583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>ENGI</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr"/>
+      <c r="C584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="inlineStr">
+        <is>
+          <t>ENI</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr"/>
+      <c r="C585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>ENPH</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr"/>
+      <c r="C586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>ENR</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr"/>
+      <c r="C587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>EOAN</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr"/>
+      <c r="C588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>EOG</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr"/>
+      <c r="C589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>EQIX</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr"/>
+      <c r="C590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>EQTL3</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr"/>
+      <c r="C591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>ERF</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr"/>
+      <c r="C592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>ETN</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr"/>
+      <c r="C593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr"/>
+      <c r="C594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr"/>
+      <c r="C595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr"/>
+      <c r="C596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>FAB</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr"/>
+      <c r="C597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>FANG</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr"/>
+      <c r="C598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>FAST</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr"/>
+      <c r="C599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>FCX</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr"/>
+      <c r="C600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr"/>
+      <c r="C601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>FEMSA UBD</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr"/>
+      <c r="C602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>FI</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr"/>
+      <c r="C603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>FIS</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr"/>
+      <c r="C604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>FLTR</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr"/>
+      <c r="C605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>FRE</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr"/>
+      <c r="C606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>FSR</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr"/>
+      <c r="C607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr"/>
+      <c r="C608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>GAP B</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr"/>
+      <c r="C609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>GBLB</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr"/>
+      <c r="C610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr"/>
+      <c r="C611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr"/>
+      <c r="C612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>GEBN</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr"/>
+      <c r="C613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>GFI</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr"/>
+      <c r="C614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>GFNORTE O</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr"/>
+      <c r="C615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>GFS</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr"/>
+      <c r="C616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>GGBR4</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr"/>
+      <c r="C617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr"/>
+      <c r="C618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>GIS</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr"/>
+      <c r="C619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>GIVN</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr"/>
+      <c r="C620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>GLE</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr"/>
+      <c r="C621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>GLEN</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr"/>
+      <c r="C622" t="inlineStr"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>GLPG</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr"/>
+      <c r="C623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr"/>
+      <c r="C624" t="inlineStr"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>GMEXICO B</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr"/>
+      <c r="C625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr"/>
+      <c r="C626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr"/>
+      <c r="C627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>GPN</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr"/>
+      <c r="C628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>GRASIM</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr"/>
+      <c r="C629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr"/>
+      <c r="C630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>GSK</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr"/>
+      <c r="C631" t="inlineStr"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>GWW</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr"/>
+      <c r="C632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr"/>
+      <c r="C633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr"/>
+      <c r="C634" t="inlineStr"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>HCLTECH</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr"/>
+      <c r="C635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr"/>
+      <c r="C636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>HDFCBANK</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr"/>
+      <c r="C637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>HDFCLIFE</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr"/>
+      <c r="C638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>HEI</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr"/>
+      <c r="C639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>HEN3</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr"/>
+      <c r="C640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>HES</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr"/>
+      <c r="C641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>HLT</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr"/>
+      <c r="C642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>HNR1</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr"/>
+      <c r="C643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr"/>
+      <c r="C644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>HON</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr"/>
+      <c r="C645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>HSBA</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr"/>
+      <c r="C646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>HSY</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr"/>
+      <c r="C647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>HTHT</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr"/>
+      <c r="C648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>HUM</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr"/>
+      <c r="C649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>IBE</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr"/>
+      <c r="C650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr"/>
+      <c r="C651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>ICE</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr"/>
+      <c r="C652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>ICICIBANK</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr"/>
+      <c r="C653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr"/>
+      <c r="C654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>IFX</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr"/>
+      <c r="C655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>ILMN</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr"/>
+      <c r="C656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>INFY</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr"/>
+      <c r="C657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>INGA</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr"/>
+      <c r="C658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr"/>
+      <c r="C659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>INTU</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr"/>
+      <c r="C660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr"/>
+      <c r="C661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>ISP</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr"/>
+      <c r="C662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr"/>
+      <c r="C663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>ITC</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr"/>
+      <c r="C664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr"/>
+      <c r="C665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>ITUB4</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr"/>
+      <c r="C666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>ITW</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr"/>
+      <c r="C667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
+          <t>ITX</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr"/>
+      <c r="C668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="inlineStr">
+        <is>
+          <t>JCI</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr"/>
+      <c r="C669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="inlineStr">
+        <is>
+          <t>JD</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr"/>
+      <c r="C670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="inlineStr">
+        <is>
+          <t>JIOFIN</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr"/>
+      <c r="C671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr"/>
+      <c r="C672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr"/>
+      <c r="C673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="inlineStr">
+        <is>
+          <t>KBC</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr"/>
+      <c r="C674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr"/>
+      <c r="C675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="inlineStr">
+        <is>
+          <t>KER</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr"/>
+      <c r="C676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="inlineStr">
+        <is>
+          <t>KFH</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr"/>
+      <c r="C677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="inlineStr">
+        <is>
+          <t>KHC</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr"/>
+      <c r="C678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr"/>
+      <c r="C679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="inlineStr">
+        <is>
+          <t>KMB</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr"/>
+      <c r="C680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="inlineStr">
+        <is>
+          <t>KMI</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr"/>
+      <c r="C681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="inlineStr">
+        <is>
+          <t>KNIN</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr"/>
+      <c r="C682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr"/>
+      <c r="C683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr"/>
+      <c r="C684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="inlineStr">
+        <is>
+          <t>KVUE</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr"/>
+      <c r="C685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="inlineStr">
+        <is>
+          <t>LCID</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr"/>
+      <c r="C686" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="inlineStr">
+        <is>
+          <t>LEN</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr"/>
+      <c r="C687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="inlineStr">
+        <is>
+          <t>LHN</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr"/>
+      <c r="C688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="inlineStr">
+        <is>
+          <t>LHX</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr"/>
+      <c r="C689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="inlineStr">
+        <is>
+          <t>LIN</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr"/>
+      <c r="C690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr"/>
+      <c r="C691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="inlineStr">
+        <is>
+          <t>LMT</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr"/>
+      <c r="C692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="inlineStr">
+        <is>
+          <t>LOGN</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr"/>
+      <c r="C693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="inlineStr">
+        <is>
+          <t>LONN</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr"/>
+      <c r="C694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr"/>
+      <c r="C695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr"/>
+      <c r="C696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr"/>
+      <c r="C697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="inlineStr">
+        <is>
+          <t>LTIM</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr"/>
+      <c r="C698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="inlineStr">
+        <is>
+          <t>LULU</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr"/>
+      <c r="C699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="inlineStr">
+        <is>
+          <t>M&amp;AMP;M</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr"/>
+      <c r="C700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr"/>
+      <c r="C701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr"/>
+      <c r="C702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="inlineStr">
+        <is>
+          <t>MARUTI</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr"/>
+      <c r="C703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="inlineStr">
+        <is>
+          <t>MAYBANK</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr"/>
+      <c r="C704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr"/>
+      <c r="C705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="inlineStr">
+        <is>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr"/>
+      <c r="C706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr"/>
+      <c r="C707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="inlineStr">
+        <is>
+          <t>MCHP</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr"/>
+      <c r="C708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr"/>
+      <c r="C709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="inlineStr">
+        <is>
+          <t>MCO</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr"/>
+      <c r="C710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="inlineStr">
+        <is>
+          <t>MDLZ</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr"/>
+      <c r="C711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="inlineStr">
+        <is>
+          <t>MDT</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr"/>
+      <c r="C712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="inlineStr">
+        <is>
+          <t>MELE</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr"/>
+      <c r="C713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="inlineStr">
+        <is>
+          <t>MELI</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr"/>
+      <c r="C714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr"/>
+      <c r="C715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="inlineStr">
+        <is>
+          <t>META</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr"/>
+      <c r="C716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr"/>
+      <c r="C717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="inlineStr">
+        <is>
+          <t>MMC</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr"/>
+      <c r="C718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr"/>
+      <c r="C719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr"/>
+      <c r="C720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr"/>
+      <c r="C721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="inlineStr">
+        <is>
+          <t>MPC</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr"/>
+      <c r="C722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr"/>
+      <c r="C723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="inlineStr">
+        <is>
+          <t>MRNA</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr"/>
+      <c r="C724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="inlineStr">
+        <is>
+          <t>MRVL</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr"/>
+      <c r="C725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr"/>
+      <c r="C726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="inlineStr">
+        <is>
+          <t>MSCI</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr"/>
+      <c r="C727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr"/>
+      <c r="C728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="inlineStr">
+        <is>
+          <t>MSI</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr"/>
+      <c r="C729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr"/>
+      <c r="C730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="inlineStr">
+        <is>
+          <t>MTN</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr"/>
+      <c r="C731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="inlineStr">
+        <is>
+          <t>MTX</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr"/>
+      <c r="C732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr"/>
+      <c r="C733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="inlineStr">
+        <is>
+          <t>MUV2</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr"/>
+      <c r="C734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="inlineStr">
+        <is>
+          <t>NAB</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr"/>
+      <c r="C735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="inlineStr">
+        <is>
+          <t>NBK</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr"/>
+      <c r="C736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="inlineStr">
+        <is>
+          <t>NDA SE</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr"/>
+      <c r="C737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr"/>
+      <c r="C738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="inlineStr">
+        <is>
+          <t>NEM</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr"/>
+      <c r="C739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="inlineStr">
+        <is>
+          <t>NESN</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr"/>
+      <c r="C740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr"/>
+      <c r="C741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="inlineStr">
+        <is>
+          <t>NG.</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr"/>
+      <c r="C742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="inlineStr">
+        <is>
+          <t>NIO</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr"/>
+      <c r="C743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr"/>
+      <c r="C744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="inlineStr">
+        <is>
+          <t>NOC</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr"/>
+      <c r="C745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="inlineStr">
+        <is>
+          <t>NOKIA</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr"/>
+      <c r="C746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="inlineStr">
+        <is>
+          <t>NOVN</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr"/>
+      <c r="C747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="inlineStr">
+        <is>
+          <t>NOW</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr"/>
+      <c r="C748" t="inlineStr"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="inlineStr">
+        <is>
+          <t>NPN</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr"/>
+      <c r="C749" t="inlineStr"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="inlineStr">
+        <is>
+          <t>NSC</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr"/>
+      <c r="C750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="inlineStr">
+        <is>
+          <t>NTPC</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr"/>
+      <c r="C751" t="inlineStr"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr"/>
+      <c r="C752" t="inlineStr"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr"/>
+      <c r="C753" t="inlineStr"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="inlineStr">
+        <is>
+          <t>NXPI</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr"/>
+      <c r="C754" t="inlineStr"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr"/>
+      <c r="C755" t="inlineStr"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr"/>
+      <c r="C756" t="inlineStr"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="inlineStr">
+        <is>
+          <t>OKE</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr"/>
+      <c r="C757" t="inlineStr"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr"/>
+      <c r="C758" t="inlineStr"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="inlineStr">
+        <is>
+          <t>ONGC</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr"/>
+      <c r="C759" t="inlineStr"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr"/>
+      <c r="C760" t="inlineStr"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="inlineStr">
+        <is>
+          <t>ORA</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr"/>
+      <c r="C761" t="inlineStr"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="inlineStr">
+        <is>
+          <t>ORCL</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr"/>
+      <c r="C762" t="inlineStr"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="inlineStr">
+        <is>
+          <t>ORLY</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr"/>
+      <c r="C763" t="inlineStr"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="inlineStr">
+        <is>
+          <t>OTIS</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr"/>
+      <c r="C764" t="inlineStr"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="inlineStr">
+        <is>
+          <t>OTP</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr"/>
+      <c r="C765" t="inlineStr"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="inlineStr">
+        <is>
+          <t>OXY</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr"/>
+      <c r="C766" t="inlineStr"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="inlineStr">
+        <is>
+          <t>P911</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr"/>
+      <c r="C767" t="inlineStr"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="inlineStr">
+        <is>
+          <t>PAH3</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr"/>
+      <c r="C768" t="inlineStr"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="inlineStr">
+        <is>
+          <t>PANW</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr"/>
+      <c r="C769" t="inlineStr"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="inlineStr">
+        <is>
+          <t>PAYX</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr"/>
+      <c r="C770" t="inlineStr"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="inlineStr">
+        <is>
+          <t>PBBANK</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr"/>
+      <c r="C771" t="inlineStr"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="inlineStr">
+        <is>
+          <t>PCAR</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr"/>
+      <c r="C772" t="inlineStr"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="inlineStr">
+        <is>
+          <t>PDD</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr"/>
+      <c r="C773" t="inlineStr"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="inlineStr">
+        <is>
+          <t>PEG</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr"/>
+      <c r="C774" t="inlineStr"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="inlineStr">
+        <is>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr"/>
+      <c r="C775" t="inlineStr"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="inlineStr">
+        <is>
+          <t>PETR3</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr"/>
+      <c r="C776" t="inlineStr"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="inlineStr">
+        <is>
+          <t>PETR4</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr"/>
+      <c r="C777" t="inlineStr"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr"/>
+      <c r="C778" t="inlineStr"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr"/>
+      <c r="C779" t="inlineStr"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="inlineStr">
+        <is>
+          <t>PGHN</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr"/>
+      <c r="C780" t="inlineStr"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="inlineStr">
+        <is>
+          <t>PGR</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr"/>
+      <c r="C781" t="inlineStr"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr"/>
+      <c r="C782" t="inlineStr"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="inlineStr">
+        <is>
+          <t>PKN</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr"/>
+      <c r="C783" t="inlineStr"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="inlineStr">
+        <is>
+          <t>PKO</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr"/>
+      <c r="C784" t="inlineStr"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr"/>
+      <c r="C785" t="inlineStr"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr"/>
+      <c r="C786" t="inlineStr"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="inlineStr">
+        <is>
+          <t>PNC</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr"/>
+      <c r="C787" t="inlineStr"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="inlineStr">
+        <is>
+          <t>POWERGRID</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr"/>
+      <c r="C788" t="inlineStr"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr"/>
+      <c r="C789" t="inlineStr"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="inlineStr">
+        <is>
+          <t>PRIO3</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr"/>
+      <c r="C790" t="inlineStr"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="inlineStr">
+        <is>
+          <t>PROX</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr"/>
+      <c r="C791" t="inlineStr"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="inlineStr">
+        <is>
+          <t>PRU</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr"/>
+      <c r="C792" t="inlineStr"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="inlineStr">
+        <is>
+          <t>PRX</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr"/>
+      <c r="C793" t="inlineStr"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="inlineStr">
+        <is>
+          <t>PSA</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr"/>
+      <c r="C794" t="inlineStr"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="inlineStr">
+        <is>
+          <t>PSX</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr"/>
+      <c r="C795" t="inlineStr"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="inlineStr">
+        <is>
+          <t>PTT-R</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr"/>
+      <c r="C796" t="inlineStr"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="inlineStr">
+        <is>
+          <t>PTTEP-R</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr"/>
+      <c r="C797" t="inlineStr"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="inlineStr">
+        <is>
+          <t>PUB</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr"/>
+      <c r="C798" t="inlineStr"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="inlineStr">
+        <is>
+          <t>PWR</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr"/>
+      <c r="C799" t="inlineStr"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="inlineStr">
+        <is>
+          <t>PXD</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr"/>
+      <c r="C800" t="inlineStr"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="inlineStr">
+        <is>
+          <t>PYPL</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr"/>
+      <c r="C801" t="inlineStr"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="inlineStr">
+        <is>
+          <t>PZU</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr"/>
+      <c r="C802" t="inlineStr"/>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr"/>
+      <c r="C803" t="inlineStr"/>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="inlineStr">
+        <is>
+          <t>QGEN</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr"/>
+      <c r="C804" t="inlineStr"/>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="inlineStr">
+        <is>
+          <t>QIBK</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr"/>
+      <c r="C805" t="inlineStr"/>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="inlineStr">
+        <is>
+          <t>QNBK</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr"/>
+      <c r="C806" t="inlineStr"/>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="inlineStr">
+        <is>
+          <t>RADL3</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr"/>
+      <c r="C807" t="inlineStr"/>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="inlineStr">
+        <is>
+          <t>RAIL3</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr"/>
+      <c r="C808" t="inlineStr"/>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="inlineStr">
+        <is>
+          <t>RB.</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr"/>
+      <c r="C809" t="inlineStr"/>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr"/>
+      <c r="C810" t="inlineStr"/>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="inlineStr">
+        <is>
+          <t>REL</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr"/>
+      <c r="C811" t="inlineStr"/>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="inlineStr">
+        <is>
+          <t>RELIANCE</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr"/>
+      <c r="C812" t="inlineStr"/>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="inlineStr">
+        <is>
+          <t>RENT3</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr"/>
+      <c r="C813" t="inlineStr"/>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="inlineStr">
+        <is>
+          <t>RHM</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr"/>
+      <c r="C814" t="inlineStr"/>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="inlineStr">
+        <is>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr"/>
+      <c r="C815" t="inlineStr"/>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="inlineStr">
+        <is>
+          <t>RIO</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr"/>
+      <c r="C816" t="inlineStr"/>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="inlineStr">
+        <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr"/>
+      <c r="C817" t="inlineStr"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="inlineStr">
+        <is>
+          <t>RNO</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr"/>
+      <c r="C818" t="inlineStr"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="inlineStr">
+        <is>
+          <t>ROG</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr"/>
+      <c r="C819" t="inlineStr"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr"/>
+      <c r="C820" t="inlineStr"/>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="inlineStr">
+        <is>
+          <t>ROP</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr"/>
+      <c r="C821" t="inlineStr"/>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr"/>
+      <c r="C822" t="inlineStr"/>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="inlineStr">
+        <is>
+          <t>RSG</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr"/>
+      <c r="C823" t="inlineStr"/>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr"/>
+      <c r="C824" t="inlineStr"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="inlineStr">
+        <is>
+          <t>RWE</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr"/>
+      <c r="C825" t="inlineStr"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="inlineStr">
+        <is>
+          <t>RY</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr"/>
+      <c r="C826" t="inlineStr"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="inlineStr">
+        <is>
+          <t>SAF</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr"/>
+      <c r="C827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="inlineStr">
+        <is>
+          <t>SAN</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr"/>
+      <c r="C828" t="inlineStr"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr"/>
+      <c r="C829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="inlineStr">
+        <is>
+          <t>SBILIFE</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr"/>
+      <c r="C830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="inlineStr">
+        <is>
+          <t>SBK</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr"/>
+      <c r="C831" t="inlineStr"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="inlineStr">
+        <is>
+          <t>SBUX</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr"/>
+      <c r="C832" t="inlineStr"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="inlineStr">
+        <is>
+          <t>SCC-R</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr"/>
+      <c r="C833" t="inlineStr"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="inlineStr">
+        <is>
+          <t>SCCO</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr"/>
+      <c r="C834" t="inlineStr"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="inlineStr">
+        <is>
+          <t>SCHW</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr"/>
+      <c r="C835" t="inlineStr"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="inlineStr">
+        <is>
+          <t>SCMN</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr"/>
+      <c r="C836" t="inlineStr"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="inlineStr">
+        <is>
+          <t>SGEN</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr"/>
+      <c r="C837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="inlineStr">
+        <is>
+          <t>SGO</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr"/>
+      <c r="C838" t="inlineStr"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="inlineStr">
+        <is>
+          <t>SHEL</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr"/>
+      <c r="C839" t="inlineStr"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="inlineStr">
+        <is>
+          <t>SHL</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr"/>
+      <c r="C840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="inlineStr">
+        <is>
+          <t>SHOP</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr"/>
+      <c r="C841" t="inlineStr"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="inlineStr">
+        <is>
+          <t>SHP</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr"/>
+      <c r="C842" t="inlineStr"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="inlineStr">
+        <is>
+          <t>SHW</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr"/>
+      <c r="C843" t="inlineStr"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="inlineStr">
+        <is>
+          <t>SIE</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr"/>
+      <c r="C844" t="inlineStr"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="inlineStr">
+        <is>
+          <t>SIKA</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr"/>
+      <c r="C845" t="inlineStr"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="inlineStr">
+        <is>
+          <t>SIRI</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr"/>
+      <c r="C846" t="inlineStr"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr"/>
+      <c r="C847" t="inlineStr"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="inlineStr">
+        <is>
+          <t>SLHN</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr"/>
+      <c r="C848" t="inlineStr"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="inlineStr">
+        <is>
+          <t>SLM</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr"/>
+      <c r="C849" t="inlineStr"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="inlineStr">
+        <is>
+          <t>SNPS</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr"/>
+      <c r="C850" t="inlineStr"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr"/>
+      <c r="C851" t="inlineStr"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="inlineStr">
+        <is>
+          <t>SOF</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr"/>
+      <c r="C852" t="inlineStr"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr"/>
+      <c r="C853" t="inlineStr"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="inlineStr">
+        <is>
+          <t>SOLB</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr"/>
+      <c r="C854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="inlineStr">
+        <is>
+          <t>SOON</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr"/>
+      <c r="C855" t="inlineStr"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="inlineStr">
+        <is>
+          <t>SPG</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr"/>
+      <c r="C856" t="inlineStr"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="inlineStr">
+        <is>
+          <t>SPGI</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr"/>
+      <c r="C857" t="inlineStr"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="inlineStr">
+        <is>
+          <t>SQM-B</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr"/>
+      <c r="C858" t="inlineStr"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr"/>
+      <c r="C859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="inlineStr">
+        <is>
+          <t>SREN</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr"/>
+      <c r="C860" t="inlineStr"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="inlineStr">
+        <is>
+          <t>SRT3</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr"/>
+      <c r="C861" t="inlineStr"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="inlineStr">
+        <is>
+          <t>STLAM</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr"/>
+      <c r="C862" t="inlineStr"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="inlineStr">
+        <is>
+          <t>STMPA</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr"/>
+      <c r="C863" t="inlineStr"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="inlineStr">
+        <is>
+          <t>STZ</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr"/>
+      <c r="C864" t="inlineStr"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr"/>
+      <c r="C865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="inlineStr">
+        <is>
+          <t>SUNPHARMA</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr"/>
+      <c r="C866" t="inlineStr"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="inlineStr">
+        <is>
+          <t>SUZB3</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr"/>
+      <c r="C867" t="inlineStr"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="inlineStr">
+        <is>
+          <t>SY1</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr"/>
+      <c r="C868" t="inlineStr"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="inlineStr">
+        <is>
+          <t>SYK</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr"/>
+      <c r="C869" t="inlineStr"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="inlineStr">
+        <is>
+          <t>SYY</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr"/>
+      <c r="C870" t="inlineStr"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr"/>
+      <c r="C871" t="inlineStr"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="inlineStr">
+        <is>
+          <t>TATACONSUM</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr"/>
+      <c r="C872" t="inlineStr"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="inlineStr">
+        <is>
+          <t>TCS</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr"/>
+      <c r="C873" t="inlineStr"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr"/>
+      <c r="C874" t="inlineStr"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="inlineStr">
+        <is>
+          <t>TDG</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr"/>
+      <c r="C875" t="inlineStr"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="inlineStr">
+        <is>
+          <t>TEAM</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr"/>
+      <c r="C876" t="inlineStr"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="inlineStr">
+        <is>
+          <t>TECHM</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr"/>
+      <c r="C877" t="inlineStr"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr"/>
+      <c r="C878" t="inlineStr"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="inlineStr">
+        <is>
+          <t>TEP</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr"/>
+      <c r="C879" t="inlineStr"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="inlineStr">
+        <is>
+          <t>TFC</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr"/>
+      <c r="C880" t="inlineStr"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="inlineStr">
+        <is>
+          <t>TGT</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr"/>
+      <c r="C881" t="inlineStr"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="inlineStr">
+        <is>
+          <t>TJX</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr"/>
+      <c r="C882" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="inlineStr">
+        <is>
+          <t>TLKM</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr"/>
+      <c r="C883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr"/>
+      <c r="C884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="inlineStr">
+        <is>
+          <t>TMUS</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr"/>
+      <c r="C885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="inlineStr">
+        <is>
+          <t>TRV</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr"/>
+      <c r="C886" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr"/>
+      <c r="C887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr"/>
+      <c r="C888" t="inlineStr"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="inlineStr">
+        <is>
+          <t>TTD</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr"/>
+      <c r="C889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="inlineStr">
+        <is>
+          <t>TTE</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr"/>
+      <c r="C890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="inlineStr">
+        <is>
+          <t>TXN</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr"/>
+      <c r="C891" t="inlineStr"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="inlineStr">
+        <is>
+          <t>UBER</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr"/>
+      <c r="C892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="inlineStr">
+        <is>
+          <t>UBSG</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr"/>
+      <c r="C893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="inlineStr">
+        <is>
+          <t>UCB</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr"/>
+      <c r="C894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="inlineStr">
+        <is>
+          <t>UCG</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr"/>
+      <c r="C895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr"/>
+      <c r="C896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="inlineStr">
+        <is>
+          <t>ULVR</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr"/>
+      <c r="C897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="inlineStr">
+        <is>
+          <t>UMI</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr"/>
+      <c r="C898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr"/>
+      <c r="C899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="inlineStr">
+        <is>
+          <t>UNP</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr"/>
+      <c r="C900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr"/>
+      <c r="C901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="inlineStr">
+        <is>
+          <t>URI</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr"/>
+      <c r="C902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="inlineStr">
+        <is>
+          <t>URW</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr"/>
+      <c r="C903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr"/>
+      <c r="C904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="1" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr"/>
+      <c r="C905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="1" t="inlineStr">
+        <is>
+          <t>VALE3</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr"/>
+      <c r="C906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="1" t="inlineStr">
+        <is>
+          <t>VICI</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr"/>
+      <c r="C907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="inlineStr">
+        <is>
+          <t>VIE</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr"/>
+      <c r="C908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr"/>
+      <c r="C909" t="inlineStr"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="inlineStr">
+        <is>
+          <t>VNA</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr"/>
+      <c r="C910" t="inlineStr"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="inlineStr">
+        <is>
+          <t>VOW3</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr"/>
+      <c r="C911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="inlineStr">
+        <is>
+          <t>VRSK</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr"/>
+      <c r="C912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr"/>
+      <c r="C913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr"/>
+      <c r="C914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="inlineStr">
+        <is>
+          <t>WALMEX *</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr"/>
+      <c r="C915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr"/>
+      <c r="C916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="inlineStr">
+        <is>
+          <t>WBC</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr"/>
+      <c r="C917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr"/>
+      <c r="C918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="inlineStr">
+        <is>
+          <t>WDAY</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr"/>
+      <c r="C919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="inlineStr">
+        <is>
+          <t>WDP</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr"/>
+      <c r="C920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="inlineStr">
+        <is>
+          <t>WDS</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr"/>
+      <c r="C921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="inlineStr">
+        <is>
+          <t>WEGE3</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr"/>
+      <c r="C922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr"/>
+      <c r="C923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr"/>
+      <c r="C924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="inlineStr">
+        <is>
+          <t>WLN</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr"/>
+      <c r="C925" t="inlineStr"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="inlineStr">
+        <is>
+          <t>WM</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr"/>
+      <c r="C926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="inlineStr">
+        <is>
+          <t>WMB</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr"/>
+      <c r="C927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr"/>
+      <c r="C928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr"/>
+      <c r="C929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="1" t="inlineStr">
+        <is>
+          <t>XEL</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr"/>
+      <c r="C930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="1" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr"/>
+      <c r="C931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="1" t="inlineStr">
+        <is>
+          <t>YUM</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr"/>
+      <c r="C932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="inlineStr">
+        <is>
+          <t>YUMC</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr"/>
+      <c r="C933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="inlineStr">
+        <is>
+          <t>ZAL</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr"/>
+      <c r="C934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="inlineStr">
+        <is>
+          <t>ZM</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr"/>
+      <c r="C935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="inlineStr">
+        <is>
+          <t>ZS</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr"/>
+      <c r="C936" t="inlineStr"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="inlineStr">
+        <is>
+          <t>ZTO</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr"/>
+      <c r="C937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="inlineStr">
+        <is>
+          <t>ZTS</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr"/>
+      <c r="C938" t="inlineStr"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="inlineStr">
+        <is>
+          <t>ZURN</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr"/>
+      <c r="C939" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,66 +449,2419 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001477284798614558</v>
+        <v>0.001138398256065137</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02071413928467793</v>
+        <v>0.0204325050357869</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>TTE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0006703274224729052</v>
+        <v>0.0004113638952563096</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02236973031668795</v>
+        <v>0.01366031191650183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0009771275702080968</v>
+        <v>-2.148592938087205e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02012412006223842</v>
+        <v>0.0188695085515292</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>OR</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0009638888060726663</v>
+        <v>-0.002561040024411439</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02012657119012848</v>
+        <v>0.01946640102889682</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0007806401634228632</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01633760993330209</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.003185583702265735</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.06367031931411168</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>AIR</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0009277656044424654</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01650239669174281</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>BNP</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.00079909031065028</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01367343393167601</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.0009196595031401208</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01702512347287172</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.004332315301728792</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0235774761399063</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>DG</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.005441897072684992</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0255367367864106</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0004136527841453676</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01139814008647966</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.002190208330717928</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01107453091848844</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>KER</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.002146997622237092</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01506696354796348</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>STLAM</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.001344667544251269</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01551218131090621</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>BN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.0001111183824838139</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01873859831728501</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>STMPA</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.0007324641263036123</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.02093113063305736</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>SGO</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.001209634346415674</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01351356136183045</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>ENGI</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0005293683800262794</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.009672825451681487</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>CAP</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0001791469578232507</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.01722927752175744</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>GLE</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.001013846552897215</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.01748403018995043</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.007240388345289468</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.08345387874620903</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>ORA</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.001629670419143945</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.01248410733240472</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>VIE</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-7.99739730596688e-05</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01056409503144775</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>PUB</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0002227798714116769</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01321653308508452</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>ACA</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.001712558396087247</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01959807635377053</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>EDEN</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.0005914186190403339</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.009460323118795222</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.0002740261423511331</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01150553859992958</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.00122035585432922</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01651491138616886</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.0007918078339643669</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01194723601677311</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>ALO</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.0004777530787608925</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01718779645034567</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RNO</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0004288550499924123</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01916815002378173</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>WLN</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.002878367803991596</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01674575853105853</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>ERF</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.001316872434713405</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01805457120882152</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>TEP</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.004205417390768996</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.02817288624261794</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0007584710570950457</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.01095434562035721</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>URW</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.0006683210138096502</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0178042399530657</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>ARGX</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.002475070793386539</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.02980145444292288</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>ABI</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.0007631106908287962</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0112535574017808</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>SOLB</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>7.128870410556728e-05</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0156006243669959</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>GBLB</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.0007010568585087649</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.009108454077504833</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>AGS</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.0008357306061527357</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.03845134812089292</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>UMI</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.000548498331263216</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.008845513514537348</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>WDP</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.001183946621254272</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01428966994196365</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>ACKB</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.0005498664996486555</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.0103311779520099</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>DIE</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.0003577274025615538</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.01344397205166567</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>SOF</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.0005332209736356267</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01624115903111204</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>COFB</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.001570200140188141</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.01449947070515349</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>MELE</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.001232071216128352</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.01709539599866921</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>GLPG</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.0007575621331298077</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.01534690832753901</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>BAR</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.0006708058997674007</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.006316626296533289</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>APAM</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.0008944548856381435</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.01632581095253887</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>PROX</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.000475172109260825</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.0146730833584142</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>NESN</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.0004642508518650927</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.008089826531085465</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>NOVN</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.0006433059292246024</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01034271695726208</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>ROG</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.001479861765629303</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0164697678347078</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>UBSG</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.001389961094415922</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01504097471359541</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.0007623594866806925</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.02366649939626098</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>ZURN</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>-1.179105342928125e-07</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.007972429500850937</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>ABBN</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.0003917799249334007</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.0107615283433419</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>SIKA</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>-0.0001901763585439512</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.01502610622590604</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>ALC</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.0006945890868087991</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.01318210148309079</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>LONN</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.002367219204621658</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.02208515521215748</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>SREN</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0005683229093832111</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.01115848602741449</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>GIVN</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>-0.0001846392867594674</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.01213357692622886</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>PGHN</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.001954669967576692</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.01903503781081174</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>SLHN</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.000141571457039256</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.0109052771436906</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>GEBN</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>-0.0002971006839663633</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.01304784541105465</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>KNIN</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.0005101692015383</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.01287246722150605</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>SCMN</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>-0.0007699403884626042</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.007640338883531236</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>SOON</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>-0.001748556527238146</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.0164691321957507</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>LOGN</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>-0.001117799067653448</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.02533074719232704</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.0003538967238102477</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.01367046752198863</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>SIE</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.0005191963545183911</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.01432856664349159</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>ALV</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0006838417483758694</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.01776104104328935</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>DTE</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.0008801703449674098</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.01014358919565853</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.000386045808100922</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.004668120386008632</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>BAYN</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.002077010284488664</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.0125970627683488</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>MUV2</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.001189134524215293</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.01026971233489083</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>IFX</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.0009668824915134544</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.02029782229825553</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>BAS</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.0004654313555145127</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.01678996154614731</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>DHL</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.0007867612996385664</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.01386417766789761</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.000304345262874912</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.0211302207000508</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>DB1</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.0005625337105455032</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.01289948080816726</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>RWE</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.0009106570869223035</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.01065806319207909</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>VOW3</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>-0.0006551626023786135</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.0120122481159522</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>EOAN</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>-5.247099591919787e-06</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.008943041342764883</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.0007724763895305159</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.0109938339159933</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>DBK</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.0007899348704885002</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.01555125190151976</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>DTG</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.0008678385675994687</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.01136368907610614</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>VNA</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.002119283870082279</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.0228739643775241</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>FRE</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.001550882912055935</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.01706285246648644</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>SY1</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.001078762996979491</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.01287612310943484</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>BEI</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.0001553915395133239</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.009220581166624227</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>HNR1</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.001108962723507487</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.01127514371680715</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>P911</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.00222863741527716</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.01452712034221636</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>HEN3</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-0.0005790454037450765</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.008182595264864161</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>MTX</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>-0.0005973435133409366</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.01709685848821046</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>CBK</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.0007773023226215629</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.02292657475171059</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>RHM</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.006392384039841454</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.05925356428878398</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>BNR</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.008189652776366544</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.04189348677913932</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>HEI</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.0001965749233962079</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.0157546105111602</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>QGEN</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.001091631427288842</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.01121773302460261</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>1COV</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.003010642147253585</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.02377547536272319</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>SRT3</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.001260931981813718</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.02906814145303353</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>PAH3</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.0006549381732867066</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.01302605228583275</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>ENR</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.0004137571191333419</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0183254124307646</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>ZAL</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.004467269121596618</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.02579223185091262</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>ASML</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>-0.0008030216132020993</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.0192642825224897</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>IBE</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.0003754904026336205</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.0100358596511414</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>SAN</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>-2.148592938087205e-05</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.0188695085515292</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>ENEL</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.0004842347628632421</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.01051672802798558</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>INGA</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.0009645084109078337</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.01402191054887733</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.0008115950466294967</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.01700718666504052</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>UCG</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.00193776016306953</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.01855749545610603</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>CRH</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.0009696020216013512</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.01335442402080655</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>ITX</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.001279350395846791</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.01125159642691297</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>ENI</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.001187229650801928</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.01294921972862654</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>FLTR</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.0003121305865924869</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.0009143966927691109</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-0.0004069978463495549</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.009476752619163762</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>ADYEN</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>-0.004881230516601661</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.04156280226010595</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>NOKIA</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-0.001706259144663637</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.01595969694646109</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.0003959716568877669</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.01235679060758626</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
           <t>MSFT</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.001185499135092868</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.01948407090234055</v>
+      <c r="B125" t="n">
+        <v>0.000968632041084939</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.0150885962789426</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.001983689447459484</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.01958213911515367</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.004552123851058606</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.03263802298778243</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.001660559781207574</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.01600995151190589</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.001678984555179066</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.01604007378962861</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.002989722314206316</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.03078761247604412</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>META</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.002750657242065858</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.02106097613412279</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>BRK.B</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.0007904756524323523</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.007729401808460355</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.0003497703354789707</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.01422344768945313</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>3.764675432074612e-05</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.01391067123428654</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.003220560592555272</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.01930602584811401</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.0004824822438696077</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.01062491269038383</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>-6.564221561150366e-05</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.00967934856262471</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>-0.0003452246800458923</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.0105485738924871</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.002767715841474138</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.02187409083049157</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>-0.0001464111190929725</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.008745013652810626</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.0005702173094164727</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.00989458855472262</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.0004616760028518528</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.01181151323753603</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>5.120508198795485e-05</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.01245023139159546</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>-0.0007724763895305159</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.0109938339159933</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>ABBV</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>-0.0004885675486630788</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.01353882634040447</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>ADBE</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.002668442524542993</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.02019898588649777</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>-0.0005119176489339664</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.00854580361805748</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.001241914948068729</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.009428985782838758</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.0006424929094704102</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.01138214325493015</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>-0.0008382882529454266</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.006864045341558602</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.0007062500564758119</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.007208339909066534</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>CRM</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.0004578901376899536</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.01534062413489813</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>-0.001165846748467129</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.01291953896266711</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>-0.0006544578801103596</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.007453216533555994</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>ACN</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.0009063896940911125</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.01294942445355138</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>-0.001540392091948646</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.01279723670719239</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>-0.0003888272217884783</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.01442000041921212</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>CMCSA</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.001459062151511866</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.01477910623649507</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.001139269907388215</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.02161540642247885</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>LIN</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.0003955964956916654</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.009945353893836478</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>ORCL</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.001084591297513846</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.02027769364451938</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>ABT</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>-0.0004725401240476213</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.01263799916174249</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>5.242916544693591e-06</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.01500925162346579</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.00137995860686965</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.02943836984314725</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.0005100293047714902</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.01607066187165324</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>-0.001602539741076627</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.01659472682985333</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>TXN</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>-0.0007494209117654295</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.01513632420809964</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>INTU</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0.001386663224566425</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.01768927569046178</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>-0.0003230367468999499</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.009910540010738244</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>-0.001332691823397931</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.01469291907582456</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0.001261103165775838</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.02424362841900393</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0.00188713938293172</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.01693434568790574</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>COP</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.001103960868794046</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.0146943980262735</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0.000400424244514184</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.01344584389574112</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0.000828468433701667</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.01273237837122394</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>-0.002356447027462245</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.01428939165380263</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>UNP</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.0004080840178438905</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.01380595418536141</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0.001003235128539019</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.008876641308849062</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>BMY</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>-0.001484807455436648</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.01052218549194494</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0.00194982679085571</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.02059425197443344</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>SPGI</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.0005415905865915162</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.01344628609791794</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>-0.0003247910637199332</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.02072839092117828</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>-0.0002968701096623468</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.0161608823208504</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>-0.002637538527731505</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.01587278851455482</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>-0.002118612977981516</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.01558340251910195</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>HON</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>-0.0003654823435926232</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.01113048715809857</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0.001326017983105226</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.01339567626040703</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0006421214258388772</v>
+        <v>0.0006421214165380263</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02216317991004789</v>
+        <v>0.022163179588173</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.000952567572816075</v>
+        <v>0.0009525673071090029</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01763313265075619</v>
+        <v>0.01763312565338153</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005293196210921848</v>
+        <v>0.0005293197922399937</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02213256146657112</v>
+        <v>0.02213256403877736</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0003449732800011313</v>
+        <v>0.0003449730979418267</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02162973957276025</v>
+        <v>0.02162974797326941</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001339861608645956</v>
+        <v>0.001339861789141646</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02401398263985061</v>
+        <v>0.02401398385755637</v>
       </c>
     </row>
     <row r="7">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008594943000894173</v>
+        <v>0.0008594941721883319</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01909794495699117</v>
+        <v>0.01909794576836636</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001202652677213358</v>
+        <v>0.001202652772747439</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01827319247250303</v>
+        <v>0.01827319193348403</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0004646364612150007</v>
+        <v>-0.0004646364889073274</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02150403554641893</v>
+        <v>0.02150403437377608</v>
       </c>
     </row>
   </sheetData>
@@ -614,10 +614,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0007402007447584988</v>
+        <v>-0.0009462549077120909</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04863610934032653</v>
+        <v>0.03630537429437645</v>
       </c>
     </row>
     <row r="3">
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0004938034250960713</v>
+        <v>0.0004004341971715087</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06152661420106989</v>
+        <v>0.04330960451409918</v>
       </c>
     </row>
     <row r="4">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004525741894295373</v>
+        <v>-0.0009475469251185598</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06233821231736007</v>
+        <v>0.04485220147448776</v>
       </c>
     </row>
     <row r="5">
@@ -653,10 +653,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0004073129950640446</v>
+        <v>0.001407352743383836</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05229125302896864</v>
+        <v>0.04430072809446627</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.196840403604582e-05</v>
+        <v>-0.0002666370955085417</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04154138273715762</v>
+        <v>0.02895642791321457</v>
       </c>
     </row>
     <row r="7">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.0003767580659769283</v>
+        <v>0.0001698017340538461</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03287333727051509</v>
+        <v>0.02728721768065267</v>
       </c>
     </row>
     <row r="8">
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0004651594172265363</v>
+        <v>-0.001935140215022296</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05014910527583004</v>
+        <v>0.03557390366834624</v>
       </c>
     </row>
     <row r="9">
@@ -705,10 +705,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0002120806098134244</v>
+        <v>0.0005055873766004</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05959687269968637</v>
+        <v>0.04694877812707692</v>
       </c>
     </row>
     <row r="10">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.001138404245687295</v>
+        <v>-0.001076934762782215</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05312196477452309</v>
+        <v>0.03583406844817972</v>
       </c>
     </row>
     <row r="11">
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0008169635155628021</v>
+        <v>0.0005457174036354702</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06083929265973233</v>
+        <v>0.04918708106781185</v>
       </c>
     </row>
     <row r="12">
@@ -744,23 +744,23 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0005191416519148887</v>
+        <v>0.0004779069833942835</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04312947902189485</v>
+        <v>0.03619237636843207</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FIL-USD</t>
+          <t>KAS-USD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.002673695626923617</v>
+        <v>0.01744103067694832</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05973838124318859</v>
+        <v>0.1230996776299637</v>
       </c>
     </row>
     <row r="14">
@@ -770,10 +770,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.001235160225315535</v>
+        <v>-0.0002853039963843259</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03855892923036541</v>
+        <v>0.02466974165848193</v>
       </c>
     </row>
     <row r="15">
@@ -783,10 +783,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.000299347101646272</v>
+        <v>0.001232268108914391</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05473788148087486</v>
+        <v>0.04220231508622439</v>
       </c>
     </row>
     <row r="16">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0005402778899636994</v>
+        <v>0.0009022075568424984</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04819374149675554</v>
+        <v>0.04038740999764472</v>
       </c>
     </row>
     <row r="17">
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.002533325775973369</v>
+        <v>0.0009886723621352019</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07035162940676966</v>
+        <v>0.05065994433348981</v>
       </c>
     </row>
     <row r="18">
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.002360797339978908</v>
+        <v>0.003389285708800178</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0550827089110545</v>
+        <v>0.03770878311670382</v>
       </c>
     </row>
     <row r="19">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0106656948621077</v>
+        <v>0.0004775359105210174</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1849288895920581</v>
+        <v>0.05382868312718332</v>
       </c>
     </row>
     <row r="20">
@@ -848,10 +848,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001910299445930149</v>
+        <v>0.0002351162794294515</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06444204938861756</v>
+        <v>0.05479576322261236</v>
       </c>
     </row>
     <row r="21">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.001295344119661773</v>
+        <v>-0.0001231138256954889</v>
       </c>
       <c r="C21" t="n">
-        <v>0.05556951350618042</v>
+        <v>0.04772686211557989</v>
       </c>
     </row>
     <row r="22">
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0001847482027791422</v>
+        <v>0.0004388946013284949</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04101745456726433</v>
+        <v>0.02490479007018209</v>
       </c>
     </row>
     <row r="23">
@@ -887,10 +887,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0003740234331800071</v>
+        <v>0.000179030553937395</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03296035845450763</v>
+        <v>0.02758758242718384</v>
       </c>
     </row>
     <row r="24">
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.0007246124154197782</v>
+        <v>0.0004373874387499149</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04906392156961861</v>
+        <v>0.04372835900203738</v>
       </c>
     </row>
     <row r="25">
@@ -913,10 +913,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0001683563703779434</v>
+        <v>-0.0001819086296563999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04659125479138768</v>
+        <v>0.02952524701840095</v>
       </c>
     </row>
     <row r="26">
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0001619909131633615</v>
+        <v>0.001573038748370876</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05455389176751468</v>
+        <v>0.04954929129429662</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0006421214165380263</v>
+        <v>0.000642121588112023</v>
       </c>
       <c r="C2" t="n">
-        <v>0.022163179588173</v>
+        <v>0.02216318032586407</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0009525673071090029</v>
+        <v>0.0009525669004479332</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01763312565338153</v>
+        <v>0.01763312675920171</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005293197922399937</v>
+        <v>0.0005293197486494285</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02213256403877736</v>
+        <v>0.02213256205013409</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0003449730979418267</v>
+        <v>0.0003449731269768414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02162974797326941</v>
+        <v>0.02162974364016151</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001339861789141646</v>
+        <v>0.001339861834190704</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02401398385755637</v>
+        <v>0.02401398526677999</v>
       </c>
     </row>
     <row r="7">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008594941721883319</v>
+        <v>0.0008594943000894173</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01909794576836636</v>
+        <v>0.01909794495699117</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001202652772747439</v>
+        <v>0.001202652676009701</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01827319193348403</v>
+        <v>0.01827319243668404</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0004646364889073274</v>
+        <v>-0.0004646363529884717</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02150403437377608</v>
+        <v>0.02150404059138314</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.000642121588112023</v>
+        <v>0.0006421215200768297</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02216318032586407</v>
+        <v>0.02216317706490843</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0009525669004479332</v>
+        <v>0.0009525669941313238</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01763312675920171</v>
+        <v>0.01763312420604449</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005293197486494285</v>
+        <v>0.0005293196648678376</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02213256205013409</v>
+        <v>0.02213256338817264</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0003449731269768414</v>
+        <v>0.0003449730611170972</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02162974364016151</v>
+        <v>0.02162974058925745</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001339861834190704</v>
+        <v>0.001339861959066782</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02401398526677999</v>
+        <v>0.02401398386828796</v>
       </c>
     </row>
     <row r="7">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008594943000894173</v>
+        <v>0.0008594943283572326</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01909794495699117</v>
+        <v>0.01909794662994316</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001202652676009701</v>
+        <v>0.001202652804915091</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01827319243668404</v>
+        <v>0.01827319376799787</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0004646363529884717</v>
+        <v>-0.0004646364512112674</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02150404059138314</v>
+        <v>0.02150403620862216</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0006421215200768297</v>
+        <v>0.0006421214668335028</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02216317706490843</v>
+        <v>0.02216317457413238</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0009525669941313238</v>
+        <v>0.0009525670453302153</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01763312420604449</v>
+        <v>0.01763312695097384</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005293196648678376</v>
+        <v>0.0005293197785212505</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02213256338817264</v>
+        <v>0.02213256349531209</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0003449730611170972</v>
+        <v>0.000344973130811901</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02162974058925745</v>
+        <v>0.02162974952086283</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001339861959066782</v>
+        <v>0.001339861466189683</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02401398386828796</v>
+        <v>0.02401397674998522</v>
       </c>
     </row>
     <row r="7">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008594943283572326</v>
+        <v>0.0008594943283094286</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01909794662994316</v>
+        <v>0.0190979465838207</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001202652804915091</v>
+        <v>0.001202652749864375</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01827319376799787</v>
+        <v>0.01827319073036967</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0004646364512112674</v>
+        <v>-0.0004646363583979158</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02150403620862216</v>
+        <v>0.02150404034810166</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0006421214668335028</v>
+        <v>0.001086955059933001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02216317457413238</v>
+        <v>0.01839328475775291</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0009525670453302153</v>
+        <v>0.000703122344424979</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01763312695097384</v>
+        <v>0.0204426758197031</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005293197785212505</v>
+        <v>0.0004901400480512534</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02213256349531209</v>
+        <v>0.01369030226184194</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.000344973130811901</v>
+        <v>0.0007467795404803255</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02162974952086283</v>
+        <v>0.01542374209890202</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001339861466189683</v>
+        <v>0.001068775758938355</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02401397674998522</v>
+        <v>0.01808880230085317</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.0001001379109628816</v>
+        <v>0.0006677112655466867</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05880135690594575</v>
+        <v>0.01347382617525671</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009527908276284197</v>
+        <v>0.0007590592434000814</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02077583494161279</v>
+        <v>0.02679850595278275</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008594943283094286</v>
+        <v>0.00082992718655821</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0190979465838207</v>
+        <v>0.02281988781177132</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001202652749864375</v>
+        <v>0.001233025762966902</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01827319073036967</v>
+        <v>0.0172403032241169</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0004646363583979158</v>
+        <v>0.0005347496219432268</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02150404034810166</v>
+        <v>0.01723355800323632</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001086955059933001</v>
+        <v>0.001086954930185561</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01839328475775291</v>
+        <v>0.01839328066946817</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.000703122344424979</v>
+        <v>0.0007031222237393114</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0204426758197031</v>
+        <v>0.02044267004276988</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004901400480512534</v>
+        <v>0.0004901400390218516</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01369030226184194</v>
+        <v>0.01369030149795605</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007467795404803255</v>
+        <v>0.0007467795658821262</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01542374209890202</v>
+        <v>0.01542374374764626</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001068775758938355</v>
+        <v>0.001068775755024761</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01808880230085317</v>
+        <v>0.01808880208236434</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0006677112655466867</v>
+        <v>0.0006677111882397787</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01347382617525671</v>
+        <v>0.0134738263851742</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0007590592434000814</v>
+        <v>0.0007590592530349432</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02679850595278275</v>
+        <v>0.02679850611836344</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00082992718655821</v>
+        <v>0.0008299272362402766</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02281988781177132</v>
+        <v>0.0228198899958393</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001233025762966902</v>
+        <v>0.001233025837895297</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0172403032241169</v>
+        <v>0.01724030442855904</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0005347496219432268</v>
+        <v>0.0005347494931757282</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01723355800323632</v>
+        <v>0.0172335575757</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001086954930185561</v>
+        <v>-0.001661892368073339</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01839328066946817</v>
+        <v>0.01555862860912458</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0007031222237393114</v>
+        <v>0.0008198041691927425</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02044267004276988</v>
+        <v>0.01443902746068554</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004901400390218516</v>
+        <v>0.0003308272111632227</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01369030149795605</v>
+        <v>0.01180303366227207</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007467795658821262</v>
+        <v>-0.0003800163280790806</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01542374374764626</v>
+        <v>0.01185121209796478</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001068775755024761</v>
+        <v>0.0006027354543661469</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01808880208236434</v>
+        <v>0.01234440267879115</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0006677111882397787</v>
+        <v>0.0002799482973827809</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0134738263851742</v>
+        <v>0.01045851935937227</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0007590592530349432</v>
+        <v>0.0002314063136213775</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02679850611836344</v>
+        <v>0.01155967263917783</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008299272362402766</v>
+        <v>0.0008058053552775933</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0228198899958393</v>
+        <v>0.0137310512736315</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001233025837895297</v>
+        <v>-0.0009273877342589453</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01724030442855904</v>
+        <v>0.01709690025472798</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,530 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0005347494931757282</v>
+        <v>-0.0002726355138341005</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0172335575757</v>
+        <v>0.01366537121388465</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>DG</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.030293469779494e-05</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01003871635568458</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0004171288579617152</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01144627152223922</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>SAF</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0008317659178882963</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01081553863927658</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.002208613442740768</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01111951470145784</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>KER</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.002165039619062614</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01512937011840681</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>STLAM</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.001355967271513884</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01557727625407149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>BN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.000677337253726052</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.008384414889272008</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>STMPA</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.0007386192870288528</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.02101952569004462</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>SGO</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.001219799340923369</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0135702406926109</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>ENGI</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0005338168538080128</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.009713602260931566</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>CAP</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0001806523944436142</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.01730212098866606</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>DSY</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.0004147360348109077</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0147690258278565</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.000510698997521505</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.00999566493719537</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>GLE</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.001022366271829124</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0175577086184456</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0003407143284550187</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01171193640054696</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>ORA</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4.280751881037466e-05</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.008390657404848761</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>VIE</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-8.064602325344753e-05</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01060876113256331</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>PUB</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0002246519711714389</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0132724012170948</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>ACA</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.001396697036103637</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0123963150155896</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>EDEN</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0005390445741040847</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.009622273998268394</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.0002763288830431594</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01155416025930319</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.0008636546039718397</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01547480755505739</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.0007984616813086053</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01199752980797482</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>ALO</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0004817678105151856</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01726041594284168</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RNO</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0004324588739419284</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01924915881996551</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>WLN</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.002902555768731021</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.01681446018169365</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>ERF</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.0009997495692690649</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.01389587857417758</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>TEP</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.004240757032708231</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.02828933988543377</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0007648447634571889</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01100044096028413</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>URW</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.0006739371567828405</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.017879415744751</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>ARGX</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.002840358675252037</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0327547388232394</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>KBC</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.0004213704539953043</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.01441340335804511</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>ABI</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.0007695233857097104</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.01130092118552971</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>UCB</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.0008173636258649355</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0130826431344417</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>SOLB</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>7.18877688459502e-05</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01566658786019609</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>GBLB</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.0007069480926138805</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.00914673820501649</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>AGS</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>4.732999461547147e-05</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01243335654818811</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>UMI</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.002111840093121175</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.01629994792291985</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>WDP</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.001193895752525316</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.01434967426256959</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>ACKB</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.0005544872265364594</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.01037473724940108</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.001661892368073339</v>
+        <v>-0.001284868078553099</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01555862860912458</v>
+        <v>0.01650961173626731</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0008198041691927425</v>
+        <v>0.0005980649138704265</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01443902746068554</v>
+        <v>0.01395322676865112</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003308272111632227</v>
+        <v>-0.0006776138707634301</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01180303366227207</v>
+        <v>0.01934681907126751</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0003800163280790806</v>
+        <v>0.0002120328379429962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01185121209796478</v>
+        <v>0.01192768412775373</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0006027354543661469</v>
+        <v>0.0008725477499491005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01234440267879115</v>
+        <v>0.01436264715192102</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0002799482973827809</v>
+        <v>0.000639024674583866</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01045851935937227</v>
+        <v>0.01045899790096819</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002314063136213775</v>
+        <v>0.000463110252645521</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01155967263917783</v>
+        <v>0.01194604279987637</v>
       </c>
     </row>
     <row r="9">
@@ -544,556 +544,1167 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0008058053552775933</v>
+        <v>0.0002300695225779558</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0137310512736315</v>
+        <v>0.01346215933315605</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0009273877342589453</v>
+        <v>0.0003371495367139761</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01709690025472798</v>
+        <v>0.01293281728689836</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>DG</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0002726355138341005</v>
+        <v>0.0003561531442066666</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01366537121388465</v>
+        <v>0.01012095837982703</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.030293469779494e-05</v>
+        <v>0.0003827326331106617</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01003871635568458</v>
+        <v>0.01130755244405447</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>CS</t>
+          <t>SAF</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0004171288579617152</v>
+        <v>0.001160386043759683</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01144627152223922</v>
+        <v>0.01110013286389393</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>SAF</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0008317659178882963</v>
+        <v>-0.001295220068272263</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01081553863927658</v>
+        <v>0.01271016325287592</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>KER</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002208613442740768</v>
+        <v>-0.002064036890221859</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01111951470145784</v>
+        <v>0.01587011261769964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>KER</t>
+          <t>STLAM</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.002165039619062614</v>
+        <v>0.001171809560645699</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01512937011840681</v>
+        <v>0.01586217902513632</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>STLAM</t>
+          <t>BN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001355967271513884</v>
+        <v>0.0001148193504707582</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01557727625407149</v>
+        <v>0.009022522177365284</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>STMPA</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.000677337253726052</v>
+        <v>-0.0003583051682984505</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008384414889272008</v>
+        <v>0.0217403601244395</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>STMPA</t>
+          <t>SGO</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0007386192870288528</v>
+        <v>0.001146138109237503</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02101952569004462</v>
+        <v>0.01461726614727688</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>SGO</t>
+          <t>ENGI</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001219799340923369</v>
+        <v>0.0008858001400031224</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0135702406926109</v>
+        <v>0.009809590263665346</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ENGI</t>
+          <t>CAP</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0005338168538080128</v>
+        <v>0.0006205180054751916</v>
       </c>
       <c r="C21" t="n">
-        <v>0.009713602260931566</v>
+        <v>0.01667541796698498</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>CAP</t>
+          <t>DSY</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0001806523944436142</v>
+        <v>0.0008577478493468442</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01730212098866606</v>
+        <v>0.01589539037980904</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>DSY</t>
+          <t>LR</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0004147360348109077</v>
+        <v>0.0004326532169674548</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0147690258278565</v>
+        <v>0.01071133708953477</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>LR</t>
+          <t>GLE</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.000510698997521505</v>
+        <v>0.000679293753507563</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00999566493719537</v>
+        <v>0.01634434199049279</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>GLE</t>
+          <t>ML</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.001022366271829124</v>
+        <v>0.000406158906482136</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0175577086184456</v>
+        <v>0.0116227856448044</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>ORA</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0003407143284550187</v>
+        <v>0.0001662760124768592</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01171193640054696</v>
+        <v>0.008060895572522393</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ORA</t>
+          <t>VIE</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.280751881037466e-05</v>
+        <v>0.0001074462781833748</v>
       </c>
       <c r="C27" t="n">
-        <v>0.008390657404848761</v>
+        <v>0.01127462772980882</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>VIE</t>
+          <t>PUB</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-8.064602325344753e-05</v>
+        <v>0.0003911591672474304</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01060876113256331</v>
+        <v>0.01378102421221837</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>PUB</t>
+          <t>ACA</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0002246519711714389</v>
+        <v>0.001131792669191305</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0132724012170948</v>
+        <v>0.01191594903060204</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>ACA</t>
+          <t>EDEN</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.001396697036103637</v>
+        <v>-0.0006159333500020439</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0123963150155896</v>
+        <v>0.01437376014842848</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>EDEN</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0005390445741040847</v>
+        <v>5.204498913887904e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>0.009622273998268394</v>
+        <v>0.01230247787065987</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.0002763288830431594</v>
+        <v>-0.001070467757491137</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01155416025930319</v>
+        <v>0.01698307906450627</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.0008636546039718397</v>
+        <v>-0.0003171323092873028</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01547480755505739</v>
+        <v>0.01192901368230425</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ALO</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.0007984616813086053</v>
+        <v>-0.002768075858454643</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01199752980797482</v>
+        <v>0.03798871569362453</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ALO</t>
+          <t>RNO</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0004817678105151856</v>
+        <v>-0.0001847478857098181</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01726041594284168</v>
+        <v>0.020095256909911</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>RNO</t>
+          <t>WLN</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0004324588739419284</v>
+        <v>-0.004367636519142229</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01924915881996551</v>
+        <v>0.05387876969416193</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>WLN</t>
+          <t>ERF</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.002902555768731021</v>
+        <v>-0.0008334974010739877</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01681446018169365</v>
+        <v>0.0154274808452583</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ERF</t>
+          <t>TEP</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.0009997495692690649</v>
+        <v>-0.002372327310909817</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01389587857417758</v>
+        <v>0.02881358539871613</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>TEP</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.004240757032708231</v>
+        <v>0.0009298431668140843</v>
       </c>
       <c r="C39" t="n">
-        <v>0.02828933988543377</v>
+        <v>0.01118782995109257</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>URW</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0007648447634571889</v>
+        <v>0.0005837605764053602</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01100044096028413</v>
+        <v>0.02039947758871623</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>URW</t>
+          <t>ARGX</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.0006739371567828405</v>
+        <v>0.002105483045134963</v>
       </c>
       <c r="C41" t="n">
-        <v>0.017879415744751</v>
+        <v>0.02978405869695298</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ARGX</t>
+          <t>KBC</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.002840358675252037</v>
+        <v>-0.0008552182130900048</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0327547388232394</v>
+        <v>0.01447766525410861</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>KBC</t>
+          <t>ABI</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.0004213704539953043</v>
+        <v>-0.0001240818432518755</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01441340335804511</v>
+        <v>0.01233085228428898</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ABI</t>
+          <t>UCB</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.0007695233857097104</v>
+        <v>-0.001404612787673992</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01130092118552971</v>
+        <v>0.01374672013562359</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>UCB</t>
+          <t>SOLB</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.0008173636258649355</v>
+        <v>-1.641692297734424e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0130826431344417</v>
+        <v>0.01526158361228383</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>SOLB</t>
+          <t>GBLB</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.18877688459502e-05</v>
+        <v>-0.0003584402270327673</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01566658786019609</v>
+        <v>0.00920708940634094</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>GBLB</t>
+          <t>AGS</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.0007069480926138805</v>
+        <v>0.000227207113251721</v>
       </c>
       <c r="C47" t="n">
-        <v>0.00914673820501649</v>
+        <v>0.01231946782844149</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>AGS</t>
+          <t>UMI</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4.732999461547147e-05</v>
+        <v>-0.00129996218698096</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01243335654818811</v>
+        <v>0.02008467728372069</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>UMI</t>
+          <t>WDP</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.002111840093121175</v>
+        <v>-0.0003180365991916212</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01629994792291985</v>
+        <v>0.01570643570286505</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>WDP</t>
+          <t>ACKB</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.001193895752525316</v>
+        <v>-0.000239668303918514</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01434967426256959</v>
+        <v>0.01014416882284425</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>ACKB</t>
+          <t>ELI</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.0005544872265364594</v>
+        <v>-0.0009793783789323167</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01037473724940108</v>
+        <v>0.01489154370877452</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>DIE</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.0004052563341279341</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01501191109850561</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>SOF</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-9.956188106948918e-05</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.01677146115684363</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>AED</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.0008662237738549982</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.01955544303206753</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>COFB</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.001151831247453061</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.01759855338221705</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>MELE</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.0007921617113332958</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01856161286422879</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>GLPG</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2.806822003700679e-05</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.01720468935733344</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>BAR</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.003217509556034965</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.02155245331169699</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>APAM</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.0007225432637092014</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.01781767695473865</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>PROX</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.0005088567670163139</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01560356876819609</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>NESN</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.0006528688807510974</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.008777978710080099</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>NOVN</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.0001465430013637306</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.01024690959674449</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>ROG</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.0009475435580052735</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.009836051249640801</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>UBSG</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.001232679585814683</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.01484665116843879</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>CFR</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.001600893143818877</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.01936893771337313</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>ZURN</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.0002639448014649854</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.008083638446040587</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>ABBN</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.0005282940147090694</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.01237136056907492</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>SIKA</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>-5.142844791420988e-05</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.01554684286523096</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>ALC</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>-8.796960756856704e-05</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.01332959095189664</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>LONN</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.002892915214824606</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.02479148141016274</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>LHN</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.000750952266532887</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.01061298988321927</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>SREN</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.0008319616106847338</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.01086107782854471</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>SLHN</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.0001995519572307851</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.01160353973562293</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>GEBN</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>6.360529134750433e-05</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.01561077674756151</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>KNIN</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>4.951299838848059e-05</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.01343487962336966</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>SCMN</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.001016941071689934</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.008849269704577044</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>SOON</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.0009232718840125195</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.01612670942656412</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>LOGN</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.00273210584516231</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.02127132757596462</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.001282777365325509</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.0126490699586979</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>SIE</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0002200225192036758</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.01546262251512263</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>ALV</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.0006754624681183266</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.01088345425738876</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>DTE</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.0001382555480071727</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.01066133497256748</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.0006097479424313209</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.0128895195121921</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>BAYN</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.002193815572965858</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.0129532619489494</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>MUV2</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.001090299543908805</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.01017346640464353</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>IFX</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.0002305859525323845</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.02191723321062429</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>BAS</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>-0.000134046331085649</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.01673013724408128</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>DHL</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.0002721844891661347</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.01346812903910113</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.0007691603321645768</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.02085761741616715</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>DB1</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>-0.0002283950566898321</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.01245906214697985</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>BMW</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>7.128068141497679e-05</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.01382246425820228</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>RWE</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.0001192333476956587</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.01191883670373357</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>VOW3</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.0004977459617778187</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.01225674281737405</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>EOAN</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.0002139707812091773</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.009651098392132199</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>-9.55347521470967e-05</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.01532903338062948</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>DBK</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.001090847558417026</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.01652527276342469</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>DTG</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.0001734971052276441</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.01408102919069456</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>VNA</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.002387339756519558</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.02432964177916392</v>
       </c>
     </row>
   </sheetData>
@@ -1134,10 +1745,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0009462549077120909</v>
+        <v>-8.331747626452822e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03630537429437645</v>
+        <v>0.03562656295648106</v>
       </c>
     </row>
     <row r="3">
@@ -1147,10 +1758,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0004004341971715087</v>
+        <v>0.0008549576912687552</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04330960451409918</v>
+        <v>0.04219158264777762</v>
       </c>
     </row>
     <row r="4">
@@ -1160,10 +1771,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0009475469251185598</v>
+        <v>0.0009102205150542827</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04485220147448776</v>
+        <v>0.04632172990262427</v>
       </c>
     </row>
     <row r="5">
@@ -1173,10 +1784,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001407352743383836</v>
+        <v>0.001252781596800719</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04430072809446627</v>
+        <v>0.04293161983188917</v>
       </c>
     </row>
     <row r="6">
@@ -1186,10 +1797,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0002666370955085417</v>
+        <v>1.858185627873117e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02895642791321457</v>
+        <v>0.02815761302057508</v>
       </c>
     </row>
     <row r="7">
@@ -1199,10 +1810,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0001698017340538461</v>
+        <v>0.0007502485847523</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02728721768065267</v>
+        <v>0.02700741345053876</v>
       </c>
     </row>
     <row r="8">
@@ -1212,10 +1823,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.001935140215022296</v>
+        <v>-0.0004286359835196875</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03557390366834624</v>
+        <v>0.03708332442355049</v>
       </c>
     </row>
     <row r="9">
@@ -1225,10 +1836,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005055873766004</v>
+        <v>0.0009872189960926493</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04694877812707692</v>
+        <v>0.04579076944017808</v>
       </c>
     </row>
     <row r="10">
@@ -1238,10 +1849,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.001076934762782215</v>
+        <v>-0.0004596410697718576</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03583406844817972</v>
+        <v>0.03546973287435036</v>
       </c>
     </row>
     <row r="11">
@@ -1251,10 +1862,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0005457174036354702</v>
+        <v>0.0008298963147370938</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04918708106781185</v>
+        <v>0.04761871423525068</v>
       </c>
     </row>
     <row r="12">
@@ -1264,10 +1875,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0004779069833942835</v>
+        <v>0.0007670584271171066</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03619237636843207</v>
+        <v>0.03542935150294279</v>
       </c>
     </row>
     <row r="13">
@@ -1277,10 +1888,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01744103067694832</v>
+        <v>0.01802429653913954</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1230996776299637</v>
+        <v>0.1190400251797559</v>
       </c>
     </row>
     <row r="14">
@@ -1290,10 +1901,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0002853039963843259</v>
+        <v>-4.578293041291652e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02466974165848193</v>
+        <v>0.02399511900730971</v>
       </c>
     </row>
     <row r="15">
@@ -1303,10 +1914,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001232268108914391</v>
+        <v>0.002211528226516925</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04220231508622439</v>
+        <v>0.04323986098714338</v>
       </c>
     </row>
     <row r="16">
@@ -1316,10 +1927,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0009022075568424984</v>
+        <v>0.0009461078275406817</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04038740999764472</v>
+        <v>0.03904230532029209</v>
       </c>
     </row>
     <row r="17">
@@ -1329,10 +1940,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0009886723621352019</v>
+        <v>0.001797559637788958</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05065994433348981</v>
+        <v>0.04968488364995201</v>
       </c>
     </row>
     <row r="18">
@@ -1342,10 +1953,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.003389285708800178</v>
+        <v>0.003689492184797172</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03770878311670382</v>
+        <v>0.03708780273698358</v>
       </c>
     </row>
     <row r="19">
@@ -1355,10 +1966,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0004775359105210174</v>
+        <v>0.00101976552078807</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05382868312718332</v>
+        <v>0.05357732421189898</v>
       </c>
     </row>
     <row r="20">
@@ -1368,10 +1979,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0002351162794294515</v>
+        <v>0.002279102325104983</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05479576322261236</v>
+        <v>0.0558479444628627</v>
       </c>
     </row>
     <row r="21">
@@ -1381,10 +1992,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0001231138256954889</v>
+        <v>0.001656990217497293</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04772686211557989</v>
+        <v>0.05930518797191771</v>
       </c>
     </row>
     <row r="22">
@@ -1394,10 +2005,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0004388946013284949</v>
+        <v>0.0006944781409778519</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02490479007018209</v>
+        <v>0.02440203422004458</v>
       </c>
     </row>
     <row r="23">
@@ -1407,10 +2018,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.000179030553937395</v>
+        <v>0.0007537958085590725</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02758758242718384</v>
+        <v>0.02723448142220294</v>
       </c>
     </row>
     <row r="24">
@@ -1420,10 +2031,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0004373874387499149</v>
+        <v>0.0005299280419222417</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04372835900203738</v>
+        <v>0.04218304336789777</v>
       </c>
     </row>
     <row r="25">
@@ -1433,10 +2044,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.0001819086296563999</v>
+        <v>2.168406691105988e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02952524701840095</v>
+        <v>0.02862255322902094</v>
       </c>
     </row>
     <row r="26">
@@ -1446,10 +2057,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.001573038748370876</v>
+        <v>0.001784558392463951</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04954929129429662</v>
+        <v>0.0480022002218142</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001056485397478205</v>
+        <v>0.001056485376812678</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01842071754741338</v>
+        <v>0.0184207192373806</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0006791095787292177</v>
+        <v>0.0006791098068879926</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02025725946211757</v>
+        <v>0.02025726207359458</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003616448866851761</v>
+        <v>0.0003616449885452801</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01466174381628175</v>
+        <v>0.01466174412269583</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007881035835548514</v>
+        <v>0.0007881036125842892</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01533951609384468</v>
+        <v>0.01533951805188569</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001088935258370846</v>
+        <v>0.00108893518886753</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01813531498715803</v>
+        <v>0.01813531441586265</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0007010387820187651</v>
+        <v>0.0007010387913593493</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01339816900474763</v>
+        <v>0.01339816974626168</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0007728088965894506</v>
+        <v>0.0007728090104058132</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0265122784670091</v>
+        <v>0.02651227994599302</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007584354904993502</v>
+        <v>0.0007584355769581433</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02259641497152172</v>
+        <v>0.02259641439172812</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0005871844040292995</v>
+        <v>0.000587184390584743</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01707243222353183</v>
+        <v>0.01707243141550556</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001056485376812678</v>
+        <v>0.001056485442902713</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0184207192373806</v>
+        <v>0.018420720170319</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0006791098068879926</v>
+        <v>0.0006791097733518728</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02025726207359458</v>
+        <v>0.0202572646653228</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003616449885452801</v>
+        <v>0.0003616448280434015</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01466174412269583</v>
+        <v>0.01466174313390179</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007881036125842892</v>
+        <v>0.0007881036411260595</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01533951805188569</v>
+        <v>0.01533951983945703</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00108893518886753</v>
+        <v>0.001088935205740673</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01813531441586265</v>
+        <v>0.01813531546916547</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0007010387913593493</v>
+        <v>0.0007010387718069908</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01339816974626168</v>
+        <v>0.01339817394164212</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0007728090104058132</v>
+        <v>0.0007728089712370417</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02651227994599302</v>
+        <v>0.02651227834367714</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007584355769581433</v>
+        <v>0.0007584355256786741</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02259641439172812</v>
+        <v>0.02259641438439874</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.000587184390584743</v>
+        <v>0.0005871844063092953</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01707243141550556</v>
+        <v>0.0170724323876961</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001056485376812678</v>
+        <v>0.001056485427775227</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0184207192373806</v>
+        <v>0.01842071939976788</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0006791098068879926</v>
+        <v>0.000679109640404655</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02025726207359458</v>
+        <v>0.02025725785498569</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003616449885452801</v>
+        <v>0.0003616448950910883</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01466174412269583</v>
+        <v>0.01466174444884396</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007881036125842892</v>
+        <v>0.0007881035867041906</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01533951805188569</v>
+        <v>0.01533951627350442</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00108893518886753</v>
+        <v>0.001088935203161263</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01813531441586265</v>
+        <v>0.01813531857770073</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0007010387913593493</v>
+        <v>0.0007010388836791136</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01339816974626168</v>
+        <v>0.01339817083825596</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0007728090104058132</v>
+        <v>0.0007728089282041721</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02651227994599302</v>
+        <v>0.02651227969018918</v>
       </c>
     </row>
     <row r="9">
@@ -544,23 +544,36 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007584355769581433</v>
+        <v>0.0007584356359785786</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02259641439172812</v>
+        <v>0.02259641697624652</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.001286718464828897</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01716529531064059</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
           <t>EL</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.000587184390584743</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01707243141550556</v>
+      <c r="B11" t="n">
+        <v>0.000587184410245613</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01707243263289251</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001056485442902713</v>
+        <v>0.001056485385174749</v>
       </c>
       <c r="C2" t="n">
-        <v>0.018420720170319</v>
+        <v>0.01842071980848744</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0006791097733518728</v>
+        <v>0.0006791096265582533</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0202572646653228</v>
+        <v>0.02025726202459391</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003616448280434015</v>
+        <v>0.0003616449449540515</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01466174313390179</v>
+        <v>0.01466174448793813</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007881036411260595</v>
+        <v>0.0007881035919416007</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01533951983945703</v>
+        <v>0.01533951667483111</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001088935205740673</v>
+        <v>0.001088935270633284</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01813531546916547</v>
+        <v>0.01813531589506911</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0007010387718069908</v>
+        <v>0.0007010387744822772</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01339817394164212</v>
+        <v>0.01339816850807108</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0007728089712370417</v>
+        <v>0.0007728088672111673</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02651227834367714</v>
+        <v>0.02651227753848779</v>
       </c>
     </row>
     <row r="9">
@@ -544,23 +544,36 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007584355256786741</v>
+        <v>0.0007584355920780774</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02259641438439874</v>
+        <v>0.02259641508759221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.001286718413770894</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01716529553011634</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
           <t>EL</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.0005871844063092953</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0170724323876961</v>
+      <c r="B11" t="n">
+        <v>0.0005871843970246726</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01707243180517638</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001056485385174749</v>
+        <v>0.001056485430723761</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01842071980848744</v>
+        <v>0.01842071931510465</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0006791096265582533</v>
+        <v>0.0006791095915559694</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02025726202459391</v>
+        <v>0.02025725991314843</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003616449449540515</v>
+        <v>0.000361644931294934</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01466174448793813</v>
+        <v>0.01466174358698373</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007881035919416007</v>
+        <v>0.0007881036175728902</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01533951667483111</v>
+        <v>0.01533951827319416</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001088935270633284</v>
+        <v>0.001088935260423264</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01813531589506911</v>
+        <v>0.0181353185103051</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0007010387744822772</v>
+        <v>0.0007010387447749275</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01339816850807108</v>
+        <v>0.0133981719666209</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0007728088672111673</v>
+        <v>0.0007728089341516137</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02651227753848779</v>
+        <v>0.02651227997148058</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007584355920780774</v>
+        <v>0.0007584355556736327</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02259641508759221</v>
+        <v>0.02259641354601911</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001286718413770894</v>
+        <v>0.001286718406246689</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01716529553011634</v>
+        <v>0.01716529514864575</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0005871843970246726</v>
+        <v>0.0005871844098221291</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01707243180517638</v>
+        <v>0.01707243254518088</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001056485430723761</v>
+        <v>0.001056485373130821</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01842071931510465</v>
+        <v>0.01842071902800134</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0006791095915559694</v>
+        <v>0.0006791096377192986</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02025725991314843</v>
+        <v>0.02025725769031978</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.000361644931294934</v>
+        <v>0.0003616449234841973</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01466174358698373</v>
+        <v>0.01466174301182273</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007881036175728902</v>
+        <v>0.0007881036191540395</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01533951827319416</v>
+        <v>0.0153395184025718</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001088935260423264</v>
+        <v>0.001088935300049399</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0181353185103051</v>
+        <v>0.01813531748946538</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0007010387447749275</v>
+        <v>0.0007010388683575813</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0133981719666209</v>
+        <v>0.01339816962651514</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0007728089341516137</v>
+        <v>0.000772808887223934</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02651227997148058</v>
+        <v>0.02651227830432822</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007584355556736327</v>
+        <v>0.0007584355021245225</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02259641354601911</v>
+        <v>0.02259641547194652</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001286718406246689</v>
+        <v>0.001286718549169572</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01716529514864575</v>
+        <v>0.0171652941397395</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0005871844098221291</v>
+        <v>0.0005871844431067323</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01707243254518088</v>
+        <v>0.01707243447092668</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001056485373130821</v>
+        <v>0.001054800486479152</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01842071902800134</v>
+        <v>0.01840606280054741</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0006791096377192986</v>
+        <v>0.0006780267961571966</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02025725769031978</v>
+        <v>0.02024111117386716</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003616449234841973</v>
+        <v>0.0003610681506591856</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01466174301182273</v>
+        <v>0.01465004504620969</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007881036191540395</v>
+        <v>0.0007868466449651378</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0153395184025718</v>
+        <v>0.01532730165393188</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001088935300049399</v>
+        <v>0.001087198475546731</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01813531748946538</v>
+        <v>0.0181208886644603</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0007010388683575813</v>
+        <v>0.0006999207247814089</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01339816962651514</v>
+        <v>0.01338750310468702</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000772808887223934</v>
+        <v>0.0007715763614647289</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02651227830432822</v>
+        <v>0.0264911297135664</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007584355021245225</v>
+        <v>0.0007572259421507938</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02259641547194652</v>
+        <v>0.02257839309019112</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001286718549169572</v>
+        <v>0.001284666371307356</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0171652941397395</v>
+        <v>0.01715166976866947</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,270 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0005871844431067323</v>
+        <v>0.0005862478355695088</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01707243447092668</v>
+        <v>0.01705881703527166</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>DG</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0006443425410281341</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01938833452923468</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0007838040427657468</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01768672641101808</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>SAF</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0007002281797929685</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02536189857201171</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0003004166615604259</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01392035340424598</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>KER</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0002830575929890021</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.02016231370586485</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>STLAM</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.001052548662563955</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.02360171653360764</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>BN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0001992199499318547</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01331857308442761</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>STMPA</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.001348709788091363</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0255878814756731</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>SGO</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0009242435870429643</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.02101635462672052</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>ENGI</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0006493756917204952</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.01742686089911346</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>CAP</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0008570599752261347</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.01992709773705277</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>DSY</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0007657714506419176</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.01891410346755044</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0006588865500131063</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.01613309755763861</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>GLE</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0005989024886458441</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0281664854906935</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0005547833136926399</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01835299589352088</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>ORA</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>9.254655545388085e-05</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01230540693457924</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>VIE</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0006787764957448416</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01853844246826758</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>PUB</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0007104758242159748</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.02091540024422309</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>ACA</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0006662060084863733</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.02113920399507774</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>EDEN</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0005865730821049534</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01738613732998491</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001054800486479152</v>
+        <v>0.001054800389267346</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01840606280054741</v>
+        <v>0.01840605766096498</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0006780267961571966</v>
+        <v>0.000678026416101228</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02024111117386716</v>
+        <v>0.02024110152613734</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003610681506591856</v>
+        <v>0.0003610681478925908</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01465004504620969</v>
+        <v>0.01465004490804739</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007868466449651378</v>
+        <v>0.000786846677755441</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01532730165393188</v>
+        <v>0.01532730371103217</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001087198475546731</v>
+        <v>0.001087198512589731</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0181208886644603</v>
+        <v>0.01812088750343726</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0006999207247814089</v>
+        <v>0.0006999207993351277</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01338750310468702</v>
+        <v>0.01338750294517233</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0007715763614647289</v>
+        <v>0.0007715763323569499</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0264911297135664</v>
+        <v>0.0264911285925301</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007572259421507938</v>
+        <v>0.0007572259862247992</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02257839309019112</v>
+        <v>0.02257839285153292</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001284666371307356</v>
+        <v>0.001284666333399471</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01715166976866947</v>
+        <v>0.01715167055823172</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0005862478355695088</v>
+        <v>0.000586247943410048</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01705881703527166</v>
+        <v>0.01705881984749481</v>
       </c>
     </row>
     <row r="12">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0006443425410281341</v>
+        <v>0.0006443425329384</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01938833452923468</v>
+        <v>0.01938833404360196</v>
       </c>
     </row>
     <row r="13">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0007838040427657468</v>
+        <v>0.0007838040400452576</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01768672641101808</v>
+        <v>0.01768672317822242</v>
       </c>
     </row>
     <row r="14">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0007002281797929685</v>
+        <v>0.0007002281359247224</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02536189857201171</v>
+        <v>0.02536189679622307</v>
       </c>
     </row>
     <row r="15">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0003004166615604259</v>
+        <v>0.0003004165145333312</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01392035340424598</v>
+        <v>0.01392034959510914</v>
       </c>
     </row>
     <row r="16">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0002830575929890021</v>
+        <v>0.00028305750012712</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02016231370586485</v>
+        <v>0.02016230892849664</v>
       </c>
     </row>
     <row r="17">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001052548662563955</v>
+        <v>0.001052548617680378</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02360171653360764</v>
+        <v>0.02360171495857422</v>
       </c>
     </row>
     <row r="18">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001992199499318547</v>
+        <v>0.000199219920328511</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01331857308442761</v>
+        <v>0.0133185709400567</v>
       </c>
     </row>
     <row r="19">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001348709788091363</v>
+        <v>0.001348709978627639</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0255878814756731</v>
+        <v>0.02558788351359698</v>
       </c>
     </row>
     <row r="20">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0009242435870429643</v>
+        <v>0.0009242436129381792</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02101635462672052</v>
+        <v>0.0210163586544591</v>
       </c>
     </row>
     <row r="21">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0006493756917204952</v>
+        <v>0.000649375763754938</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01742686089911346</v>
+        <v>0.01742686536022911</v>
       </c>
     </row>
     <row r="22">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0008570599752261347</v>
+        <v>0.0008570598979492347</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01992709773705277</v>
+        <v>0.01992709784851023</v>
       </c>
     </row>
     <row r="23">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0007657714506419176</v>
+        <v>0.00076577161330907</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01891410346755044</v>
+        <v>0.01891410800239968</v>
       </c>
     </row>
     <row r="24">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0006588865500131063</v>
+        <v>0.0006588865509013344</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01613309755763861</v>
+        <v>0.01613309737569963</v>
       </c>
     </row>
     <row r="25">
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0005989024886458441</v>
+        <v>0.0005989023552476901</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0281664854906935</v>
+        <v>0.02816648364947841</v>
       </c>
     </row>
     <row r="26">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0005547833136926399</v>
+        <v>0.0005547833257330405</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01835299589352088</v>
+        <v>0.01835299645830991</v>
       </c>
     </row>
     <row r="27">
@@ -778,10 +778,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.254655545388085e-05</v>
+        <v>9.254642433149384e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01230540693457924</v>
+        <v>0.01230540235673442</v>
       </c>
     </row>
     <row r="28">
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0006787764957448416</v>
+        <v>0.0006787764390804019</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01853844246826758</v>
+        <v>0.01853844226250462</v>
       </c>
     </row>
     <row r="29">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0007104758242159748</v>
+        <v>0.0007104756634039453</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02091540024422309</v>
+        <v>0.02091539612118736</v>
       </c>
     </row>
     <row r="30">
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0006662060084863733</v>
+        <v>0.0006662060883558401</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02113920399507774</v>
+        <v>0.02113920519916697</v>
       </c>
     </row>
     <row r="31">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0005865730821049534</v>
+        <v>0.0005865730060381787</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01738613732998491</v>
+        <v>0.0173861358009644</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001054800389267346</v>
+        <v>0.001054800420788779</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01840605766096498</v>
+        <v>0.01840606208735467</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.000678026416101228</v>
+        <v>0.0006780267755816297</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02024110152613734</v>
+        <v>0.02024111040222425</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003610681478925908</v>
+        <v>0.0003610682204324905</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01465004490804739</v>
+        <v>0.01465004650955344</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.000786846677755441</v>
+        <v>0.0007868467615051521</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01532730371103217</v>
+        <v>0.01532730482160906</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001087198512589731</v>
+        <v>0.00108719853536403</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01812088750343726</v>
+        <v>0.01812088876276226</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0006999207993351277</v>
+        <v>0.0006999207973487922</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01338750294517233</v>
+        <v>0.01338750278491089</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0007715763323569499</v>
+        <v>0.0007715763810380825</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0264911285925301</v>
+        <v>0.02649113027352894</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007572259862247992</v>
+        <v>0.0007572258802849922</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02257839285153292</v>
+        <v>0.02257839266080637</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001284666333399471</v>
+        <v>0.001284666344089309</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01715167055823172</v>
+        <v>0.01715166814828196</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.000586247943410048</v>
+        <v>0.0005862478497448368</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01705881984749481</v>
+        <v>0.01705881785268679</v>
       </c>
     </row>
     <row r="12">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0006443425329384</v>
+        <v>0.000644342335309217</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01938833404360196</v>
+        <v>0.01938833433056251</v>
       </c>
     </row>
     <row r="13">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0007838040400452576</v>
+        <v>0.0007838039469944409</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01768672317822242</v>
+        <v>0.0176867245991803</v>
       </c>
     </row>
     <row r="14">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0007002281359247224</v>
+        <v>0.0007002281409635009</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02536189679622307</v>
+        <v>0.02536189700021233</v>
       </c>
     </row>
     <row r="15">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0003004165145333312</v>
+        <v>0.0003004165175724502</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01392034959510914</v>
+        <v>0.01392034979120959</v>
       </c>
     </row>
     <row r="16">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00028305750012712</v>
+        <v>0.0002830575814078074</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02016230892849664</v>
+        <v>0.02016231314945916</v>
       </c>
     </row>
     <row r="17">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001052548617680378</v>
+        <v>0.001052548488724823</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02360171495857422</v>
+        <v>0.02360171422785687</v>
       </c>
     </row>
     <row r="18">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.000199219920328511</v>
+        <v>0.0001992199471270614</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0133185709400567</v>
+        <v>0.01331857289197759</v>
       </c>
     </row>
     <row r="19">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001348709978627639</v>
+        <v>0.00134871002766943</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02558788351359698</v>
+        <v>0.02558788320068883</v>
       </c>
     </row>
     <row r="20">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0009242436129381792</v>
+        <v>0.0009242436216721297</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0210163586544591</v>
+        <v>0.02101635631037759</v>
       </c>
     </row>
     <row r="21">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.000649375763754938</v>
+        <v>0.0006493756957629929</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01742686536022911</v>
+        <v>0.0174268614075983</v>
       </c>
     </row>
     <row r="22">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0008570598979492347</v>
+        <v>0.0008570599639551203</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01992709784851023</v>
+        <v>0.019927097283191</v>
       </c>
     </row>
     <row r="23">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.00076577161330907</v>
+        <v>0.0007657715258605294</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01891410800239968</v>
+        <v>0.01891410747206049</v>
       </c>
     </row>
     <row r="24">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0006588865509013344</v>
+        <v>0.000658886459663872</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01613309737569963</v>
+        <v>0.01613309612214205</v>
       </c>
     </row>
     <row r="25">
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0005989023552476901</v>
+        <v>0.0005989024894229828</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02816648364947841</v>
+        <v>0.02816648516333315</v>
       </c>
     </row>
     <row r="26">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0005547833257330405</v>
+        <v>0.0005547833637444856</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01835299645830991</v>
+        <v>0.0183529940560454</v>
       </c>
     </row>
     <row r="27">
@@ -778,10 +778,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.254642433149384e-05</v>
+        <v>9.254647533929957e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01230540235673442</v>
+        <v>0.01230540644160173</v>
       </c>
     </row>
     <row r="28">
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0006787764390804019</v>
+        <v>0.0006787763494035162</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01853844226250462</v>
+        <v>0.01853844012428899</v>
       </c>
     </row>
     <row r="29">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0007104756634039453</v>
+        <v>0.000710475668217538</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02091539612118736</v>
+        <v>0.02091539993467393</v>
       </c>
     </row>
     <row r="30">
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0006662060883558401</v>
+        <v>0.0006662060138232717</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02113920519916697</v>
+        <v>0.02113920402024877</v>
       </c>
     </row>
     <row r="31">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0005865730060381787</v>
+        <v>0.0005865730476713505</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0173861358009644</v>
+        <v>0.01738613819885909</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001054800389267346</v>
+        <v>0.001054800535315228</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01840605766096498</v>
+        <v>0.01840606284243007</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.000678026416101228</v>
+        <v>0.0006780265718902649</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02024110152613734</v>
+        <v>0.02024110496252074</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003610681478925908</v>
+        <v>0.0003610680420337629</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01465004490804739</v>
+        <v>0.01465004426296193</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.000786846677755441</v>
+        <v>0.0007868466569702166</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01532730371103217</v>
+        <v>0.01532730239259299</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001087198512589731</v>
+        <v>0.001087198516219906</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01812088750343726</v>
+        <v>0.01812089106003557</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0006999207993351277</v>
+        <v>0.0006999206732152537</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01338750294517233</v>
+        <v>0.0133875049934996</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0007715763323569499</v>
+        <v>0.0007715763465151453</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0264911285925301</v>
+        <v>0.02649112893969506</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007572259862247992</v>
+        <v>0.0007572259436759493</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02257839285153292</v>
+        <v>0.02257839314294345</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001284666333399471</v>
+        <v>0.001284666222661803</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01715167055823172</v>
+        <v>0.01715166715036572</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.000586247943410048</v>
+        <v>0.0005862479563771536</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01705881984749481</v>
+        <v>0.01705881715052302</v>
       </c>
     </row>
     <row r="12">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0006443425329384</v>
+        <v>0.0006443425904450738</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01938833404360196</v>
+        <v>0.0193883396265008</v>
       </c>
     </row>
     <row r="13">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0007838040400452576</v>
+        <v>0.0007838039745872926</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01768672317822242</v>
+        <v>0.01768672600313205</v>
       </c>
     </row>
     <row r="14">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0007002281359247224</v>
+        <v>0.0007002282317559506</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02536189679622307</v>
+        <v>0.02536189822708182</v>
       </c>
     </row>
     <row r="15">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0003004165145333312</v>
+        <v>0.0003004164989087495</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01392034959510914</v>
+        <v>0.01392035523102056</v>
       </c>
     </row>
     <row r="16">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00028305750012712</v>
+        <v>0.000283057577346472</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02016230892849664</v>
+        <v>0.02016231278643029</v>
       </c>
     </row>
     <row r="17">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001052548617680378</v>
+        <v>0.001052548552339584</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02360171495857422</v>
+        <v>0.02360171674432988</v>
       </c>
     </row>
     <row r="18">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.000199219920328511</v>
+        <v>0.0001992199003954446</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0133185709400567</v>
+        <v>0.01331856927862858</v>
       </c>
     </row>
     <row r="19">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001348709978627639</v>
+        <v>0.001348709752637374</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02558788351359698</v>
+        <v>0.02558788214401543</v>
       </c>
     </row>
     <row r="20">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0009242436129381792</v>
+        <v>0.0009242435273363842</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0210163586544591</v>
+        <v>0.02101635447330582</v>
       </c>
     </row>
     <row r="21">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.000649375763754938</v>
+        <v>0.0006493756974290764</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01742686536022911</v>
+        <v>0.01742686130358003</v>
       </c>
     </row>
     <row r="22">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0008570598979492347</v>
+        <v>0.0008570600250828258</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01992709784851023</v>
+        <v>0.0199271002087757</v>
       </c>
     </row>
     <row r="23">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.00076577161330907</v>
+        <v>0.0007657714665198019</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01891410800239968</v>
+        <v>0.01891410425172055</v>
       </c>
     </row>
     <row r="24">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0006588865509013344</v>
+        <v>0.000658886459663872</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01613309737569963</v>
+        <v>0.01613309612214205</v>
       </c>
     </row>
     <row r="25">
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0005989023552476901</v>
+        <v>0.0005989023647269144</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02816648364947841</v>
+        <v>0.02816648367077628</v>
       </c>
     </row>
     <row r="26">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0005547833257330405</v>
+        <v>0.000554783443099939</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01835299645830991</v>
+        <v>0.01835299839116131</v>
       </c>
     </row>
     <row r="27">
@@ -778,10 +778,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.254642433149384e-05</v>
+        <v>9.254651674765815e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01230540235673442</v>
+        <v>0.01230540396939559</v>
       </c>
     </row>
     <row r="28">
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0006787764390804019</v>
+        <v>0.000678776399868773</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01853844226250462</v>
+        <v>0.01853844005077003</v>
       </c>
     </row>
     <row r="29">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0007104756634039453</v>
+        <v>0.0007104757645950343</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02091539612118736</v>
+        <v>0.02091540082593671</v>
       </c>
     </row>
     <row r="30">
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0006662060883558401</v>
+        <v>0.0006662059640649761</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02113920519916697</v>
+        <v>0.02113920467059431</v>
       </c>
     </row>
     <row r="31">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0005865730060381787</v>
+        <v>0.000586573092943337</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0173861358009644</v>
+        <v>0.01738613754392418</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001054800535315228</v>
+        <v>0.001054800369488325</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01840606284243007</v>
+        <v>0.01840605938901075</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0006780265718902649</v>
+        <v>0.0006780265002501898</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02024110496252074</v>
+        <v>0.02024110525393915</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003610680420337629</v>
+        <v>0.0003610681220985106</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01465004426296193</v>
+        <v>0.01465004646852656</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007868466569702166</v>
+        <v>0.0007868466297954465</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01532730239259299</v>
+        <v>0.01532730055597839</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001087198516219906</v>
+        <v>0.001087198509478258</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01812089106003557</v>
+        <v>0.01812089069188802</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0006999206732152537</v>
+        <v>0.0006999206451010111</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0133875049934996</v>
+        <v>0.01338750284404332</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0007715763465151453</v>
+        <v>0.0007715763386379793</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02649112893969506</v>
+        <v>0.02649112885143871</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007572259436759493</v>
+        <v>0.0007572259282950802</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02257839314294345</v>
+        <v>0.02257839488593129</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001284666222661803</v>
+        <v>0.001284666291858906</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01715166715036572</v>
+        <v>0.01715166800596126</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0005862479563771536</v>
+        <v>0.0005862478844438643</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01705881715052302</v>
+        <v>0.01705881639980937</v>
       </c>
     </row>
     <row r="12">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0006443425904450738</v>
+        <v>0.0006443425020939141</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0193883396265008</v>
+        <v>0.01938833534285095</v>
       </c>
     </row>
     <row r="13">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0007838039745872926</v>
+        <v>0.0007838039884626193</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01768672600313205</v>
+        <v>0.01768672320044252</v>
       </c>
     </row>
     <row r="14">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0007002282317559506</v>
+        <v>0.0007002281738462284</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02536189822708182</v>
+        <v>0.0253618984039586</v>
       </c>
     </row>
     <row r="15">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0003004164989087495</v>
+        <v>0.0003004165263382885</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01392035523102056</v>
+        <v>0.01392035054044319</v>
       </c>
     </row>
     <row r="16">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.000283057577346472</v>
+        <v>0.0002830576408407369</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02016231278643029</v>
+        <v>0.02016231255529381</v>
       </c>
     </row>
     <row r="17">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001052548552339584</v>
+        <v>0.001052548678305942</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02360171674432988</v>
+        <v>0.02360171741281175</v>
       </c>
     </row>
     <row r="18">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001992199003954446</v>
+        <v>0.0001992199406212848</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01331856927862858</v>
+        <v>0.01331857244129507</v>
       </c>
     </row>
     <row r="19">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001348709752637374</v>
+        <v>0.001348709796824436</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02558788214401543</v>
+        <v>0.0255878764244277</v>
       </c>
     </row>
     <row r="20">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0009242435273363842</v>
+        <v>0.0009242434806315546</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02101635447330582</v>
+        <v>0.02101635525210531</v>
       </c>
     </row>
     <row r="21">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0006493756974290764</v>
+        <v>0.0006493757027362719</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01742686130358003</v>
+        <v>0.01742686153761051</v>
       </c>
     </row>
     <row r="22">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0008570600250828258</v>
+        <v>0.0008570599800944779</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0199271002087757</v>
+        <v>0.01992709798569455</v>
       </c>
     </row>
     <row r="23">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0007657714665198019</v>
+        <v>0.0007657715795091868</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01891410425172055</v>
+        <v>0.01891410629451691</v>
       </c>
     </row>
     <row r="24">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.000658886459663872</v>
+        <v>0.0006588864795557586</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01613309612214205</v>
+        <v>0.0161330929544586</v>
       </c>
     </row>
     <row r="25">
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0005989023647269144</v>
+        <v>0.0005989024390729638</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02816648367077628</v>
+        <v>0.02816648387099849</v>
       </c>
     </row>
     <row r="26">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.000554783443099939</v>
+        <v>0.0005547832965458431</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01835299839116131</v>
+        <v>0.0183529949402555</v>
       </c>
     </row>
     <row r="27">
@@ -778,10 +778,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.254651674765815e-05</v>
+        <v>9.254646434449075e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01230540396939559</v>
+        <v>0.01230540530338047</v>
       </c>
     </row>
     <row r="28">
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.000678776399868773</v>
+        <v>0.0006787763523104774</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01853844005077003</v>
+        <v>0.01853844021829527</v>
       </c>
     </row>
     <row r="29">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0007104757645950343</v>
+        <v>0.0007104756793831348</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02091540082593671</v>
+        <v>0.02091539706399578</v>
       </c>
     </row>
     <row r="30">
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0006662059640649761</v>
+        <v>0.000666206019384791</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02113920467059431</v>
+        <v>0.02113920453663377</v>
       </c>
     </row>
     <row r="31">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.000586573092943337</v>
+        <v>0.0005865731077450849</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01738613754392418</v>
+        <v>0.01738613843325227</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001054800369488325</v>
+        <v>0.001060790471236895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01840605938901075</v>
+        <v>0.01839994370727326</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0006780265002501898</v>
+        <v>0.0006928268433147098</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02024110525393915</v>
+        <v>0.02023982765623458</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003610681220985106</v>
+        <v>0.0003564201889442662</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01465004646852656</v>
+        <v>0.01464512857137226</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007868466297954465</v>
+        <v>0.0007820847638582355</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01532730055597839</v>
+        <v>0.01532211789236618</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001087198509478258</v>
+        <v>0.001073277527655607</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01812089069188802</v>
+        <v>0.01812037353889271</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0006999206451010111</v>
+        <v>0.0007002990538200611</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01338750284404332</v>
+        <v>0.01338216958227639</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0007715763386379793</v>
+        <v>0.0007756607543371004</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02649112885143871</v>
+        <v>0.02648096088552257</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007572259282950802</v>
+        <v>0.0007576058425239225</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02257839488593129</v>
+        <v>0.02256939619163007</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001284666291858906</v>
+        <v>0.001290680989709426</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01715166800596126</v>
+        <v>0.0171461537878596</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0005862478844438643</v>
+        <v>0.0005733431125031374</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01705881639980937</v>
+        <v>0.01705814160429377</v>
       </c>
     </row>
     <row r="12">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0006443425020939141</v>
+        <v>0.000640769433779636</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01938833534285095</v>
+        <v>0.01938101665451964</v>
       </c>
     </row>
     <row r="13">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0007838039884626193</v>
+        <v>0.000781775690178485</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01768672320044252</v>
+        <v>0.01767981481188641</v>
       </c>
     </row>
     <row r="14">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0007002281738462284</v>
+        <v>0.0007003649729269694</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0253618984039586</v>
+        <v>0.02535178327396969</v>
       </c>
     </row>
     <row r="15">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0003004165263382885</v>
+        <v>0.0002920828716748237</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01392035054044319</v>
+        <v>0.01391792987030828</v>
       </c>
     </row>
     <row r="16">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0002830576408407369</v>
+        <v>0.0002806641320915612</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02016231255529381</v>
+        <v>0.02015444944740958</v>
       </c>
     </row>
     <row r="17">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001052548678305942</v>
+        <v>0.001070001750218947</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02360171741281175</v>
+        <v>0.02360040397352593</v>
       </c>
     </row>
     <row r="18">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001992199406212848</v>
+        <v>0.0001975378851330075</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01331857244129507</v>
+        <v>0.01331339203554496</v>
       </c>
     </row>
     <row r="19">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001348709796824436</v>
+        <v>0.001352861684692783</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0255878764244277</v>
+        <v>0.02557809357095204</v>
       </c>
     </row>
     <row r="20">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0009242434806315546</v>
+        <v>0.0009157260571171093</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02101635525210531</v>
+        <v>0.02101014400234801</v>
       </c>
     </row>
     <row r="21">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0006493757027362719</v>
+        <v>0.0006492669834994787</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01742686153761051</v>
+        <v>0.01741991379476923</v>
       </c>
     </row>
     <row r="22">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0008570599800944779</v>
+        <v>0.0008626477539255981</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01992709798569455</v>
+        <v>0.01992013755091225</v>
       </c>
     </row>
     <row r="23">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0007657715795091868</v>
+        <v>0.0007745412592100894</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01891410629451691</v>
+        <v>0.01890911746305988</v>
       </c>
     </row>
     <row r="24">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0006588864795557586</v>
+        <v>0.0006561774438792667</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0161330929544586</v>
+        <v>0.01612694457722103</v>
       </c>
     </row>
     <row r="25">
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0005989024390729638</v>
+        <v>0.0005987777213871919</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02816648387099849</v>
+        <v>0.02815525399494112</v>
       </c>
     </row>
     <row r="26">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0005547832965458431</v>
+        <v>0.0005564912240330218</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0183529949402555</v>
+        <v>0.01834577928481417</v>
       </c>
     </row>
     <row r="27">
@@ -778,10 +778,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.254646434449075e-05</v>
+        <v>8.901962675243575e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01230540530338047</v>
+        <v>0.01230113282893861</v>
       </c>
     </row>
     <row r="28">
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0006787763523104774</v>
+        <v>0.000672558244583929</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01853844021829527</v>
+        <v>0.01853235587735156</v>
       </c>
     </row>
     <row r="29">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0007104756793831348</v>
+        <v>0.0007228483390809648</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02091539706399578</v>
+        <v>0.02091165174986878</v>
       </c>
     </row>
     <row r="30">
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.000666206019384791</v>
+        <v>0.0006682485520407036</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02113920453663377</v>
+        <v>0.02113089817593453</v>
       </c>
     </row>
     <row r="31">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0005865731077450849</v>
+        <v>0.0005940706091084882</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01738613843325227</v>
+        <v>0.01738123440753003</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001054800369488325</v>
+        <v>0.001060790402376106</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01840605938901075</v>
+        <v>0.01839994283490727</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0006780265002501898</v>
+        <v>0.0006928270507603408</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02024110525393915</v>
+        <v>0.02023982851495868</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003610681220985106</v>
+        <v>0.0003564202252396402</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01465004646852656</v>
+        <v>0.01464512771430105</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007868466297954465</v>
+        <v>0.000782084842702783</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01532730055597839</v>
+        <v>0.01532211878735565</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001087198509478258</v>
+        <v>0.001073277583922502</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01812089069188802</v>
+        <v>0.01812037696213116</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0006999206451010111</v>
+        <v>0.0007002990740247087</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01338750284404332</v>
+        <v>0.01338217111650922</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0007715763386379793</v>
+        <v>0.0007756607204912056</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02649112885143871</v>
+        <v>0.02648095948874412</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007572259282950802</v>
+        <v>0.0007576057924235331</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02257839488593129</v>
+        <v>0.02256939395435556</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001284666291858906</v>
+        <v>0.001290681003546943</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01715166800596126</v>
+        <v>0.0171461578212092</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0005862478844438643</v>
+        <v>0.0005733431143383446</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01705881639980937</v>
+        <v>0.01705814174470106</v>
       </c>
     </row>
     <row r="12">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0006443425020939141</v>
+        <v>0.0006407695671455079</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01938833534285095</v>
+        <v>0.01938101591056475</v>
       </c>
     </row>
     <row r="13">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0007838039884626193</v>
+        <v>0.00078177582616546</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01768672320044252</v>
+        <v>0.01767981592876184</v>
       </c>
     </row>
     <row r="14">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0007002281738462284</v>
+        <v>0.0007003649616277555</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0253618984039586</v>
+        <v>0.0253517828437323</v>
       </c>
     </row>
     <row r="15">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0003004165263382885</v>
+        <v>0.0002920828547839713</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01392035054044319</v>
+        <v>0.01391792860102977</v>
       </c>
     </row>
     <row r="16">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0002830576408407369</v>
+        <v>0.0002806640855957377</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02016231255529381</v>
+        <v>0.02015444717700276</v>
       </c>
     </row>
     <row r="17">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001052548678305942</v>
+        <v>0.001070001608686922</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02360171741281175</v>
+        <v>0.02360040043968074</v>
       </c>
     </row>
     <row r="18">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001992199406212848</v>
+        <v>0.000197537846091605</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01331857244129507</v>
+        <v>0.01331339379659983</v>
       </c>
     </row>
     <row r="19">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001348709796824436</v>
+        <v>0.001352861572156644</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0255878764244277</v>
+        <v>0.02557809718746042</v>
       </c>
     </row>
     <row r="20">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0009242434806315546</v>
+        <v>0.0009157260635551238</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02101635525210531</v>
+        <v>0.02101014140152094</v>
       </c>
     </row>
     <row r="21">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0006493757027362719</v>
+        <v>0.0006492668798149288</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01742686153761051</v>
+        <v>0.01741991311932593</v>
       </c>
     </row>
     <row r="22">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0008570599800944779</v>
+        <v>0.0008626477539255981</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01992709798569455</v>
+        <v>0.01992013755091225</v>
       </c>
     </row>
     <row r="23">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0007657715795091868</v>
+        <v>0.0007745412664852222</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01891410629451691</v>
+        <v>0.01890911784515098</v>
       </c>
     </row>
     <row r="24">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0006588864795557586</v>
+        <v>0.0006561775048483381</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0161330929544586</v>
+        <v>0.0161269485803756</v>
       </c>
     </row>
     <row r="25">
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0005989024390729638</v>
+        <v>0.0005987776559615043</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02816648387099849</v>
+        <v>0.02815525128908122</v>
       </c>
     </row>
     <row r="26">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0005547832965458431</v>
+        <v>0.0005564911885860179</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0183529949402555</v>
+        <v>0.01834577743802778</v>
       </c>
     </row>
     <row r="27">
@@ -778,10 +778,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.254646434449075e-05</v>
+        <v>8.901969102866498e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01230540530338047</v>
+        <v>0.01230113800662786</v>
       </c>
     </row>
     <row r="28">
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0006787763523104774</v>
+        <v>0.0006725582398835722</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01853844021829527</v>
+        <v>0.01853235565664989</v>
       </c>
     </row>
     <row r="29">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0007104756793831348</v>
+        <v>0.0007228483167890018</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02091539706399578</v>
+        <v>0.02091165057330109</v>
       </c>
     </row>
     <row r="30">
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.000666206019384791</v>
+        <v>0.0006682486017593511</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02113920453663377</v>
+        <v>0.02113089752584735</v>
       </c>
     </row>
     <row r="31">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0005865731077450849</v>
+        <v>0.0005940706454970584</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01738613843325227</v>
+        <v>0.01738123365385856</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001060790471236895</v>
+        <v>0.001060790444918515</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01839994370727326</v>
+        <v>0.01839994527615095</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0006928268433147098</v>
+        <v>0.0006928267603984442</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02023982765623458</v>
+        <v>0.02023982282828595</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003564201889442662</v>
+        <v>0.000356420147899213</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01464512857137226</v>
+        <v>0.0146451257686329</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007820847638582355</v>
+        <v>0.0007820848018166949</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01532211789236618</v>
+        <v>0.0153221204262978</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001073277527655607</v>
+        <v>0.001073277539277068</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01812037353889271</v>
+        <v>0.01812037413337439</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0007002990538200611</v>
+        <v>0.0007002991115380252</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01338216958227639</v>
+        <v>0.01338217381191575</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0007756607543371004</v>
+        <v>0.0007756607111480767</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02648096088552257</v>
+        <v>0.02648095932626148</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007576058425239225</v>
+        <v>0.0007576057713436576</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02256939619163007</v>
+        <v>0.02256939280949408</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001290680989709426</v>
+        <v>0.001290680903828196</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0171461537878596</v>
+        <v>0.01714615191733665</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0005733431125031374</v>
+        <v>0.0005733431053769354</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01705814160429377</v>
+        <v>0.0170581411737713</v>
       </c>
     </row>
     <row r="12">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.000640769433779636</v>
+        <v>0.0006407694107959843</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01938101665451964</v>
+        <v>0.01938101292878154</v>
       </c>
     </row>
     <row r="13">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.000781775690178485</v>
+        <v>0.0007817757402528078</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01767981481188641</v>
+        <v>0.01767981423557111</v>
       </c>
     </row>
     <row r="14">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0007003649729269694</v>
+        <v>0.0007003649793886694</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02535178327396969</v>
+        <v>0.02535178352951751</v>
       </c>
     </row>
     <row r="15">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002920828716748237</v>
+        <v>0.0002920828564248135</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01391792987030828</v>
+        <v>0.01391792882536781</v>
       </c>
     </row>
     <row r="16">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0002806641320915612</v>
+        <v>0.0002806642294836526</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02015444944740958</v>
+        <v>0.02015445088845789</v>
       </c>
     </row>
     <row r="17">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001070001750218947</v>
+        <v>0.001070001747394369</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02360040397352593</v>
+        <v>0.02360040603049082</v>
       </c>
     </row>
     <row r="18">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001975378851330075</v>
+        <v>0.0001975378337283851</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01331339203554496</v>
+        <v>0.01331339267450524</v>
       </c>
     </row>
     <row r="19">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001352861684692783</v>
+        <v>0.001352861937708668</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02557809357095204</v>
+        <v>0.02557810339677844</v>
       </c>
     </row>
     <row r="20">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0009157260571171093</v>
+        <v>0.0009157259587293374</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02101014400234801</v>
+        <v>0.02101014246918508</v>
       </c>
     </row>
     <row r="21">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0006492669834994787</v>
+        <v>0.0006492668520453082</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01741991379476923</v>
+        <v>0.01741991165389767</v>
       </c>
     </row>
     <row r="22">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0008626477539255981</v>
+        <v>0.000862647690444086</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01992013755091225</v>
+        <v>0.01992013429444681</v>
       </c>
     </row>
     <row r="23">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0007745412592100894</v>
+        <v>0.0007745412574635509</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01890911746305988</v>
+        <v>0.01890911723356815</v>
       </c>
     </row>
     <row r="24">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0006561774438792667</v>
+        <v>0.0006561774554167413</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01612694457722103</v>
+        <v>0.01612694955685589</v>
       </c>
     </row>
     <row r="25">
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0005987777213871919</v>
+        <v>0.0005987776146571491</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02815525399494112</v>
+        <v>0.02815525000471522</v>
       </c>
     </row>
     <row r="26">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0005564912240330218</v>
+        <v>0.0005564911925650483</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01834577928481417</v>
+        <v>0.01834578211601643</v>
       </c>
     </row>
     <row r="27">
@@ -778,10 +778,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8.901962675243575e-05</v>
+        <v>8.901947589654206e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01230113282893861</v>
+        <v>0.012301131683164</v>
       </c>
     </row>
     <row r="28">
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.000672558244583929</v>
+        <v>0.0006725583023355114</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01853235587735156</v>
+        <v>0.01853235910425491</v>
       </c>
     </row>
     <row r="29">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0007228483390809648</v>
+        <v>0.0007228482919201543</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02091165174986878</v>
+        <v>0.02091164936339699</v>
       </c>
     </row>
     <row r="30">
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0006682485520407036</v>
+        <v>0.0006682486070744861</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02113089817593453</v>
+        <v>0.02113089776749369</v>
       </c>
     </row>
     <row r="31">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0005940706091084882</v>
+        <v>0.0005940705453278615</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01738123440753003</v>
+        <v>0.01738123090381298</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001060790444918515</v>
+        <v>-0.001221273553221031</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01839994527615095</v>
+        <v>0.01647495745511513</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0006928267603984442</v>
+        <v>0.0007184162723982082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02023982282828595</v>
+        <v>0.01398833048204481</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.000356420147899213</v>
+        <v>-0.0007085462312607789</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0146451257686329</v>
+        <v>0.0192877473602381</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007820848018166949</v>
+        <v>0.0001771854013488912</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0153221204262978</v>
+        <v>0.0118968081038102</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001073277539277068</v>
+        <v>0.0007612179246209634</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01812037413337439</v>
+        <v>0.01438288000586085</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0007002991115380252</v>
+        <v>0.0006424809396657203</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01338217381191575</v>
+        <v>0.01042507361481238</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0007756607111480767</v>
+        <v>0.0004981706102831032</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02648095932626148</v>
+        <v>0.01191519173558262</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007576057713436576</v>
+        <v>0.0002365459106042273</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02256939280949408</v>
+        <v>0.01341862208706991</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001290680903828196</v>
+        <v>5.711593025403335e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01714615191733665</v>
+        <v>0.01652799401693962</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0005733431053769354</v>
+        <v>0.0002342689746548373</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0170581411737713</v>
+        <v>0.01295423703519469</v>
       </c>
     </row>
     <row r="12">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0006407694107959843</v>
+        <v>0.000329082428300298</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01938101292878154</v>
+        <v>0.01009367285271112</v>
       </c>
     </row>
     <row r="13">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0007817757402528078</v>
+        <v>0.0003688986545106875</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01767981423557111</v>
+        <v>0.01127209569930187</v>
       </c>
     </row>
     <row r="14">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0007003649793886694</v>
+        <v>0.001158525129885306</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02535178352951751</v>
+        <v>0.01106405903242029</v>
       </c>
     </row>
     <row r="15">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002920828564248135</v>
+        <v>-0.001352402024828594</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01391792882536781</v>
+        <v>0.01268881596560691</v>
       </c>
     </row>
     <row r="16">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0002806642294836526</v>
+        <v>-0.002068273372304509</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02015445088845789</v>
+        <v>0.01581859029047227</v>
       </c>
     </row>
     <row r="17">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001070001747394369</v>
+        <v>0.001312353591787587</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02360040603049082</v>
+        <v>0.01590712285025103</v>
       </c>
     </row>
     <row r="18">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001975378337283851</v>
+        <v>0.0001017448761608908</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01331339267450524</v>
+        <v>0.008994653559205487</v>
       </c>
     </row>
     <row r="19">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001352861937708668</v>
+        <v>-0.0003136746400045913</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02557810339677844</v>
+        <v>0.02167677474158496</v>
       </c>
     </row>
     <row r="20">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0009157259587293374</v>
+        <v>0.001075741828924388</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02101014246918508</v>
+        <v>0.01459606664903643</v>
       </c>
     </row>
     <row r="21">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0006492668520453082</v>
+        <v>0.0008833935799478521</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01741991165389767</v>
+        <v>0.0097777349774103</v>
       </c>
     </row>
     <row r="22">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.000862647690444086</v>
+        <v>0.0006672865434407711</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01992013429444681</v>
+        <v>0.01663138445091002</v>
       </c>
     </row>
     <row r="23">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0007745412574635509</v>
+        <v>0.0009281602836686284</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01890911723356815</v>
+        <v>0.01586793117766664</v>
       </c>
     </row>
     <row r="24">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0006561774554167413</v>
+        <v>0.0004121783362486862</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01612694955685589</v>
+        <v>0.01067954604155171</v>
       </c>
     </row>
     <row r="25">
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0005987776146571491</v>
+        <v>0.0006777653430891736</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02815525000471522</v>
+        <v>0.01629120063098984</v>
       </c>
     </row>
     <row r="26">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0005564911925650483</v>
+        <v>0.0004209458973232646</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01834578211601643</v>
+        <v>0.01158645051072963</v>
       </c>
     </row>
     <row r="27">
@@ -778,10 +778,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8.901947589654206e-05</v>
+        <v>0.0001372437498213242</v>
       </c>
       <c r="C27" t="n">
-        <v>0.012301131683164</v>
+        <v>0.008042807179444649</v>
       </c>
     </row>
     <row r="28">
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0006725583023355114</v>
+        <v>6.078530968439008e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01853235910425491</v>
+        <v>0.01125296703147812</v>
       </c>
     </row>
     <row r="29">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0007228482919201543</v>
+        <v>0.0004933976116147271</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02091164936339699</v>
+        <v>0.01379505606737221</v>
       </c>
     </row>
     <row r="30">
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0006682486070744861</v>
+        <v>0.001145327257606864</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02113089776749369</v>
+        <v>0.01187839311655274</v>
       </c>
     </row>
     <row r="31">
@@ -830,10 +830,270 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0005940705453278615</v>
+        <v>-0.0005474692541447351</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01738123090381298</v>
+        <v>0.01435234916469939</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.104979693864423e-05</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01226298217084431</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.001038549266929584</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01693251303033754</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.0003814411210930108</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01191714538750376</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>ALO</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.002747608424347832</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.03786603222789733</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RNO</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.0001871846254636974</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.02002992928209451</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>WLN</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.004304254891174196</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.05370935070183067</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>ERF</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.0009800954223205013</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0154852434928244</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>TEP</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.002376124150407346</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.02871992133504479</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0008645694539046246</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01118101805359108</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>URW</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.0006719580135817928</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.02036276500777312</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>ARGX</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.002069077211004983</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.02969065949816189</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>KBC</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.0009127142291469359</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.01444832626510487</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>ABI</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.0001014816068608086</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.01229397211575166</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>UCB</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.001418148163012117</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01370305143118506</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>SOLB</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3.675005897626446e-05</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01522634677320582</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>GBLB</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.0003507894542955185</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.009177641875480329</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>AGS</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.0002022687618646772</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01228332921219215</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>UMI</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.001214012274205176</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.02004793913093253</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>WDP</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.0004068522120568597</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0156943588151188</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>ACKB</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.0002644375357824461</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.01011588093392352</v>
       </c>
     </row>
   </sheetData>
@@ -874,10 +1134,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4.941941470880333e-05</v>
+        <v>-6.793850933759989e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03560190248549795</v>
+        <v>0.03557126506166124</v>
       </c>
     </row>
     <row r="3">
@@ -887,10 +1147,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.000884188856635101</v>
+        <v>0.0008012854702857497</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0421575650660982</v>
+        <v>0.04216201245022931</v>
       </c>
     </row>
     <row r="4">
@@ -900,10 +1160,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0009818327817894058</v>
+        <v>0.0008172390904976798</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04630810706310803</v>
+        <v>0.046421846894575</v>
       </c>
     </row>
     <row r="5">
@@ -913,10 +1173,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001275009394480753</v>
+        <v>0.001240460782324367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04289456508732011</v>
+        <v>0.04286201056840219</v>
       </c>
     </row>
     <row r="6">
@@ -926,10 +1186,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.101560929640801e-05</v>
+        <v>8.41781198247133e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02813275796742263</v>
+        <v>0.02813348856390616</v>
       </c>
     </row>
     <row r="7">
@@ -939,10 +1199,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0007896875377146765</v>
+        <v>0.0007927202494230742</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02699760595148104</v>
+        <v>0.02697250141601786</v>
       </c>
     </row>
     <row r="8">
@@ -952,10 +1212,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0004245000494957041</v>
+        <v>-0.0004699998942984317</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03704877464049377</v>
+        <v>0.03702921247204421</v>
       </c>
     </row>
     <row r="9">
@@ -965,10 +1225,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0009898566530255164</v>
+        <v>0.0009256826612902307</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04574799506887406</v>
+        <v>0.04572948671782532</v>
       </c>
     </row>
     <row r="10">
@@ -978,10 +1238,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0004048262179766901</v>
+        <v>-0.0004518395544968785</v>
       </c>
       <c r="C10" t="n">
-        <v>0.035459284535695</v>
+        <v>0.03544293926271016</v>
       </c>
     </row>
     <row r="11">
@@ -991,10 +1251,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0008672238145481241</v>
+        <v>0.0008503042667601123</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04758203842523556</v>
+        <v>0.04753924835006346</v>
       </c>
     </row>
     <row r="12">
@@ -1004,10 +1264,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0008130648162912574</v>
+        <v>0.0008199077218580388</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03541224644074084</v>
+        <v>0.03537955257228318</v>
       </c>
     </row>
     <row r="13">
@@ -1017,10 +1277,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01805495984085738</v>
+        <v>0.01784530464017069</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1189308395452447</v>
+        <v>0.1189191301557696</v>
       </c>
     </row>
     <row r="14">
@@ -1030,10 +1290,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.114175069818069e-05</v>
+        <v>-9.418809836880216e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0239753201725963</v>
+        <v>0.02396518300197049</v>
       </c>
     </row>
     <row r="15">
@@ -1043,10 +1303,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002369021049176178</v>
+        <v>0.002305567994202513</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0433530365371839</v>
+        <v>0.04333752867329565</v>
       </c>
     </row>
     <row r="16">
@@ -1056,10 +1316,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0009642691387616043</v>
+        <v>0.0009328805452139547</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03900806626139858</v>
+        <v>0.03897844851795308</v>
       </c>
     </row>
     <row r="17">
@@ -1069,10 +1329,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001841715606512697</v>
+        <v>0.001747422789905333</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04964895312625085</v>
+        <v>0.04965072175679355</v>
       </c>
     </row>
     <row r="18">
@@ -1082,10 +1342,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.00369530524092418</v>
+        <v>0.0036629215528886</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03705336943618344</v>
+        <v>0.0370263941298628</v>
       </c>
     </row>
     <row r="19">
@@ -1095,10 +1355,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.00101786297317466</v>
+        <v>0.0008090566272356028</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05352724664917159</v>
+        <v>0.05369575330528847</v>
       </c>
     </row>
     <row r="20">
@@ -1108,10 +1368,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.002366705292283743</v>
+        <v>0.002214892180887915</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05583257491338526</v>
+        <v>0.05589129596640939</v>
       </c>
     </row>
     <row r="21">
@@ -1121,10 +1381,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.001699244094359331</v>
+        <v>0.001669587323697692</v>
       </c>
       <c r="C21" t="n">
-        <v>0.05925781181285005</v>
+        <v>0.05920649695085118</v>
       </c>
     </row>
     <row r="22">
@@ -1134,10 +1394,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0007021119071507132</v>
+        <v>0.0006580184319610732</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02437985851390827</v>
+        <v>0.02437852829572398</v>
       </c>
     </row>
     <row r="23">
@@ -1147,10 +1407,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.000794688198616002</v>
+        <v>0.0007946310850100193</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02722548225459983</v>
+        <v>0.02720007352507712</v>
       </c>
     </row>
     <row r="24">
@@ -1160,10 +1420,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0005592673574563277</v>
+        <v>0.0005368460406005929</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04214907514672871</v>
+        <v>0.042112943914672</v>
       </c>
     </row>
     <row r="25">
@@ -1173,10 +1433,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.091194186979644e-05</v>
+        <v>4.995286434493942e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0286102089249934</v>
+        <v>0.02858463599107863</v>
       </c>
     </row>
     <row r="26">
@@ -1186,10 +1446,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.001831015654857571</v>
+        <v>0.001784109211324511</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04796937695925039</v>
+        <v>0.04793693374139653</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0003136746400045913</v>
+        <v>-0.0003136750145962995</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02167677474158496</v>
+        <v>0.02167678212095129</v>
       </c>
     </row>
     <row r="20">
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.0009127142291469359</v>
+        <v>-0.0009127142433867402</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01444832626510487</v>
+        <v>0.01444832525970731</v>
       </c>
     </row>
     <row r="44">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0002022687618646772</v>
+        <v>0.0002022687588435963</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01228332921219215</v>
+        <v>0.01228332896886287</v>
       </c>
     </row>
     <row r="49">
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.001214012274205176</v>
+        <v>-0.001214012712616494</v>
       </c>
       <c r="C49" t="n">
-        <v>0.02004793913093253</v>
+        <v>0.02004793816777905</v>
       </c>
     </row>
     <row r="50">

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.000329082428300298</v>
+        <v>0.0003290824290824279</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01009367285271112</v>
+        <v>0.01009367293170312</v>
       </c>
     </row>
     <row r="13">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.001038549266929584</v>
+        <v>-0.00103854877109541</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01693251303033754</v>
+        <v>0.01693251484560263</v>
       </c>
     </row>
     <row r="34">

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0003290824290824279</v>
+        <v>0.000329082428300298</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01009367293170312</v>
+        <v>0.01009367285271112</v>
       </c>
     </row>
     <row r="13">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.00103854877109541</v>
+        <v>-0.001038549266929584</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01693251484560263</v>
+        <v>0.01693251303033754</v>
       </c>
     </row>
     <row r="34">
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.0009127142433867402</v>
+        <v>-0.0009127142291469359</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01444832525970731</v>
+        <v>0.01444832626510487</v>
       </c>
     </row>
     <row r="44">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0002022687588435963</v>
+        <v>0.0002022687618646772</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01228332896886287</v>
+        <v>0.01228332921219215</v>
       </c>
     </row>
     <row r="49">
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.001214012712616494</v>
+        <v>-0.001214012274205176</v>
       </c>
       <c r="C49" t="n">
-        <v>0.02004793816777905</v>
+        <v>0.02004793913093253</v>
       </c>
     </row>
     <row r="50">

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.000329082428300298</v>
+        <v>0.0003290824290824279</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01009367285271112</v>
+        <v>0.01009367293170312</v>
       </c>
     </row>
     <row r="13">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0003136750145962995</v>
+        <v>-0.0003136746400045913</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02167678212095129</v>
+        <v>0.02167677474158496</v>
       </c>
     </row>
     <row r="20">

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0003136746400045913</v>
+        <v>-0.0003136750145962995</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02167677474158496</v>
+        <v>0.02167678212095129</v>
       </c>
     </row>
     <row r="20">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0002022687618646772</v>
+        <v>0.0002022687588435963</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01228332921219215</v>
+        <v>0.01228332896886287</v>
       </c>
     </row>
     <row r="49">

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0003290824290824279</v>
+        <v>0.000329082428300298</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01009367293170312</v>
+        <v>0.01009367285271112</v>
       </c>
     </row>
     <row r="13">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.001038549266929584</v>
+        <v>-0.00103854877109541</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01693251303033754</v>
+        <v>0.01693251484560263</v>
       </c>
     </row>
     <row r="34">
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.0009127142291469359</v>
+        <v>-0.0009127142433867402</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01444832626510487</v>
+        <v>0.01444832525970731</v>
       </c>
     </row>
     <row r="44">
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.001214012274205176</v>
+        <v>-0.001214012712616494</v>
       </c>
       <c r="C49" t="n">
-        <v>0.02004793913093253</v>
+        <v>0.02004793816777905</v>
       </c>
     </row>
     <row r="50">

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.001221273553221031</v>
+        <v>-0.001334915853952269</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01647495745511513</v>
+        <v>0.01648295399617317</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0007184162723982082</v>
+        <v>0.0007087236124244966</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01398833048204481</v>
+        <v>0.01394365936703161</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0007085462312607789</v>
+        <v>-0.0007100079238397778</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0192877473602381</v>
+        <v>0.01922543681108662</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0001771854013488912</v>
+        <v>0.000235326327487925</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0118968081038102</v>
+        <v>0.01188058321371637</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0007612179246209634</v>
+        <v>0.0007791059917745813</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01438288000586085</v>
+        <v>0.01433814936682779</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0006424809396657203</v>
+        <v>0.0006804805971573304</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01042507361481238</v>
+        <v>0.01040222305992815</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004981706102831032</v>
+        <v>0.0005296689758723006</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01191519173558262</v>
+        <v>0.01188320756254143</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002365459106042273</v>
+        <v>0.0001966583197685121</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01341862208706991</v>
+        <v>0.01338454123798366</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.711593025403335e-05</v>
+        <v>8.5142905772157e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01652799401693962</v>
+        <v>0.01647831026866287</v>
       </c>
     </row>
     <row r="11">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0002342689746548373</v>
+        <v>0.0002472879403009773</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01295423703519469</v>
+        <v>0.01291340537662875</v>
       </c>
     </row>
     <row r="12">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.000329082428300298</v>
+        <v>0.0003293262314652488</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01009367285271112</v>
+        <v>0.01006106047065192</v>
       </c>
     </row>
     <row r="13">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0003688986545106875</v>
+        <v>0.0003359931083956011</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01127209569930187</v>
+        <v>0.01124318956082697</v>
       </c>
     </row>
     <row r="14">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.001158525129885306</v>
+        <v>0.001161470368751729</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01106405903242029</v>
+        <v>0.01102837211915877</v>
       </c>
     </row>
     <row r="15">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001352402024828594</v>
+        <v>-0.001332123384421165</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01268881596560691</v>
+        <v>0.01265035385763936</v>
       </c>
     </row>
     <row r="16">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.002068273372304509</v>
+        <v>-0.002114634408100738</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01581859029047227</v>
+        <v>0.01577810900590873</v>
       </c>
     </row>
     <row r="17">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001312353591787587</v>
+        <v>0.001189266433219941</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01590712285025103</v>
+        <v>0.01593008265630493</v>
       </c>
     </row>
     <row r="18">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001017448761608908</v>
+        <v>0.0001859226164262698</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008994653559205487</v>
+        <v>0.009027027852106774</v>
       </c>
     </row>
     <row r="19">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0003136750145962995</v>
+        <v>-0.0004316664724624567</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02167678212095129</v>
+        <v>0.02165693667405124</v>
       </c>
     </row>
     <row r="20">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001075741828924388</v>
+        <v>0.001071064180569743</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01459606664903643</v>
+        <v>0.01454902368033334</v>
       </c>
     </row>
     <row r="21">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0008833935799478521</v>
+        <v>0.000848160350696334</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0097777349774103</v>
+        <v>0.009756072774645708</v>
       </c>
     </row>
     <row r="22">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0006672865434407711</v>
+        <v>0.0006075940247207103</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01663138445091002</v>
+        <v>0.01659440484922971</v>
       </c>
     </row>
     <row r="23">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0009281602836686284</v>
+        <v>0.000909403723134001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01586793117766664</v>
+        <v>0.01581839632778912</v>
       </c>
     </row>
     <row r="24">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0004121783362486862</v>
+        <v>0.0004286232078099585</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01067954604155171</v>
+        <v>0.01064702152867117</v>
       </c>
     </row>
     <row r="25">
@@ -752,10 +752,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0006777653430891736</v>
+        <v>0.0006138961305084678</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01629120063098984</v>
+        <v>0.01625814584381037</v>
       </c>
     </row>
     <row r="26">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0004209458973232646</v>
+        <v>0.000364343586487977</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01158645051072963</v>
+        <v>0.01157063219715366</v>
       </c>
     </row>
     <row r="27">
@@ -778,10 +778,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0001372437498213242</v>
+        <v>0.0001456641983011972</v>
       </c>
       <c r="C27" t="n">
-        <v>0.008042807179444649</v>
+        <v>0.008017510491955589</v>
       </c>
     </row>
     <row r="28">
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.078530968439008e-05</v>
+        <v>5.119522547847951e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01125296703147812</v>
+        <v>0.01121724793673153</v>
       </c>
     </row>
     <row r="29">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0004933976116147271</v>
+        <v>0.0004373143303131457</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01379505606737221</v>
+        <v>0.01376831431566016</v>
       </c>
     </row>
     <row r="30">
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.001145327257606864</v>
+        <v>0.001106488264340236</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01187839311655274</v>
+        <v>0.01184994707719593</v>
       </c>
     </row>
     <row r="31">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.0005474692541447351</v>
+        <v>-0.0006023270578052799</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01435234916469939</v>
+        <v>0.01432237488486165</v>
       </c>
     </row>
     <row r="32">
@@ -843,10 +843,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.104979693864423e-05</v>
+        <v>0.0001417422845624565</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01226298217084431</v>
+        <v>0.01226483969534294</v>
       </c>
     </row>
     <row r="33">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.00103854877109541</v>
+        <v>-0.0010682972629847</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01693251484560263</v>
+        <v>0.01688189286641342</v>
       </c>
     </row>
     <row r="34">
@@ -869,10 +869,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.0003814411210930108</v>
+        <v>-0.0003523501431599929</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01191714538750376</v>
+        <v>0.01188419653153222</v>
       </c>
     </row>
     <row r="35">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.002747608424347832</v>
+        <v>-0.00268594768851956</v>
       </c>
       <c r="C35" t="n">
-        <v>0.03786603222789733</v>
+        <v>0.03775154246538395</v>
       </c>
     </row>
     <row r="36">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.0001871846254636974</v>
+        <v>-0.0004087385331135067</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02002992928209451</v>
+        <v>0.02015606929246896</v>
       </c>
     </row>
     <row r="37">
@@ -908,10 +908,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.004304254891174196</v>
+        <v>-0.004387984794798567</v>
       </c>
       <c r="C37" t="n">
-        <v>0.05370935070183067</v>
+        <v>0.05354602777236123</v>
       </c>
     </row>
     <row r="38">
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.0009800954223205013</v>
+        <v>-0.0009363989076963952</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0154852434928244</v>
+        <v>0.01544485610323106</v>
       </c>
     </row>
     <row r="39">
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.002376124150407346</v>
+        <v>-0.002475106220144401</v>
       </c>
       <c r="C39" t="n">
-        <v>0.02871992133504479</v>
+        <v>0.0286538090800945</v>
       </c>
     </row>
     <row r="40">
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0008645694539046246</v>
+        <v>0.0008664575401558459</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01118101805359108</v>
+        <v>0.01114491684063318</v>
       </c>
     </row>
     <row r="41">
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0006719580135817928</v>
+        <v>0.0004759204163115345</v>
       </c>
       <c r="C41" t="n">
-        <v>0.02036276500777312</v>
+        <v>0.02044412588424414</v>
       </c>
     </row>
     <row r="42">
@@ -973,10 +973,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.002069077211004983</v>
+        <v>0.002051546768311552</v>
       </c>
       <c r="C42" t="n">
-        <v>0.02969065949816189</v>
+        <v>0.02959553815239966</v>
       </c>
     </row>
     <row r="43">
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.0009127142433867402</v>
+        <v>-0.000977386279824246</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01444832525970731</v>
+        <v>0.01442427702955444</v>
       </c>
     </row>
     <row r="44">
@@ -999,10 +999,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.0001014816068608086</v>
+        <v>-5.538421332882347e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01229397211575166</v>
+        <v>0.01226776823988789</v>
       </c>
     </row>
     <row r="45">
@@ -1012,10 +1012,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.001418148163012117</v>
+        <v>-0.001437221611628308</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01370305143118506</v>
+        <v>0.01366085385583591</v>
       </c>
     </row>
     <row r="46">
@@ -1025,10 +1025,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.675005897626446e-05</v>
+        <v>5.755093009122934e-06</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01522634677320582</v>
+        <v>0.01518208651279548</v>
       </c>
     </row>
     <row r="47">
@@ -1038,10 +1038,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.0003507894542955185</v>
+        <v>-0.000371504159119757</v>
       </c>
       <c r="C47" t="n">
-        <v>0.009177641875480329</v>
+        <v>0.009151646639949027</v>
       </c>
     </row>
     <row r="48">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0002022687588435963</v>
+        <v>0.0002578184904990731</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01228332896886287</v>
+        <v>0.01226328384411242</v>
       </c>
     </row>
     <row r="49">
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.001214012712616494</v>
+        <v>-0.001290539694071022</v>
       </c>
       <c r="C49" t="n">
-        <v>0.02004793816777905</v>
+        <v>0.02000601003687301</v>
       </c>
     </row>
     <row r="50">
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.0004068522120568597</v>
+        <v>-0.0005059946718718975</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0156943588151188</v>
+        <v>0.01569258240722347</v>
       </c>
     </row>
     <row r="51">
@@ -1090,10 +1090,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.0002644375357824461</v>
+        <v>-0.000267118292084341</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01011588093392352</v>
+        <v>0.01008325184910716</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0007087236124244966</v>
+        <v>0.000708724094195125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01394365936703161</v>
+        <v>0.01394366312879418</v>
       </c>
     </row>
     <row r="4">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0004316664724624567</v>
+        <v>-0.000431666844652936</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02165693667405124</v>
+        <v>0.0216569440104839</v>
       </c>
     </row>
     <row r="20">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.0010682972629847</v>
+        <v>-0.001068296770328951</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01688189286641342</v>
+        <v>0.01688189467624878</v>
       </c>
     </row>
     <row r="34">
@@ -986,10 +986,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.000977386279824246</v>
+        <v>-0.0009773862656757225</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01442427702955444</v>
+        <v>0.01442427803019481</v>
       </c>
     </row>
     <row r="44">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0002578184904990731</v>
+        <v>0.0002578184935007881</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01226328384411242</v>
+        <v>0.01226328408625332</v>
       </c>
     </row>
     <row r="49">
@@ -1134,10 +1134,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-6.793850933759989e-05</v>
+        <v>-0.0001754793810214266</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03557126506166124</v>
+        <v>0.03562556137114068</v>
       </c>
     </row>
     <row r="3">
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0008012854702857497</v>
+        <v>0.0006497726974937896</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04216201245022931</v>
+        <v>0.04226908301318102</v>
       </c>
     </row>
     <row r="4">
@@ -1160,10 +1160,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0008172390904976798</v>
+        <v>0.0006538467554099195</v>
       </c>
       <c r="C4" t="n">
-        <v>0.046421846894575</v>
+        <v>0.04653319107895716</v>
       </c>
     </row>
     <row r="5">
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001240460782324367</v>
+        <v>0.001161063412795158</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04286201056840219</v>
+        <v>0.04286166505567905</v>
       </c>
     </row>
     <row r="6">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.41781198247133e-05</v>
+        <v>-0.0001149343898340831</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02813348856390616</v>
+        <v>0.02848418329652121</v>
       </c>
     </row>
     <row r="7">
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0007927202494230742</v>
+        <v>0.0007087601930843913</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02697250141601786</v>
+        <v>0.02701765299097481</v>
       </c>
     </row>
     <row r="8">
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0004699998942984317</v>
+        <v>-0.0006819476391030881</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03702921247204421</v>
+        <v>0.03731992972068517</v>
       </c>
     </row>
     <row r="9">
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0009256826612902307</v>
+        <v>0.000786488306320261</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04572948671782532</v>
+        <v>0.04580082467893366</v>
       </c>
     </row>
     <row r="10">
@@ -1238,10 +1238,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0004518395544968785</v>
+        <v>-0.0005964892624497764</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03544293926271016</v>
+        <v>0.03556851853881017</v>
       </c>
     </row>
     <row r="11">
@@ -1251,10 +1251,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0008503042667601123</v>
+        <v>0.0007244007292243316</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04753924835006346</v>
+        <v>0.04758465949848797</v>
       </c>
     </row>
     <row r="12">
@@ -1264,10 +1264,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0008199077218580388</v>
+        <v>0.0007400977644640182</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03537955257228318</v>
+        <v>0.03539503728739977</v>
       </c>
     </row>
     <row r="13">
@@ -1277,10 +1277,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01784530464017069</v>
+        <v>0.01759951919521479</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1189191301557696</v>
+        <v>0.1189450529034529</v>
       </c>
     </row>
     <row r="14">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.418809836880216e-05</v>
+        <v>-0.0001065220461885002</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02396518300197049</v>
+        <v>0.02394456774361857</v>
       </c>
     </row>
     <row r="15">
@@ -1303,10 +1303,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002305567994202513</v>
+        <v>0.002181307767150252</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04333752867329565</v>
+        <v>0.04339298291743127</v>
       </c>
     </row>
     <row r="16">
@@ -1316,10 +1316,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0009328805452139547</v>
+        <v>0.0008493200507388014</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03897844851795308</v>
+        <v>0.03899034090394043</v>
       </c>
     </row>
     <row r="17">
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001747422789905333</v>
+        <v>0.001563291618131957</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04965072175679355</v>
+        <v>0.04978799051961755</v>
       </c>
     </row>
     <row r="18">
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0036629215528886</v>
+        <v>0.003640863344533729</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0370263941298628</v>
+        <v>0.03699544089861417</v>
       </c>
     </row>
     <row r="19">
@@ -1355,10 +1355,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0008090566272356028</v>
+        <v>0.000807552804508399</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05369575330528847</v>
+        <v>0.05364574530198551</v>
       </c>
     </row>
     <row r="20">
@@ -1368,10 +1368,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.002214892180887915</v>
+        <v>0.002061726146194194</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05589129596640939</v>
+        <v>0.05595213270773399</v>
       </c>
     </row>
     <row r="21">
@@ -1381,10 +1381,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.001669587323697692</v>
+        <v>0.001564239756850278</v>
       </c>
       <c r="C21" t="n">
-        <v>0.05920649695085118</v>
+        <v>0.05920179304937365</v>
       </c>
     </row>
     <row r="22">
@@ -1394,10 +1394,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0006580184319610732</v>
+        <v>0.000567186403832688</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02437852829572398</v>
+        <v>0.02444677198443177</v>
       </c>
     </row>
     <row r="23">
@@ -1407,10 +1407,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0007946310850100193</v>
+        <v>0.0007209082828815124</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02720007352507712</v>
+        <v>0.02722848365109485</v>
       </c>
     </row>
     <row r="24">
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0005368460406005929</v>
+        <v>0.0004436300292405399</v>
       </c>
       <c r="C24" t="n">
-        <v>0.042112943914672</v>
+        <v>0.04212923261736685</v>
       </c>
     </row>
     <row r="25">
@@ -1433,10 +1433,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.995286434493942e-05</v>
+        <v>4.605234665689553e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02858463599107863</v>
+        <v>0.02857737208188599</v>
       </c>
     </row>
     <row r="26">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.001784109211324511</v>
+        <v>0.001682585077349505</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04793693374139653</v>
+        <v>0.04795013688534558</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stocks" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Crypto" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Index" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.001334915853952269</v>
+        <v>0.001046525092141451</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01648295399617317</v>
+        <v>0.01841590976341331</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.000708724094195125</v>
+        <v>0.00069274654554886</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01394366312879418</v>
+        <v>0.02024792703704299</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0007100079238397778</v>
+        <v>0.0003559575082455564</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01922543681108662</v>
+        <v>0.01465100723513941</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +493,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.000235326327487925</v>
+        <v>0.0007900825472485036</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01188058321371637</v>
+        <v>0.01533006497655785</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +506,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0007791059917745813</v>
+        <v>0.001076965810768239</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01433814936682779</v>
+        <v>0.01812768702577378</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +519,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0006804805971573304</v>
+        <v>0.0007060970771535356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01040222305992815</v>
+        <v>0.01338850479152869</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +532,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005296689758723006</v>
+        <v>0.0007805951090376988</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01188320756254143</v>
+        <v>0.02649183120537357</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +545,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001966583197685121</v>
+        <v>0.0007534363838523106</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01338454123798366</v>
+        <v>0.02257917674432619</v>
       </c>
     </row>
     <row r="10">
@@ -557,10 +558,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.5142905772157e-05</v>
+        <v>0.001295242333881396</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01647831026866287</v>
+        <v>0.01715314188643271</v>
       </c>
     </row>
     <row r="11">
@@ -570,530 +571,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0002472879403009773</v>
+        <v>0.0005756066910748769</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01291340537662875</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>DG</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.0003293262314652488</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01006106047065192</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>CS</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.0003359931083956011</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01124318956082697</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>SAF</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.001161470368751729</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.01102837211915877</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>RI</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-0.001332123384421165</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.01265035385763936</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>KER</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-0.002114634408100738</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.01577810900590873</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>STLAM</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.001189266433219941</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.01593008265630493</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>BN</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.0001859226164262698</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.009027027852106774</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>STMPA</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.000431666844652936</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0216569440104839</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>SGO</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.001071064180569743</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.01454902368033334</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>ENGI</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.000848160350696334</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.009756072774645708</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>CAP</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0006075940247207103</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.01659440484922971</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>DSY</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.000909403723134001</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.01581839632778912</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>LR</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.0004286232078099585</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.01064702152867117</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>GLE</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.0006138961305084678</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.01625814584381037</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>ML</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.000364343586487977</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.01157063219715366</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>ORA</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.0001456641983011972</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.008017510491955589</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>VIE</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>5.119522547847951e-05</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.01121724793673153</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>PUB</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.0004373143303131457</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.01376831431566016</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>ACA</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.001106488264340236</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.01184994707719593</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>EDEN</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.0006023270578052799</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.01432237488486165</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>HO</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.0001417422845624565</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.01226483969534294</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-0.001068296770328951</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.01688189467624878</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.0003523501431599929</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.01188419653153222</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>ALO</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.00268594768851956</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.03775154246538395</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>RNO</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.0004087385331135067</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.02015606929246896</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>WLN</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.004387984794798567</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.05354602777236123</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>ERF</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-0.0009363989076963952</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.01544485610323106</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>TEP</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>-0.002475106220144401</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.0286538090800945</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>EN</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.0008664575401558459</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.01114491684063318</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>URW</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.0004759204163115345</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.02044412588424414</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>ARGX</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.002051546768311552</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.02959553815239966</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>KBC</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>-0.0009773862656757225</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.01442427803019481</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>ABI</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>-5.538421332882347e-05</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.01226776823988789</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>UCB</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>-0.001437221611628308</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.01366085385583591</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>SOLB</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>5.755093009122934e-06</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.01518208651279548</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>GBLB</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>-0.000371504159119757</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.009151646639949027</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>AGS</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.0002578184935007881</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.01226328408625332</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>UMI</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>-0.001290539694071022</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.02000601003687301</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>WDP</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>-0.0005059946718718975</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.01569258240722347</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>ACKB</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>-0.000267118292084341</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.01008325184910716</v>
+        <v>0.01706499998229517</v>
       </c>
     </row>
   </sheetData>
@@ -1455,4 +936,100 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rendement moyen</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Risque</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>^BFX</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0001498045793524518</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0126246603266179</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>^DJI</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0004315216297093793</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01309056212429592</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>^FCHI</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0004410312224186048</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0129936557290373</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>^GDAXI</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0004227517996795312</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01322780094933595</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>^SSMI</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0002390091128074227</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.009724134355413578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001046525092141451</v>
+        <v>0.001046525115854089</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01841590976341331</v>
+        <v>0.01841590835876286</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00069274654554886</v>
+        <v>0.000692746555846555</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02024792703704299</v>
+        <v>0.02024792772298564</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003559575082455564</v>
+        <v>0.0003559574983108406</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01465100723513941</v>
+        <v>0.0146510098832651</v>
       </c>
     </row>
     <row r="5">
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007900825472485036</v>
+        <v>0.0007900826072248332</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01533006497655785</v>
+        <v>0.01533006453707956</v>
       </c>
     </row>
     <row r="6">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001076965810768239</v>
+        <v>0.0010769658214175</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01812768702577378</v>
+        <v>0.01812768773371479</v>
       </c>
     </row>
     <row r="7">
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0007060970771535356</v>
+        <v>0.0007060970990004106</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01338850479152869</v>
+        <v>0.0133885063938841</v>
       </c>
     </row>
     <row r="8">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0007805951090376988</v>
+        <v>0.0007805950320012567</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02649183120537357</v>
+        <v>0.02649183123166462</v>
       </c>
     </row>
     <row r="9">
@@ -545,10 +545,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007534363838523106</v>
+        <v>0.0007534363902468979</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02257917674432619</v>
+        <v>0.02257917944595283</v>
       </c>
     </row>
     <row r="10">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001295242333881396</v>
+        <v>0.001295242298255149</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01715314188643271</v>
+        <v>0.0171531428374159</v>
       </c>
     </row>
     <row r="11">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0005756066910748769</v>
+        <v>0.0005756066609742933</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01706499998229517</v>
+        <v>0.01706499823691044</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001046525115854089</v>
+        <v>0.001046525083186531</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01841590835876286</v>
+        <v>0.01841590653090969</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.000692746555846555</v>
+        <v>0.0006927464353276034</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02024792772298564</v>
+        <v>0.02024792626274098</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003559574983108406</v>
+        <v>0.0003559575962019566</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0146510098832651</v>
+        <v>0.01465100990633115</v>
       </c>
     </row>
     <row r="5">
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007900826072248332</v>
+        <v>0.0007900825583250917</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01533006453707956</v>
+        <v>0.01533006567352657</v>
       </c>
     </row>
     <row r="6">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0010769658214175</v>
+        <v>0.001076965753745585</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01812768773371479</v>
+        <v>0.01812768729646428</v>
       </c>
     </row>
     <row r="7">
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0007060970990004106</v>
+        <v>0.000706097128572958</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0133885063938841</v>
+        <v>0.01338850850570181</v>
       </c>
     </row>
     <row r="8">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0007805950320012567</v>
+        <v>0.0007805950294150631</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02649183123166462</v>
+        <v>0.02649183109788416</v>
       </c>
     </row>
     <row r="9">
@@ -545,10 +545,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007534363902468979</v>
+        <v>0.0007534363649373186</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02257917944595283</v>
+        <v>0.02257917832106655</v>
       </c>
     </row>
     <row r="10">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001295242298255149</v>
+        <v>0.001295242313013025</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0171531428374159</v>
+        <v>0.01715314381128449</v>
       </c>
     </row>
     <row r="11">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0005756066609742933</v>
+        <v>0.0005756066050155085</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01706499823691044</v>
+        <v>0.01706499842945107</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -518,10 +518,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.001046525204446507</v>
+        <v>0.00105497095232597</v>
       </c>
       <c r="C2">
-        <v>0.01841591038216759</v>
+        <v>0.01841099369283013</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -529,10 +529,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.000692746729799235</v>
+        <v>0.0006782707175727152</v>
       </c>
       <c r="C3">
-        <v>0.02024792779788047</v>
+        <v>0.0202463444773646</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -540,10 +540,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.0003559575273305356</v>
+        <v>0.0003517524646521241</v>
       </c>
       <c r="C4">
-        <v>0.01465101185974485</v>
+        <v>0.01464592395028967</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -551,10 +551,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.0007900826882379547</v>
+        <v>0.0007969409496634347</v>
       </c>
       <c r="C5">
-        <v>0.01533006541341433</v>
+        <v>0.01532587656934936</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -562,10 +562,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.001076965756628386</v>
+        <v>0.00108272022249265</v>
       </c>
       <c r="C6">
-        <v>0.01812768730826922</v>
+        <v>0.01812160732145374</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -573,10 +573,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.0007060970747094652</v>
+        <v>0.0007113858217010614</v>
       </c>
       <c r="C7">
-        <v>0.01338850463632623</v>
+        <v>0.01338447613646205</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -584,10 +584,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.0007805949954492676</v>
+        <v>0.0007814027561390439</v>
       </c>
       <c r="C8">
-        <v>0.02649182993847219</v>
+        <v>0.02648128123921506</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -595,10 +595,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.000753436542354396</v>
+        <v>0.0007545297152437311</v>
       </c>
       <c r="C9">
-        <v>0.02257918397596913</v>
+        <v>0.02257021174016777</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -606,10 +606,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.001295242274549241</v>
+        <v>0.001303934448096257</v>
       </c>
       <c r="C10">
-        <v>0.01715314454214147</v>
+        <v>0.01714906954420333</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -617,10 +617,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.0005756066850438189</v>
+        <v>0.0005838824512402028</v>
       </c>
       <c r="C11">
-        <v>0.01706499969865917</v>
+        <v>0.01706071279678272</v>
       </c>
     </row>
   </sheetData>
@@ -945,10 +945,10 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.0001498045793524518</v>
+        <v>0.0001565271554509547</v>
       </c>
       <c r="C2">
-        <v>0.0126246603266179</v>
+        <v>0.01262192454115198</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -956,10 +956,10 @@
         <v>38</v>
       </c>
       <c r="B3">
-        <v>0.0004315216297093793</v>
+        <v>0.0004353456370024208</v>
       </c>
       <c r="C3">
-        <v>0.01309056212429592</v>
+        <v>0.01308608501624559</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -967,10 +967,10 @@
         <v>39</v>
       </c>
       <c r="B4">
-        <v>0.0004410312224186048</v>
+        <v>0.0004441053409239817</v>
       </c>
       <c r="C4">
-        <v>0.0129936557290373</v>
+        <v>0.0129889705689606</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -978,10 +978,10 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>0.0004227517996795312</v>
+        <v>0.0004252678401449654</v>
       </c>
       <c r="C5">
-        <v>0.01322780094933595</v>
+        <v>0.01322286582731337</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -989,10 +989,10 @@
         <v>41</v>
       </c>
       <c r="B6">
-        <v>0.0002390091128074227</v>
+        <v>0.0002425004209363731</v>
       </c>
       <c r="C6">
-        <v>0.009724134355413578</v>
+        <v>0.009721076470851435</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
           <t>Risque</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Isin</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -454,10 +459,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001046525083186531</v>
+        <v>0.0009372363294920203</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01841590653090969</v>
+        <v>0.01806883302664484</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>FR0000121014</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -467,10 +477,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0006927464353276034</v>
+        <v>0.0006288009129108965</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02024792626274098</v>
+        <v>0.01907975781065794</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FR0000120271</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -480,10 +495,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0003559575962019566</v>
+        <v>0.0003693315763554386</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01465100990633115</v>
+        <v>0.01405945875487118</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>FR0000120578</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -493,10 +513,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007900825583250917</v>
+        <v>0.0007411005344758494</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01533006567352657</v>
+        <v>0.01477996623511113</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>FR0000120321</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -506,10 +531,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001076965753745585</v>
+        <v>0.0008204089533400808</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01812768729646428</v>
+        <v>0.01751968796903483</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FR0000121972</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -519,10 +549,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.000706097128572958</v>
+        <v>0.0006224884847651957</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01338850850570181</v>
+        <v>0.01297528881552609</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FR0000120073</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -532,10 +567,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0007805950294150631</v>
+        <v>0.0006954024960210487</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02649183109788416</v>
+        <v>0.02515388240841759</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NL0000235190</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -545,10 +585,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007534363649373186</v>
+        <v>0.0003668726422083456</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02257917832106655</v>
+        <v>0.02114005613800019</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FR0000131104</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -558,10 +603,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001295242313013025</v>
+        <v>0.001149469027186647</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01715314381128449</v>
+        <v>0.01641119594322464</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FR0000052292</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -571,10 +621,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0005756066050155085</v>
+        <v>0.0004851770110929554</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01706499842945107</v>
+        <v>0.01615083025323356</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>FR0000121667</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -971,10 +1026,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0001498045793524518</v>
+        <v>-1.28447583177529e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0126246603266179</v>
+        <v>0.01201184060693191</v>
       </c>
     </row>
     <row r="3">
@@ -984,10 +1039,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0004315216297093793</v>
+        <v>0.0003072664386585315</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01309056212429592</v>
+        <v>0.01279721437434423</v>
       </c>
     </row>
     <row r="4">
@@ -997,10 +1052,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004410312224186048</v>
+        <v>0.0002772623732336768</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0129936557290373</v>
+        <v>0.01237062834888296</v>
       </c>
     </row>
     <row r="5">
@@ -1010,10 +1065,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0004227517996795312</v>
+        <v>0.0002144727224379599</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01322780094933595</v>
+        <v>0.01270016000634717</v>
       </c>
     </row>
     <row r="6">
@@ -1023,10 +1078,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002390091128074227</v>
+        <v>0.0001308948326562523</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009724134355413578</v>
+        <v>0.009590478528196261</v>
       </c>
     </row>
   </sheetData>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -554,10 +554,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.000937236367282206</v>
+        <v>0.000937236324080273</v>
       </c>
       <c r="C2">
-        <v>0.01806883263131672</v>
+        <v>0.01806883263213176</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -568,10 +568,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.0006288009735937316</v>
+        <v>0.0006288010446827374</v>
       </c>
       <c r="C3">
-        <v>0.01907976114784082</v>
+        <v>0.01907976553891433</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -582,10 +582,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0003693315888309641</v>
+        <v>0.00036933152565494</v>
       </c>
       <c r="C4">
-        <v>0.01405945962892123</v>
+        <v>0.01405945836888879</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -596,10 +596,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.0007411005481930168</v>
+        <v>0.0007411005828071609</v>
       </c>
       <c r="C5">
-        <v>0.01477997128912341</v>
+        <v>0.01477996954698932</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -610,10 +610,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0008204090335198877</v>
+        <v>0.000820408961501156</v>
       </c>
       <c r="C6">
-        <v>0.0175196877410115</v>
+        <v>0.01751968599711693</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -624,10 +624,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0006224884219523057</v>
+        <v>0.0006224884677573822</v>
       </c>
       <c r="C7">
-        <v>0.0129752891481543</v>
+        <v>0.01297528758773329</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -638,10 +638,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006954025405922983</v>
+        <v>0.0006954025803338938</v>
       </c>
       <c r="C8">
-        <v>0.02515388403434757</v>
+        <v>0.02515388310075789</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -652,10 +652,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.0003668726232160763</v>
+        <v>0.0003668725860863333</v>
       </c>
       <c r="C9">
-        <v>0.02114005527377968</v>
+        <v>0.02114005355472856</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -666,10 +666,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001149469001784901</v>
+        <v>0.001149469005922757</v>
       </c>
       <c r="C10">
-        <v>0.0164111973526089</v>
+        <v>0.0164111946255445</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -680,10 +680,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.0004851769759980731</v>
+        <v>0.0004851769724049179</v>
       </c>
       <c r="C11">
-        <v>0.01615082809278041</v>
+        <v>0.01615082784780888</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -554,10 +554,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.000937236324080273</v>
+        <v>0.0009372364840558445</v>
       </c>
       <c r="C2">
-        <v>0.01806883263213176</v>
+        <v>0.01806883390723715</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -568,10 +568,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.0006288010446827374</v>
+        <v>0.0006288009883201644</v>
       </c>
       <c r="C3">
-        <v>0.01907976553891433</v>
+        <v>0.01907976217576104</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -582,10 +582,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.00036933152565494</v>
+        <v>0.0003693315377907871</v>
       </c>
       <c r="C4">
-        <v>0.01405945836888879</v>
+        <v>0.01405945916918194</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -596,10 +596,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.0007411005828071609</v>
+        <v>0.0007411005119051504</v>
       </c>
       <c r="C5">
-        <v>0.01477996954698932</v>
+        <v>0.01477996879682864</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -610,10 +610,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.000820408961501156</v>
+        <v>0.0008204089579339056</v>
       </c>
       <c r="C6">
-        <v>0.01751968599711693</v>
+        <v>0.01751968813033796</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -624,10 +624,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0006224884677573822</v>
+        <v>0.0006224884838083945</v>
       </c>
       <c r="C7">
-        <v>0.01297528758773329</v>
+        <v>0.01297528873065285</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -638,10 +638,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006954025803338938</v>
+        <v>0.0006954025429163875</v>
       </c>
       <c r="C8">
-        <v>0.02515388310075789</v>
+        <v>0.02515388408034581</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -652,10 +652,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.0003668725860863333</v>
+        <v>0.0003668726344910163</v>
       </c>
       <c r="C9">
-        <v>0.02114005355472856</v>
+        <v>0.02114005586879231</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -666,10 +666,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001149469005922757</v>
+        <v>0.001149469187646807</v>
       </c>
       <c r="C10">
-        <v>0.0164111946255445</v>
+        <v>0.0164111999619489</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -680,10 +680,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.0004851769724049179</v>
+        <v>0.0004851769693256909</v>
       </c>
       <c r="C11">
-        <v>0.01615082784780888</v>
+        <v>0.01615083081000698</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -554,10 +554,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0009372364840558445</v>
+        <v>0.000937236365146444</v>
       </c>
       <c r="C2">
-        <v>0.01806883390723715</v>
+        <v>0.01806883241323105</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -568,10 +568,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.0006288009883201644</v>
+        <v>0.0006288010626731064</v>
       </c>
       <c r="C3">
-        <v>0.01907976217576104</v>
+        <v>0.01907976605284135</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -582,10 +582,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0003693315377907871</v>
+        <v>0.0003693316185296409</v>
       </c>
       <c r="C4">
-        <v>0.01405945916918194</v>
+        <v>0.01405945860357393</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -596,10 +596,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.0007411005119051504</v>
+        <v>0.0007411005411049783</v>
       </c>
       <c r="C5">
-        <v>0.01477996879682864</v>
+        <v>0.01477997085786707</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -610,10 +610,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0008204089579339056</v>
+        <v>0.0008204089597217058</v>
       </c>
       <c r="C6">
-        <v>0.01751968813033796</v>
+        <v>0.01751968845868836</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -624,10 +624,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0006224884838083945</v>
+        <v>0.0006224884439322196</v>
       </c>
       <c r="C7">
-        <v>0.01297528873065285</v>
+        <v>0.01297529080675414</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -638,10 +638,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006954025429163875</v>
+        <v>0.0006954025711637006</v>
       </c>
       <c r="C8">
-        <v>0.02515388408034581</v>
+        <v>0.0251538853691623</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -652,10 +652,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.0003668726344910163</v>
+        <v>0.0003668726937875575</v>
       </c>
       <c r="C9">
-        <v>0.02114005586879231</v>
+        <v>0.02114005862952904</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -666,10 +666,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001149469187646807</v>
+        <v>0.001149469002851466</v>
       </c>
       <c r="C10">
-        <v>0.0164111999619489</v>
+        <v>0.01641119737583788</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -680,10 +680,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.0004851769693256909</v>
+        <v>0.0004851770683815782</v>
       </c>
       <c r="C11">
-        <v>0.01615083081000698</v>
+        <v>0.01615083087623904</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="233">
   <si>
     <t>Rendement moyen</t>
   </si>
@@ -57,6 +57,276 @@
     <t>EL</t>
   </si>
   <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>SAF</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>KER</t>
+  </si>
+  <si>
+    <t>STLAM</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>STMPA</t>
+  </si>
+  <si>
+    <t>SGO</t>
+  </si>
+  <si>
+    <t>ENGI</t>
+  </si>
+  <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>DSY</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>GLE</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>ORA</t>
+  </si>
+  <si>
+    <t>VIE</t>
+  </si>
+  <si>
+    <t>PUB</t>
+  </si>
+  <si>
+    <t>ACA</t>
+  </si>
+  <si>
+    <t>EDEN</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>ALO</t>
+  </si>
+  <si>
+    <t>RNO</t>
+  </si>
+  <si>
+    <t>WLN</t>
+  </si>
+  <si>
+    <t>ERF</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>URW</t>
+  </si>
+  <si>
+    <t>ARGX</t>
+  </si>
+  <si>
+    <t>KBC</t>
+  </si>
+  <si>
+    <t>ABI</t>
+  </si>
+  <si>
+    <t>UCB</t>
+  </si>
+  <si>
+    <t>SOLB</t>
+  </si>
+  <si>
+    <t>GBLB</t>
+  </si>
+  <si>
+    <t>AGS</t>
+  </si>
+  <si>
+    <t>UMI</t>
+  </si>
+  <si>
+    <t>WDP</t>
+  </si>
+  <si>
+    <t>ACKB</t>
+  </si>
+  <si>
+    <t>ELI</t>
+  </si>
+  <si>
+    <t>DIE</t>
+  </si>
+  <si>
+    <t>SOF</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>COFB</t>
+  </si>
+  <si>
+    <t>MELE</t>
+  </si>
+  <si>
+    <t>GLPG</t>
+  </si>
+  <si>
+    <t>BAR</t>
+  </si>
+  <si>
+    <t>APAM</t>
+  </si>
+  <si>
+    <t>PROX</t>
+  </si>
+  <si>
+    <t>NESN</t>
+  </si>
+  <si>
+    <t>NOVN</t>
+  </si>
+  <si>
+    <t>ROG</t>
+  </si>
+  <si>
+    <t>UBSG</t>
+  </si>
+  <si>
+    <t>CFR</t>
+  </si>
+  <si>
+    <t>ZURN</t>
+  </si>
+  <si>
+    <t>ABBN</t>
+  </si>
+  <si>
+    <t>SIKA</t>
+  </si>
+  <si>
+    <t>ALC</t>
+  </si>
+  <si>
+    <t>LONN</t>
+  </si>
+  <si>
+    <t>LHN</t>
+  </si>
+  <si>
+    <t>SREN</t>
+  </si>
+  <si>
+    <t>GIVN</t>
+  </si>
+  <si>
+    <t>PGHN</t>
+  </si>
+  <si>
+    <t>SLHN</t>
+  </si>
+  <si>
+    <t>GEBN</t>
+  </si>
+  <si>
+    <t>KNIN</t>
+  </si>
+  <si>
+    <t>SCMN</t>
+  </si>
+  <si>
+    <t>SOON</t>
+  </si>
+  <si>
+    <t>LOGN</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>SIE</t>
+  </si>
+  <si>
+    <t>ALV</t>
+  </si>
+  <si>
+    <t>DTE</t>
+  </si>
+  <si>
+    <t>MBG</t>
+  </si>
+  <si>
+    <t>BAYN</t>
+  </si>
+  <si>
+    <t>MUV2</t>
+  </si>
+  <si>
+    <t>IFX</t>
+  </si>
+  <si>
+    <t>BAS</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>ADS</t>
+  </si>
+  <si>
+    <t>DB1</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>RWE</t>
+  </si>
+  <si>
+    <t>VOW3</t>
+  </si>
+  <si>
+    <t>EOAN</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>DBK</t>
+  </si>
+  <si>
+    <t>DTG</t>
+  </si>
+  <si>
+    <t>VNA</t>
+  </si>
+  <si>
     <t>FR0000121014</t>
   </si>
   <si>
@@ -85,6 +355,276 @@
   </si>
   <si>
     <t>FR0000121667</t>
+  </si>
+  <si>
+    <t>FR0000125486</t>
+  </si>
+  <si>
+    <t>FR0000120628</t>
+  </si>
+  <si>
+    <t>FR0000073272</t>
+  </si>
+  <si>
+    <t>FR0000120693</t>
+  </si>
+  <si>
+    <t>FR0000121485</t>
+  </si>
+  <si>
+    <t>NL00150001Q9</t>
+  </si>
+  <si>
+    <t>FR0000120644</t>
+  </si>
+  <si>
+    <t>NL0000226223</t>
+  </si>
+  <si>
+    <t>FR0000125007</t>
+  </si>
+  <si>
+    <t>FR0010208488</t>
+  </si>
+  <si>
+    <t>FR0000125338</t>
+  </si>
+  <si>
+    <t>FR0014003TT8</t>
+  </si>
+  <si>
+    <t>FR0010307819</t>
+  </si>
+  <si>
+    <t>FR0000130809</t>
+  </si>
+  <si>
+    <t>FR001400AJ45</t>
+  </si>
+  <si>
+    <t>FR0000133308</t>
+  </si>
+  <si>
+    <t>FR0000124141</t>
+  </si>
+  <si>
+    <t>FR0000130577</t>
+  </si>
+  <si>
+    <t>FR0000045072</t>
+  </si>
+  <si>
+    <t>FR0010908533</t>
+  </si>
+  <si>
+    <t>FR0000121329</t>
+  </si>
+  <si>
+    <t>LU1598757687</t>
+  </si>
+  <si>
+    <t>FR0000120172</t>
+  </si>
+  <si>
+    <t>FR0010220475</t>
+  </si>
+  <si>
+    <t>FR0000131906</t>
+  </si>
+  <si>
+    <t>FR0011981968</t>
+  </si>
+  <si>
+    <t>FR0014000MR3</t>
+  </si>
+  <si>
+    <t>FR0000051807</t>
+  </si>
+  <si>
+    <t>FR0000120503</t>
+  </si>
+  <si>
+    <t>FR0013326246</t>
+  </si>
+  <si>
+    <t>NL0010832176</t>
+  </si>
+  <si>
+    <t>BE0003565737</t>
+  </si>
+  <si>
+    <t>BE0974293251</t>
+  </si>
+  <si>
+    <t>BE0003739530</t>
+  </si>
+  <si>
+    <t>BE0003470755</t>
+  </si>
+  <si>
+    <t>BE0003797140</t>
+  </si>
+  <si>
+    <t>BE0974264930</t>
+  </si>
+  <si>
+    <t>BE0974320526</t>
+  </si>
+  <si>
+    <t>BE0974349814</t>
+  </si>
+  <si>
+    <t>BE0003764785</t>
+  </si>
+  <si>
+    <t>BE0003822393</t>
+  </si>
+  <si>
+    <t>BE0974259880</t>
+  </si>
+  <si>
+    <t>BE0003717312</t>
+  </si>
+  <si>
+    <t>BE0003851681</t>
+  </si>
+  <si>
+    <t>BE0003593044</t>
+  </si>
+  <si>
+    <t>BE0165385973</t>
+  </si>
+  <si>
+    <t>BE0003818359</t>
+  </si>
+  <si>
+    <t>BE0974362940</t>
+  </si>
+  <si>
+    <t>LU0569974404</t>
+  </si>
+  <si>
+    <t>BE0003810273</t>
+  </si>
+  <si>
+    <t>CH0038863350</t>
+  </si>
+  <si>
+    <t>CH0012005267</t>
+  </si>
+  <si>
+    <t>CH0012032048</t>
+  </si>
+  <si>
+    <t>CH0244767585</t>
+  </si>
+  <si>
+    <t>CH0210483332</t>
+  </si>
+  <si>
+    <t>CH0011075394</t>
+  </si>
+  <si>
+    <t>CH0012221716</t>
+  </si>
+  <si>
+    <t>CH0418792922</t>
+  </si>
+  <si>
+    <t>CH0432492467</t>
+  </si>
+  <si>
+    <t>CH0013841017</t>
+  </si>
+  <si>
+    <t>CH0012214059</t>
+  </si>
+  <si>
+    <t>CH0126881561</t>
+  </si>
+  <si>
+    <t>CH0010645932</t>
+  </si>
+  <si>
+    <t>CH0024608827</t>
+  </si>
+  <si>
+    <t>CH0014852781</t>
+  </si>
+  <si>
+    <t>CH0030170408</t>
+  </si>
+  <si>
+    <t>CH0025238863</t>
+  </si>
+  <si>
+    <t>CH0008742519</t>
+  </si>
+  <si>
+    <t>CH0012549785</t>
+  </si>
+  <si>
+    <t>CH0025751329</t>
+  </si>
+  <si>
+    <t>DE0007164600</t>
+  </si>
+  <si>
+    <t>DE0007236101</t>
+  </si>
+  <si>
+    <t>DE0008404005</t>
+  </si>
+  <si>
+    <t>DE0005557508</t>
+  </si>
+  <si>
+    <t>DE0007100000</t>
+  </si>
+  <si>
+    <t>DE000BAY0017</t>
+  </si>
+  <si>
+    <t>DE0008430026</t>
+  </si>
+  <si>
+    <t>DE0006231004</t>
+  </si>
+  <si>
+    <t>DE000BASF111</t>
+  </si>
+  <si>
+    <t>DE0005552004</t>
+  </si>
+  <si>
+    <t>DE000A1EWWW0</t>
+  </si>
+  <si>
+    <t>DE0005810055</t>
+  </si>
+  <si>
+    <t>DE0005190003</t>
+  </si>
+  <si>
+    <t>DE0007037129</t>
+  </si>
+  <si>
+    <t>DE0007664039</t>
+  </si>
+  <si>
+    <t>DE000ENAG999</t>
+  </si>
+  <si>
+    <t>DE0006599905</t>
+  </si>
+  <si>
+    <t>DE0005140008</t>
+  </si>
+  <si>
+    <t>DE000DTR0CK8</t>
+  </si>
+  <si>
+    <t>DE000A1ML7J1</t>
   </si>
   <si>
     <t>ADA-USD</t>
@@ -532,7 +1072,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -554,13 +1094,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.000937236365146444</v>
+        <v>-0.001334915853952269</v>
       </c>
       <c r="C2">
-        <v>0.01806883241323105</v>
+        <v>0.01648295399617317</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -568,13 +1108,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.0006288010626731064</v>
+        <v>0.0007087236124244966</v>
       </c>
       <c r="C3">
-        <v>0.01907976605284135</v>
+        <v>0.01394365936703161</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -582,13 +1122,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0003693316185296409</v>
+        <v>-0.0007100079238397778</v>
       </c>
       <c r="C4">
-        <v>0.01405945860357393</v>
+        <v>0.01922543681108662</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -596,13 +1136,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.0007411005411049783</v>
+        <v>0.000235326327487925</v>
       </c>
       <c r="C5">
-        <v>0.01477997085786707</v>
+        <v>0.01188058321371637</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -610,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0008204089597217058</v>
+        <v>0.0007791059917745813</v>
       </c>
       <c r="C6">
-        <v>0.01751968845868836</v>
+        <v>0.01433814936682779</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -624,13 +1164,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0006224884439322196</v>
+        <v>0.0006804805971573304</v>
       </c>
       <c r="C7">
-        <v>0.01297529080675414</v>
+        <v>0.01040222305992815</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -638,13 +1178,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006954025711637006</v>
+        <v>0.0005296689758723006</v>
       </c>
       <c r="C8">
-        <v>0.0251538853691623</v>
+        <v>0.01188320756254143</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -652,13 +1192,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.0003668726937875575</v>
+        <v>0.0001966583197685121</v>
       </c>
       <c r="C9">
-        <v>0.02114005862952904</v>
+        <v>0.01338454123798366</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -666,13 +1206,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001149469002851466</v>
+        <v>8.5142905772157E-05</v>
       </c>
       <c r="C10">
-        <v>0.01641119737583788</v>
+        <v>0.01647831026866287</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -680,13 +1220,1273 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.0004851770683815782</v>
+        <v>0.0002472879403009773</v>
       </c>
       <c r="C11">
-        <v>0.01615083087623904</v>
+        <v>0.01291340537662875</v>
       </c>
       <c r="D11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>0.0003293262306881326</v>
+      </c>
+      <c r="C12">
+        <v>0.01006106039191518</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0.0003359931083956011</v>
+      </c>
+      <c r="C13">
+        <v>0.01124318956082697</v>
+      </c>
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0.001161470368751729</v>
+      </c>
+      <c r="C14">
+        <v>0.01102837211915877</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>-0.001332123384421165</v>
+      </c>
+      <c r="C15">
+        <v>0.01265035385763936</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>-0.002114634408100738</v>
+      </c>
+      <c r="C16">
+        <v>0.01577810900590873</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>0.001189266433219941</v>
+      </c>
+      <c r="C17">
+        <v>0.01593008265630493</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0.0001859226164262698</v>
+      </c>
+      <c r="C18">
+        <v>0.009027027852106774</v>
+      </c>
+      <c r="D18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>-0.000431666844652936</v>
+      </c>
+      <c r="C19">
+        <v>0.0216569440104839</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0.001071064180569743</v>
+      </c>
+      <c r="C20">
+        <v>0.01454902368033334</v>
+      </c>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0.000848160350696334</v>
+      </c>
+      <c r="C21">
+        <v>0.009756072774645708</v>
+      </c>
+      <c r="D21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>0.0006075940247207103</v>
+      </c>
+      <c r="C22">
+        <v>0.01659440484922971</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>0.000909403723134001</v>
+      </c>
+      <c r="C23">
+        <v>0.01581839632778912</v>
+      </c>
+      <c r="D23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>0.0004286232078099585</v>
+      </c>
+      <c r="C24">
+        <v>0.01064702152867117</v>
+      </c>
+      <c r="D24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0.0006138961305084678</v>
+      </c>
+      <c r="C25">
+        <v>0.01625814584381037</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>0.000364343586487977</v>
+      </c>
+      <c r="C26">
+        <v>0.01157063219715366</v>
+      </c>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>0.0001456641983011972</v>
+      </c>
+      <c r="C27">
+        <v>0.008017510491955589</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>5.119522547847951E-05</v>
+      </c>
+      <c r="C28">
+        <v>0.01121724793673153</v>
+      </c>
+      <c r="D28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0.0004373143303131457</v>
+      </c>
+      <c r="C29">
+        <v>0.01376831431566016</v>
+      </c>
+      <c r="D29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0.001106488264340236</v>
+      </c>
+      <c r="C30">
+        <v>0.01184994707719593</v>
+      </c>
+      <c r="D30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>-0.0006023270578052799</v>
+      </c>
+      <c r="C31">
+        <v>0.01432237488486165</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>0.0001417422845624565</v>
+      </c>
+      <c r="C32">
+        <v>0.01226483969534294</v>
+      </c>
+      <c r="D32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>-0.001068296770328951</v>
+      </c>
+      <c r="C33">
+        <v>0.01688189467624878</v>
+      </c>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>-0.0003523501431599929</v>
+      </c>
+      <c r="C34">
+        <v>0.01188419653153222</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>-0.00268594768851956</v>
+      </c>
+      <c r="C35">
+        <v>0.03775154246538395</v>
+      </c>
+      <c r="D35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>-0.0004087385331135067</v>
+      </c>
+      <c r="C36">
+        <v>0.02015606929246896</v>
+      </c>
+      <c r="D36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>-0.004387984794798567</v>
+      </c>
+      <c r="C37">
+        <v>0.05354602777236123</v>
+      </c>
+      <c r="D37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>-0.0009363989076963952</v>
+      </c>
+      <c r="C38">
+        <v>0.01544485610323106</v>
+      </c>
+      <c r="D38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>-0.002475106220144401</v>
+      </c>
+      <c r="C39">
+        <v>0.0286538090800945</v>
+      </c>
+      <c r="D39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>0.0008664575401558459</v>
+      </c>
+      <c r="C40">
+        <v>0.01114491684063318</v>
+      </c>
+      <c r="D40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>0.0004759204163115345</v>
+      </c>
+      <c r="C41">
+        <v>0.02044412588424414</v>
+      </c>
+      <c r="D41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>0.002051546768311552</v>
+      </c>
+      <c r="C42">
+        <v>0.02959553815239966</v>
+      </c>
+      <c r="D42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>-0.0009773862656757225</v>
+      </c>
+      <c r="C43">
+        <v>0.01442427803019481</v>
+      </c>
+      <c r="D43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>-5.538421332882347E-05</v>
+      </c>
+      <c r="C44">
+        <v>0.01226776823988789</v>
+      </c>
+      <c r="D44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>-0.001437221611628308</v>
+      </c>
+      <c r="C45">
+        <v>0.01366085385583591</v>
+      </c>
+      <c r="D45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>5.755093009122934E-06</v>
+      </c>
+      <c r="C46">
+        <v>0.01518208651279548</v>
+      </c>
+      <c r="D46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>-0.000371504159119757</v>
+      </c>
+      <c r="C47">
+        <v>0.009151646639949027</v>
+      </c>
+      <c r="D47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>0.0002578184935007881</v>
+      </c>
+      <c r="C48">
+        <v>0.01226328408625332</v>
+      </c>
+      <c r="D48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>-0.001290540129672011</v>
+      </c>
+      <c r="C49">
+        <v>0.02000600907625083</v>
+      </c>
+      <c r="D49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>-0.0005059946718718975</v>
+      </c>
+      <c r="C50">
+        <v>0.01569258240722347</v>
+      </c>
+      <c r="D50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>-0.000267118292084341</v>
+      </c>
+      <c r="C51">
+        <v>0.01008325184910716</v>
+      </c>
+      <c r="D51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>-0.001054321511179808</v>
+      </c>
+      <c r="C52">
+        <v>0.01485130187826007</v>
+      </c>
+      <c r="D52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>-0.0003874866155791777</v>
+      </c>
+      <c r="C53">
+        <v>0.01493154423806962</v>
+      </c>
+      <c r="D53" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>-0.0001772927353249724</v>
+      </c>
+      <c r="C54">
+        <v>0.01675428023634764</v>
+      </c>
+      <c r="D54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>-0.001007146881065821</v>
+      </c>
+      <c r="C55">
+        <v>0.01960622713743432</v>
+      </c>
+      <c r="D55" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>-0.001288799701470675</v>
+      </c>
+      <c r="C56">
+        <v>0.01765537378359095</v>
+      </c>
+      <c r="D56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>-0.0007501654609847674</v>
+      </c>
+      <c r="C57">
+        <v>0.01847431073876056</v>
+      </c>
+      <c r="D57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>-0.0001063409454178725</v>
+      </c>
+      <c r="C58">
+        <v>0.01717091566680495</v>
+      </c>
+      <c r="D58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>-0.003192598614503936</v>
+      </c>
+      <c r="C59">
+        <v>0.02142013263557773</v>
+      </c>
+      <c r="D59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>-0.0005721740678748938</v>
+      </c>
+      <c r="C60">
+        <v>0.01776125911913586</v>
+      </c>
+      <c r="D60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>0.0004569739855338448</v>
+      </c>
+      <c r="C61">
+        <v>0.01551385216999362</v>
+      </c>
+      <c r="D61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>-0.0005946102840305936</v>
+      </c>
+      <c r="C62">
+        <v>0.00882453544809399</v>
+      </c>
+      <c r="D62" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>0.0002184709159014741</v>
+      </c>
+      <c r="C63">
+        <v>0.01020852780558484</v>
+      </c>
+      <c r="D63" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>-0.0009353725251598763</v>
+      </c>
+      <c r="C64">
+        <v>0.009775346458239926</v>
+      </c>
+      <c r="D64" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>0.001167491972051566</v>
+      </c>
+      <c r="C65">
+        <v>0.01480085696180657</v>
+      </c>
+      <c r="D65" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>-0.0015543001232909</v>
+      </c>
+      <c r="C66">
+        <v>0.019272853843362</v>
+      </c>
+      <c r="D66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>0.0002032619279768636</v>
+      </c>
+      <c r="C67">
+        <v>0.008053716817440323</v>
+      </c>
+      <c r="D67" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>0.0005178203989969601</v>
+      </c>
+      <c r="C68">
+        <v>0.01229943299838391</v>
+      </c>
+      <c r="D68" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>-6.16661082093248E-05</v>
+      </c>
+      <c r="C69">
+        <v>0.01544647791671512</v>
+      </c>
+      <c r="D69" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>2.552390605724655E-05</v>
+      </c>
+      <c r="C70">
+        <v>0.01328104339010064</v>
+      </c>
+      <c r="D70" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>-0.002895062965648806</v>
+      </c>
+      <c r="C71">
+        <v>0.02465346263365254</v>
+      </c>
+      <c r="D71" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>0.0008180631754486969</v>
+      </c>
+      <c r="C72">
+        <v>0.01057618209672949</v>
+      </c>
+      <c r="D72" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>0.0009215869298247342</v>
+      </c>
+      <c r="C73">
+        <v>0.01082169024750514</v>
+      </c>
+      <c r="D73" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>0.0004523509569039438</v>
+      </c>
+      <c r="C74">
+        <v>0.01249618635257328</v>
+      </c>
+      <c r="D74" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>0.002020425333115565</v>
+      </c>
+      <c r="C75">
+        <v>0.01825286534265719</v>
+      </c>
+      <c r="D75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>8.332110503844178E-05</v>
+      </c>
+      <c r="C76">
+        <v>0.01157648505441488</v>
+      </c>
+      <c r="D76" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>9.101912041981858E-05</v>
+      </c>
+      <c r="C77">
+        <v>0.01551183828137643</v>
+      </c>
+      <c r="D77" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78">
+        <v>7.236603205343219E-05</v>
+      </c>
+      <c r="C78">
+        <v>0.01335659845551478</v>
+      </c>
+      <c r="D78" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79">
+        <v>-0.000978736444298756</v>
+      </c>
+      <c r="C79">
+        <v>0.008798877380975951</v>
+      </c>
+      <c r="D79" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>-0.0005216347858685619</v>
+      </c>
+      <c r="C80">
+        <v>0.01662373602600686</v>
+      </c>
+      <c r="D80" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81">
+        <v>0.002695569037394002</v>
+      </c>
+      <c r="C81">
+        <v>0.02114503692634733</v>
+      </c>
+      <c r="D81" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82">
+        <v>0.001370471939807105</v>
+      </c>
+      <c r="C82">
+        <v>0.01265909937794365</v>
+      </c>
+      <c r="D82" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83">
+        <v>0.000182663712538332</v>
+      </c>
+      <c r="C83">
+        <v>0.01536942060743155</v>
+      </c>
+      <c r="D83" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84">
+        <v>0.0007186450801443541</v>
+      </c>
+      <c r="C84">
+        <v>0.01082413634939567</v>
+      </c>
+      <c r="D84" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85">
+        <v>-0.0001260475884474228</v>
+      </c>
+      <c r="C85">
+        <v>0.01059582571310672</v>
+      </c>
+      <c r="D85" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86">
+        <v>-0.0006495904489143584</v>
+      </c>
+      <c r="C86">
+        <v>0.01285483414153961</v>
+      </c>
+      <c r="D86" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87">
+        <v>-0.003320831683175712</v>
+      </c>
+      <c r="C87">
+        <v>0.01916881844259425</v>
+      </c>
+      <c r="D87" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88">
+        <v>0.001233207206135097</v>
+      </c>
+      <c r="C88">
+        <v>0.01019460366728998</v>
+      </c>
+      <c r="D88" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89">
+        <v>-0.000261043461482916</v>
+      </c>
+      <c r="C89">
+        <v>0.02182277420681144</v>
+      </c>
+      <c r="D89" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90">
+        <v>-0.000201187318592389</v>
+      </c>
+      <c r="C90">
+        <v>0.01663728385877608</v>
+      </c>
+      <c r="D90" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91">
+        <v>-0.0002085064906623085</v>
+      </c>
+      <c r="C91">
+        <v>0.01340818099809034</v>
+      </c>
+      <c r="D91" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92">
+        <v>0.0009541690804997092</v>
+      </c>
+      <c r="C92">
+        <v>0.02079084221586289</v>
+      </c>
+      <c r="D92" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93">
+        <v>-0.0001269542356886862</v>
+      </c>
+      <c r="C93">
+        <v>0.0124207634789784</v>
+      </c>
+      <c r="D93" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94">
+        <v>-3.990316870359237E-05</v>
+      </c>
+      <c r="C94">
+        <v>0.01386297137511115</v>
+      </c>
+      <c r="D94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95">
+        <v>-0.0001646031899319694</v>
+      </c>
+      <c r="C95">
+        <v>0.01184856945042996</v>
+      </c>
+      <c r="D95" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96">
+        <v>-0.000607978722475693</v>
+      </c>
+      <c r="C96">
+        <v>0.01225963128989677</v>
+      </c>
+      <c r="D96" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97">
+        <v>0.000205679835247574</v>
+      </c>
+      <c r="C97">
+        <v>0.009589034842417183</v>
+      </c>
+      <c r="D97" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98">
+        <v>0.0001627017494607742</v>
+      </c>
+      <c r="C98">
+        <v>0.01541400675573697</v>
+      </c>
+      <c r="D98" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99">
+        <v>0.001087767999064965</v>
+      </c>
+      <c r="C99">
+        <v>0.01645400234904716</v>
+      </c>
+      <c r="D99" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100">
+        <v>0.0002173611300327836</v>
+      </c>
+      <c r="C100">
+        <v>0.01399913125346687</v>
+      </c>
+      <c r="D100" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>0.0022293758526012</v>
+      </c>
+      <c r="C101">
+        <v>0.0243389380101341</v>
+      </c>
+      <c r="D101" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +2512,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="B2">
         <v>-0.0001754793810214266</v>
@@ -723,7 +2523,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="B3">
         <v>0.0006497726974937896</v>
@@ -734,7 +2534,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>205</v>
       </c>
       <c r="B4">
         <v>0.0006538467554099195</v>
@@ -745,7 +2545,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="B5">
         <v>0.001161063412795158</v>
@@ -756,7 +2556,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="B6">
         <v>-0.0001149343898340831</v>
@@ -767,7 +2567,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="B7">
         <v>0.0007087601930843913</v>
@@ -778,7 +2578,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="B8">
         <v>-0.0006819476391030881</v>
@@ -789,7 +2589,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="B9">
         <v>0.000786488306320261</v>
@@ -800,7 +2600,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c r="B10">
         <v>-0.0005964892624497764</v>
@@ -811,7 +2611,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="B11">
         <v>0.0007244007292243316</v>
@@ -822,7 +2622,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="B12">
         <v>0.0007400977644640182</v>
@@ -833,7 +2633,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="B13">
         <v>0.01759951919521479</v>
@@ -844,7 +2644,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>215</v>
       </c>
       <c r="B14">
         <v>-0.0001065220461885002</v>
@@ -855,7 +2655,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="B15">
         <v>0.002181307767150252</v>
@@ -866,7 +2666,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="B16">
         <v>0.0008493200507388014</v>
@@ -877,7 +2677,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="B17">
         <v>0.001563291618131957</v>
@@ -888,7 +2688,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c r="B18">
         <v>0.003640863344533729</v>
@@ -899,7 +2699,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="B19">
         <v>0.000807552804508399</v>
@@ -910,7 +2710,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="B20">
         <v>0.002061726146194194</v>
@@ -921,7 +2721,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="B21">
         <v>0.001564239756850278</v>
@@ -932,7 +2732,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="B22">
         <v>0.000567186403832688</v>
@@ -943,7 +2743,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="B23">
         <v>0.0007209082828815124</v>
@@ -954,7 +2754,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="B24">
         <v>0.0004436300292405399</v>
@@ -965,7 +2765,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="B25">
         <v>4.605234665689553E-06</v>
@@ -976,7 +2776,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="B26">
         <v>0.001682585077349505</v>
@@ -1008,7 +2808,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>228</v>
       </c>
       <c r="B2">
         <v>-1.28447583177529E-05</v>
@@ -1019,7 +2819,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="B3">
         <v>0.0003072664386585315</v>
@@ -1030,7 +2830,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="B4">
         <v>0.0002772623732336768</v>
@@ -1041,7 +2841,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>231</v>
       </c>
       <c r="B5">
         <v>0.0002144727224379599</v>
@@ -1052,7 +2852,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="B6">
         <v>0.0001308948326562523</v>

--- a/rendements_et_risques.xlsx
+++ b/rendements_et_risques.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="232">
   <si>
     <t>Rendement moyen</t>
   </si>
@@ -171,9 +171,6 @@
     <t>UMI</t>
   </si>
   <si>
-    <t>WDP</t>
-  </si>
-  <si>
     <t>ACKB</t>
   </si>
   <si>
@@ -471,9 +468,6 @@
     <t>BE0974320526</t>
   </si>
   <si>
-    <t>BE0974349814</t>
-  </si>
-  <si>
     <t>BE0003764785</t>
   </si>
   <si>
@@ -630,6 +624,9 @@
     <t>ADA-USD</t>
   </si>
   <si>
+    <t>APT-USD</t>
+  </si>
+  <si>
     <t>ATOM-USD</t>
   </si>
   <si>
@@ -645,9 +642,6 @@
     <t>BTC-USD</t>
   </si>
   <si>
-    <t>CRO-USD</t>
-  </si>
-  <si>
     <t>DOGE-USD</t>
   </si>
   <si>
@@ -660,6 +654,12 @@
     <t>ETH-USD</t>
   </si>
   <si>
+    <t>ICP-USD</t>
+  </si>
+  <si>
+    <t>IMX-USD</t>
+  </si>
+  <si>
     <t>KAS-USD</t>
   </si>
   <si>
@@ -675,7 +675,10 @@
     <t>MATIC-USD</t>
   </si>
   <si>
-    <t>OKB-USD</t>
+    <t>NEAR-USD</t>
+  </si>
+  <si>
+    <t>OP-USD</t>
   </si>
   <si>
     <t>SHIB-USD</t>
@@ -684,19 +687,13 @@
     <t>SOL-USD</t>
   </si>
   <si>
+    <t>STX-USD</t>
+  </si>
+  <si>
     <t>TON-USD</t>
   </si>
   <si>
     <t>TRX-USD</t>
-  </si>
-  <si>
-    <t>WBTC-USD</t>
-  </si>
-  <si>
-    <t>XLM-USD</t>
-  </si>
-  <si>
-    <t>XMR-USD</t>
   </si>
   <si>
     <t>XRP-USD</t>
@@ -1072,7 +1069,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1094,13 +1091,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001334915853952269</v>
+        <v>-0.0001863436033352606</v>
       </c>
       <c r="C2">
-        <v>0.01648295399617317</v>
+        <v>0.01793552668427707</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1108,13 +1105,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.0007087236124244966</v>
+        <v>0.0003409201676035486</v>
       </c>
       <c r="C3">
-        <v>0.01394365936703161</v>
+        <v>0.0131096929953696</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1122,13 +1119,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0007100079238397778</v>
+        <v>-0.0004339062314195221</v>
       </c>
       <c r="C4">
-        <v>0.01922543681108662</v>
+        <v>0.01711207476500403</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1136,13 +1133,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.000235326327487925</v>
+        <v>0.0003257406894078085</v>
       </c>
       <c r="C5">
-        <v>0.01188058321371637</v>
+        <v>0.01243545513932456</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1150,13 +1147,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0007791059917745813</v>
+        <v>0.001452409101030229</v>
       </c>
       <c r="C6">
-        <v>0.01433814936682779</v>
+        <v>0.01324758600342024</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1164,13 +1161,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0006804805971573304</v>
+        <v>0.0004353162171361273</v>
       </c>
       <c r="C7">
-        <v>0.01040222305992815</v>
+        <v>0.009885786255853669</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1178,13 +1175,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0005296689758723006</v>
+        <v>0.0008890379873718999</v>
       </c>
       <c r="C8">
-        <v>0.01188320756254143</v>
+        <v>0.0113621808420898</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1192,13 +1189,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.0001966583197685121</v>
+        <v>-2.474545835203386E-05</v>
       </c>
       <c r="C9">
-        <v>0.01338454123798366</v>
+        <v>0.01424749729616078</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1206,13 +1203,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>8.5142905772157E-05</v>
+        <v>0.0006279789519374284</v>
       </c>
       <c r="C10">
-        <v>0.01647831026866287</v>
+        <v>0.01594366655811413</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1220,13 +1217,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.0002472879403009773</v>
+        <v>0.0004736763855800985</v>
       </c>
       <c r="C11">
-        <v>0.01291340537662875</v>
+        <v>0.01219519328323615</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1234,13 +1231,13 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0003293262306881326</v>
+        <v>0.0005131518853427443</v>
       </c>
       <c r="C12">
-        <v>0.01006106039191518</v>
+        <v>0.009396688388437234</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1248,13 +1245,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.0003359931083956011</v>
+        <v>0.0006524777041048049</v>
       </c>
       <c r="C13">
-        <v>0.01124318956082697</v>
+        <v>0.0102668813422328</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1262,13 +1259,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001161470368751729</v>
+        <v>0.00144750996327492</v>
       </c>
       <c r="C14">
-        <v>0.01102837211915877</v>
+        <v>0.01099098468250898</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1276,13 +1273,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.001332123384421165</v>
+        <v>-0.00108932851301483</v>
       </c>
       <c r="C15">
-        <v>0.01265035385763936</v>
+        <v>0.01372496171682257</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1290,13 +1287,13 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002114634408100738</v>
+        <v>-0.001151116771090399</v>
       </c>
       <c r="C16">
-        <v>0.01577810900590873</v>
+        <v>0.01646080088106794</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1304,13 +1301,13 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.001189266433219941</v>
+        <v>0.002025960382162146</v>
       </c>
       <c r="C17">
-        <v>0.01593008265630493</v>
+        <v>0.01714591530348092</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1318,13 +1315,13 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.0001859226164262698</v>
+        <v>0.0003663634177689048</v>
       </c>
       <c r="C18">
-        <v>0.009027027852106774</v>
+        <v>0.008340603094892854</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1332,13 +1329,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>-0.000431666844652936</v>
+        <v>-0.0001879511224836347</v>
       </c>
       <c r="C19">
-        <v>0.0216569440104839</v>
+        <v>0.02020341966800225</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1346,13 +1343,13 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001071064180569743</v>
+        <v>0.001655585333494142</v>
       </c>
       <c r="C20">
-        <v>0.01454902368033334</v>
+        <v>0.01430799596918163</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1360,13 +1357,13 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.000848160350696334</v>
+        <v>0.0002947084351767829</v>
       </c>
       <c r="C21">
-        <v>0.009756072774645708</v>
+        <v>0.009616378923253717</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1374,13 +1371,13 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.0006075940247207103</v>
+        <v>0.001443127474463983</v>
       </c>
       <c r="C22">
-        <v>0.01659440484922971</v>
+        <v>0.01603964854788035</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1388,13 +1385,13 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0.000909403723134001</v>
+        <v>0.0007458780827034518</v>
       </c>
       <c r="C23">
-        <v>0.01581839632778912</v>
+        <v>0.01636648982826577</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1402,13 +1399,13 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.0004286232078099585</v>
+        <v>0.0005642625281293786</v>
       </c>
       <c r="C24">
-        <v>0.01064702152867117</v>
+        <v>0.01043794723908127</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1416,13 +1413,13 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>0.0006138961305084678</v>
+        <v>0.0003450844119607948</v>
       </c>
       <c r="C25">
-        <v>0.01625814584381037</v>
+        <v>0.01525304161001158</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1430,13 +1427,13 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>0.000364343586487977</v>
+        <v>0.0008259147829949403</v>
       </c>
       <c r="C26">
-        <v>0.01157063219715366</v>
+        <v>0.01161392185341771</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1444,13 +1441,13 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>0.0001456641983011972</v>
+        <v>0.000115865560290113</v>
       </c>
       <c r="C27">
-        <v>0.008017510491955589</v>
+        <v>0.008218505991591046</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1458,13 +1455,13 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>5.119522547847951E-05</v>
+        <v>0.0003066785066318981</v>
       </c>
       <c r="C28">
-        <v>0.01121724793673153</v>
+        <v>0.01072063210437862</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1472,13 +1469,13 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>0.0004373143303131457</v>
+        <v>0.001532454293274965</v>
       </c>
       <c r="C29">
-        <v>0.01376831431566016</v>
+        <v>0.01273537362514078</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1486,13 +1483,13 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>0.001106488264340236</v>
+        <v>0.0009977790321852545</v>
       </c>
       <c r="C30">
-        <v>0.01184994707719593</v>
+        <v>0.01152870776185441</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1500,13 +1497,13 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0006023270578052799</v>
+        <v>4.718987554356798E-05</v>
       </c>
       <c r="C31">
-        <v>0.01432237488486165</v>
+        <v>0.01330886071216902</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1514,13 +1511,13 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0001417422845624565</v>
+        <v>0.0001321515813492728</v>
       </c>
       <c r="C32">
-        <v>0.01226483969534294</v>
+        <v>0.01214634989308027</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1528,13 +1525,13 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.001068296770328951</v>
+        <v>-8.406919166750059E-05</v>
       </c>
       <c r="C33">
-        <v>0.01688189467624878</v>
+        <v>0.01633548502435162</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1542,13 +1539,13 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.0003523501431599929</v>
+        <v>-0.0007492228194401508</v>
       </c>
       <c r="C34">
-        <v>0.01188419653153222</v>
+        <v>0.01219829206316465</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1556,13 +1553,13 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.00268594768851956</v>
+        <v>-0.002183090029238319</v>
       </c>
       <c r="C35">
-        <v>0.03775154246538395</v>
+        <v>0.03506439269504445</v>
       </c>
       <c r="D35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1570,13 +1567,13 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.0004087385331135067</v>
+        <v>0.0004761749891052846</v>
       </c>
       <c r="C36">
-        <v>0.02015606929246896</v>
+        <v>0.01959027893637543</v>
       </c>
       <c r="D36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1584,13 +1581,13 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>-0.004387984794798567</v>
+        <v>-0.003636149074623755</v>
       </c>
       <c r="C37">
-        <v>0.05354602777236123</v>
+        <v>0.04716232842124429</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1598,13 +1595,13 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.0009363989076963952</v>
+        <v>-0.000325499714899356</v>
       </c>
       <c r="C38">
-        <v>0.01544485610323106</v>
+        <v>0.01496718397896662</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1612,13 +1609,13 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.002475106220144401</v>
+        <v>-0.001563108475428076</v>
       </c>
       <c r="C39">
-        <v>0.0286538090800945</v>
+        <v>0.02759860417115946</v>
       </c>
       <c r="D39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1626,13 +1623,13 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>0.0008664575401558459</v>
+        <v>0.0006017412832883321</v>
       </c>
       <c r="C40">
-        <v>0.01114491684063318</v>
+        <v>0.01079880640946154</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1640,13 +1637,13 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0004759204163115345</v>
+        <v>0.001633471886440829</v>
       </c>
       <c r="C41">
-        <v>0.02044412588424414</v>
+        <v>0.01965979034114036</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1654,13 +1651,13 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>0.002051546768311552</v>
+        <v>0.0007797890389741831</v>
       </c>
       <c r="C42">
-        <v>0.02959553815239966</v>
+        <v>0.033765889927802</v>
       </c>
       <c r="D42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1668,13 +1665,13 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.0009773862656757225</v>
+        <v>0.0001981374731079933</v>
       </c>
       <c r="C43">
-        <v>0.01442427803019481</v>
+        <v>0.01476400080338154</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1682,13 +1679,13 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>-5.538421332882347E-05</v>
+        <v>8.872014744684903E-05</v>
       </c>
       <c r="C44">
-        <v>0.01226776823988789</v>
+        <v>0.01153511386158407</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1696,13 +1693,13 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>-0.001437221611628308</v>
+        <v>0.0005320986150799105</v>
       </c>
       <c r="C45">
-        <v>0.01366085385583591</v>
+        <v>0.01482268870630281</v>
       </c>
       <c r="D45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1710,13 +1707,13 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>5.755093009122934E-06</v>
+        <v>0.001577744748065766</v>
       </c>
       <c r="C46">
-        <v>0.01518208651279548</v>
+        <v>0.02052205087083523</v>
       </c>
       <c r="D46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1724,13 +1721,13 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.000371504159119757</v>
+        <v>-0.0003785869133035444</v>
       </c>
       <c r="C47">
-        <v>0.009151646639949027</v>
+        <v>0.008787946460768989</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1738,13 +1735,13 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>0.0002578184935007881</v>
+        <v>0.0002368756162046738</v>
       </c>
       <c r="C48">
-        <v>0.01226328408625332</v>
+        <v>0.01151868345093768</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1752,13 +1749,13 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.001290540129672011</v>
+        <v>-0.00135576566812229</v>
       </c>
       <c r="C49">
-        <v>0.02000600907625083</v>
+        <v>0.01962281734279258</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1766,13 +1763,13 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0005059946718718975</v>
+        <v>0.0001662579532444375</v>
       </c>
       <c r="C50">
-        <v>0.01569258240722347</v>
+        <v>0.009629120111824116</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1780,13 +1777,13 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.000267118292084341</v>
+        <v>-0.0004500672399660892</v>
       </c>
       <c r="C51">
-        <v>0.01008325184910716</v>
+        <v>0.01559045807483767</v>
       </c>
       <c r="D51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1794,13 +1791,13 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>-0.001054321511179808</v>
+        <v>0.0002630648005329681</v>
       </c>
       <c r="C52">
-        <v>0.01485130187826007</v>
+        <v>0.01416826713273352</v>
       </c>
       <c r="D52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1808,13 +1805,13 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0003874866155791777</v>
+        <v>0.000398555963901581</v>
       </c>
       <c r="C53">
-        <v>0.01493154423806962</v>
+        <v>0.01588164477460753</v>
       </c>
       <c r="D53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1822,13 +1819,13 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0001772927353249724</v>
+        <v>-0.0006584068465054677</v>
       </c>
       <c r="C54">
-        <v>0.01675428023634764</v>
+        <v>0.01828151368965592</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1836,13 +1833,13 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.001007146881065821</v>
+        <v>-0.0009325509506635906</v>
       </c>
       <c r="C55">
-        <v>0.01960622713743432</v>
+        <v>0.0168963125821766</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1850,13 +1847,13 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001288799701470675</v>
+        <v>-0.0006355040972959498</v>
       </c>
       <c r="C56">
-        <v>0.01765537378359095</v>
+        <v>0.01804336243585241</v>
       </c>
       <c r="D56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1864,13 +1861,13 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>-0.0007501654609847674</v>
+        <v>0.0003286755855381377</v>
       </c>
       <c r="C57">
-        <v>0.01847431073876056</v>
+        <v>0.0160199776657638</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1878,13 +1875,13 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.0001063409454178725</v>
+        <v>-0.001838358242848434</v>
       </c>
       <c r="C58">
-        <v>0.01717091566680495</v>
+        <v>0.02211657036212884</v>
       </c>
       <c r="D58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1892,13 +1889,13 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.003192598614503936</v>
+        <v>1.733188810517783E-05</v>
       </c>
       <c r="C59">
-        <v>0.02142013263557773</v>
+        <v>0.01745789204687872</v>
       </c>
       <c r="D59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1906,13 +1903,13 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.0005721740678748938</v>
+        <v>0.0004135981663916566</v>
       </c>
       <c r="C60">
-        <v>0.01776125911913586</v>
+        <v>0.01439156782759696</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1920,13 +1917,13 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>0.0004569739855338448</v>
+        <v>-0.0004933955241595206</v>
       </c>
       <c r="C61">
-        <v>0.01551385216999362</v>
+        <v>0.008768478206454993</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1934,13 +1931,13 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.0005946102840305936</v>
+        <v>0.0003265730241522015</v>
       </c>
       <c r="C62">
-        <v>0.00882453544809399</v>
+        <v>0.01029720299878184</v>
       </c>
       <c r="D62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1948,13 +1945,13 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0002184709159014741</v>
+        <v>-0.0008618174127518872</v>
       </c>
       <c r="C63">
-        <v>0.01020852780558484</v>
+        <v>0.01058965024463876</v>
       </c>
       <c r="D63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1962,13 +1959,13 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0009353725251598763</v>
+        <v>0.001159263073736992</v>
       </c>
       <c r="C64">
-        <v>0.009775346458239926</v>
+        <v>0.01512130881434284</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1976,13 +1973,13 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>0.001167491972051566</v>
+        <v>-0.00019392698100756</v>
       </c>
       <c r="C65">
-        <v>0.01480085696180657</v>
+        <v>0.01964214076540731</v>
       </c>
       <c r="D65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1990,13 +1987,13 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.0015543001232909</v>
+        <v>0.0002436623433811828</v>
       </c>
       <c r="C66">
-        <v>0.019272853843362</v>
+        <v>0.007904949856576873</v>
       </c>
       <c r="D66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2004,13 +2001,13 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>0.0002032619279768636</v>
+        <v>0.001102278319931241</v>
       </c>
       <c r="C67">
-        <v>0.008053716817440323</v>
+        <v>0.01209107155896349</v>
       </c>
       <c r="D67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2018,13 +2015,13 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>0.0005178203989969601</v>
+        <v>0.0002255972259044593</v>
       </c>
       <c r="C68">
-        <v>0.01229943299838391</v>
+        <v>0.01554408723963529</v>
       </c>
       <c r="D68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2032,13 +2029,13 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>-6.16661082093248E-05</v>
+        <v>0.000373410021122056</v>
       </c>
       <c r="C69">
-        <v>0.01544647791671512</v>
+        <v>0.01288655924271508</v>
       </c>
       <c r="D69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2046,13 +2043,13 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>2.552390605724655E-05</v>
+        <v>-0.0007964614583807207</v>
       </c>
       <c r="C70">
-        <v>0.01328104339010064</v>
+        <v>0.02464468336347243</v>
       </c>
       <c r="D70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2060,13 +2057,13 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.002895062965648806</v>
+        <v>0.0008986866097520735</v>
       </c>
       <c r="C71">
-        <v>0.02465346263365254</v>
+        <v>0.0106367681103509</v>
       </c>
       <c r="D71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2074,13 +2071,13 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>0.0008180631754486969</v>
+        <v>0.0007740471930367741</v>
       </c>
       <c r="C72">
-        <v>0.01057618209672949</v>
+        <v>0.01106257142413354</v>
       </c>
       <c r="D72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2088,13 +2085,13 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>0.0009215869298247342</v>
+        <v>0.0008680691584204981</v>
       </c>
       <c r="C73">
-        <v>0.01082169024750514</v>
+        <v>0.01291898070195079</v>
       </c>
       <c r="D73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2102,13 +2099,13 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>0.0004523509569039438</v>
+        <v>0.001892378354634091</v>
       </c>
       <c r="C74">
-        <v>0.01249618635257328</v>
+        <v>0.01680387742745989</v>
       </c>
       <c r="D74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2116,13 +2113,13 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002020425333115565</v>
+        <v>0.0005593164510448176</v>
       </c>
       <c r="C75">
-        <v>0.01825286534265719</v>
+        <v>0.01075239026677065</v>
       </c>
       <c r="D75" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2130,13 +2127,13 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>8.332110503844178E-05</v>
+        <v>0.0003514032698058461</v>
       </c>
       <c r="C76">
-        <v>0.01157648505441488</v>
+        <v>0.01528623033151738</v>
       </c>
       <c r="D76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2144,13 +2141,13 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>9.101912041981858E-05</v>
+        <v>0.0007252032322059559</v>
       </c>
       <c r="C77">
-        <v>0.01551183828137643</v>
+        <v>0.01315468214076654</v>
       </c>
       <c r="D77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2158,13 +2155,13 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>7.236603205343219E-05</v>
+        <v>-0.000719996130499683</v>
       </c>
       <c r="C78">
-        <v>0.01335659845551478</v>
+        <v>0.008149145686920312</v>
       </c>
       <c r="D78" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2172,13 +2169,13 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.000978736444298756</v>
+        <v>0.0003281553860692416</v>
       </c>
       <c r="C79">
-        <v>0.008798877380975951</v>
+        <v>0.01530311522018667</v>
       </c>
       <c r="D79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2186,13 +2183,13 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.0005216347858685619</v>
+        <v>0.002078494348174135</v>
       </c>
       <c r="C80">
-        <v>0.01662373602600686</v>
+        <v>0.01953950955807435</v>
       </c>
       <c r="D80" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2200,13 +2197,13 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>0.002695569037394002</v>
+        <v>0.001768388655794537</v>
       </c>
       <c r="C81">
-        <v>0.02114503692634733</v>
+        <v>0.01282565067476142</v>
       </c>
       <c r="D81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2214,13 +2211,13 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>0.001370471939807105</v>
+        <v>0.0008406565163382625</v>
       </c>
       <c r="C82">
-        <v>0.01265909937794365</v>
+        <v>0.01394474725460223</v>
       </c>
       <c r="D82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2228,13 +2225,13 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>0.000182663712538332</v>
+        <v>0.0008260550294748367</v>
       </c>
       <c r="C83">
-        <v>0.01536942060743155</v>
+        <v>0.009826467154531515</v>
       </c>
       <c r="D83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2242,13 +2239,13 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>0.0007186450801443541</v>
+        <v>3.906079760421578E-05</v>
       </c>
       <c r="C84">
-        <v>0.01082413634939567</v>
+        <v>0.01035132414755097</v>
       </c>
       <c r="D84" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2256,13 +2253,13 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.0001260475884474228</v>
+        <v>0.0001923014629260515</v>
       </c>
       <c r="C85">
-        <v>0.01059582571310672</v>
+        <v>0.01241524675777667</v>
       </c>
       <c r="D85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2270,13 +2267,13 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0006495904489143584</v>
+        <v>-0.003226457020291959</v>
       </c>
       <c r="C86">
-        <v>0.01285483414153961</v>
+        <v>0.01870058529000682</v>
       </c>
       <c r="D86" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2284,13 +2281,13 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003320831683175712</v>
+        <v>0.001204490069265241</v>
       </c>
       <c r="C87">
-        <v>0.01916881844259425</v>
+        <v>0.01030737259704487</v>
       </c>
       <c r="D87" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2298,13 +2295,13 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>0.001233207206135097</v>
+        <v>-0.0001430815162948715</v>
       </c>
       <c r="C88">
-        <v>0.01019460366728998</v>
+        <v>0.02116066706107348</v>
       </c>
       <c r="D88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2312,13 +2309,13 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.000261043461482916</v>
+        <v>0.0001116515110423642</v>
       </c>
       <c r="C89">
-        <v>0.02182277420681144</v>
+        <v>0.01564357349973027</v>
       </c>
       <c r="D89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2326,13 +2323,13 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.000201187318592389</v>
+        <v>4.906496442026009E-05</v>
       </c>
       <c r="C90">
-        <v>0.01663728385877608</v>
+        <v>0.0128189923712531</v>
       </c>
       <c r="D90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2340,13 +2337,13 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0002085064906623085</v>
+        <v>0.0004341996258867436</v>
       </c>
       <c r="C91">
-        <v>0.01340818099809034</v>
+        <v>0.01929678889890617</v>
       </c>
       <c r="D91" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2354,13 +2351,13 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>0.0009541690804997092</v>
+        <v>0.000288296426966247</v>
       </c>
       <c r="C92">
-        <v>0.02079084221586289</v>
+        <v>0.01111889078648695</v>
       </c>
       <c r="D92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2368,13 +2365,13 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0001269542356886862</v>
+        <v>0.0004153403750834299</v>
       </c>
       <c r="C93">
-        <v>0.0124207634789784</v>
+        <v>0.01315202147531693</v>
       </c>
       <c r="D93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2382,13 +2379,13 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>-3.990316870359237E-05</v>
+        <v>-0.0008793026723610874</v>
       </c>
       <c r="C94">
-        <v>0.01386297137511115</v>
+        <v>0.01236057676377955</v>
       </c>
       <c r="D94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2396,13 +2393,13 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.0001646031899319694</v>
+        <v>8.830041978620241E-05</v>
       </c>
       <c r="C95">
-        <v>0.01184856945042996</v>
+        <v>0.01241499855024875</v>
       </c>
       <c r="D95" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2410,13 +2407,13 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>-0.000607978722475693</v>
+        <v>0.0002818728157804613</v>
       </c>
       <c r="C96">
-        <v>0.01225963128989677</v>
+        <v>0.009474983474325701</v>
       </c>
       <c r="D96" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2424,13 +2421,13 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>0.000205679835247574</v>
+        <v>-3.918355651564768E-05</v>
       </c>
       <c r="C97">
-        <v>0.009589034842417183</v>
+        <v>0.01749143310234097</v>
       </c>
       <c r="D97" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2438,13 +2435,13 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>0.0001627017494607742</v>
+        <v>0.001139389153407005</v>
       </c>
       <c r="C98">
-        <v>0.01541400675573697</v>
+        <v>0.01596441413629016</v>
       </c>
       <c r="D98" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2452,13 +2449,13 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>0.001087767999064965</v>
+        <v>0.0009865536993582224</v>
       </c>
       <c r="C99">
-        <v>0.01645400234904716</v>
+        <v>0.01193808838687288</v>
       </c>
       <c r="D99" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2466,27 +2463,13 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>0.0002173611300327836</v>
+        <v>0.002003514178538661</v>
       </c>
       <c r="C100">
-        <v>0.01399913125346687</v>
+        <v>0.02225911748462281</v>
       </c>
       <c r="D100" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101">
-        <v>0.0022293758526012</v>
-      </c>
-      <c r="C101">
-        <v>0.0243389380101341</v>
-      </c>
-      <c r="D101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2496,7 +2479,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2512,277 +2495,288 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B2">
-        <v>-0.0001754793810214266</v>
+        <v>0.0008407378467674176</v>
       </c>
       <c r="C2">
-        <v>0.03562556137114068</v>
+        <v>0.0373709437949881</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B3">
-        <v>0.0006497726974937896</v>
+        <v>0.006766972087626021</v>
       </c>
       <c r="C3">
-        <v>0.04226908301318102</v>
+        <v>0.1701282476442121</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B4">
-        <v>0.0006538467554099195</v>
+        <v>0.001039735287966887</v>
       </c>
       <c r="C4">
-        <v>0.04653319107895716</v>
+        <v>0.04222684029062165</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B5">
-        <v>0.001161063412795158</v>
+        <v>0.001992369456681135</v>
       </c>
       <c r="C5">
-        <v>0.04286166505567905</v>
+        <v>0.04720267524008422</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B6">
-        <v>-0.0001149343898340831</v>
+        <v>0.001445115124112205</v>
       </c>
       <c r="C6">
-        <v>0.02848418329652121</v>
+        <v>0.04206870678633225</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B7">
-        <v>0.0007087601930843913</v>
+        <v>0.0006644156522934105</v>
       </c>
       <c r="C7">
-        <v>0.02701765299097481</v>
+        <v>0.02812588140948136</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B8">
-        <v>-0.0006819476391030881</v>
+        <v>0.001247377223282962</v>
       </c>
       <c r="C8">
-        <v>0.03731992972068517</v>
+        <v>0.02663891409844561</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B9">
-        <v>0.000786488306320261</v>
+        <v>0.001016549729781519</v>
       </c>
       <c r="C9">
-        <v>0.04580082467893366</v>
+        <v>0.04410670389271316</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B10">
-        <v>-0.0005964892624497764</v>
+        <v>0.0003662135316458166</v>
       </c>
       <c r="C10">
-        <v>0.03556851853881017</v>
+        <v>0.03706026469853123</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B11">
-        <v>0.0007244007292243316</v>
+        <v>0.001372702895050836</v>
       </c>
       <c r="C11">
-        <v>0.04758465949848797</v>
+        <v>0.04704134407031606</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B12">
-        <v>0.0007400977644640182</v>
+        <v>0.00129475438555646</v>
       </c>
       <c r="C12">
-        <v>0.03539503728739977</v>
+        <v>0.03442546291456487</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B13">
-        <v>0.01759951919521479</v>
+        <v>0.002095892880922329</v>
       </c>
       <c r="C13">
-        <v>0.1189450529034529</v>
+        <v>0.04958282095355115</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B14">
-        <v>-0.0001065220461885002</v>
+        <v>-0.001997453968278788</v>
       </c>
       <c r="C14">
-        <v>0.02394456774361857</v>
+        <v>0.03844472007159364</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B15">
-        <v>0.002181307767150252</v>
+        <v>0.01561567592337397</v>
       </c>
       <c r="C15">
-        <v>0.04339298291743127</v>
+        <v>0.1118861985469164</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B16">
-        <v>0.0008493200507388014</v>
+        <v>1.438878466593049E-05</v>
       </c>
       <c r="C16">
-        <v>0.03899034090394043</v>
+        <v>0.02279351011238001</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B17">
-        <v>0.001563291618131957</v>
+        <v>0.002619644860681784</v>
       </c>
       <c r="C17">
-        <v>0.04978799051961755</v>
+        <v>0.04310969045344992</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B18">
-        <v>0.003640863344533729</v>
+        <v>0.0008562445968123148</v>
       </c>
       <c r="C18">
-        <v>0.03699544089861417</v>
+        <v>0.03740584208420633</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B19">
-        <v>0.000807552804508399</v>
+        <v>0.001768052233842631</v>
       </c>
       <c r="C19">
-        <v>0.05364574530198551</v>
+        <v>0.04851964825540809</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B20">
-        <v>0.002061726146194194</v>
+        <v>0.000473745505516897</v>
       </c>
       <c r="C20">
-        <v>0.05595213270773399</v>
+        <v>0.04908832481391708</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B21">
-        <v>0.001564239756850278</v>
+        <v>3.209310999212646</v>
       </c>
       <c r="C21">
-        <v>0.05920179304937365</v>
+        <v>80.07185228124506</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B22">
-        <v>0.000567186403832688</v>
+        <v>0.001228419991694615</v>
       </c>
       <c r="C22">
-        <v>0.02444677198443177</v>
+        <v>0.05324891312308307</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B23">
-        <v>0.0007209082828815124</v>
+        <v>0.003200031466394076</v>
       </c>
       <c r="C23">
-        <v>0.02722848365109485</v>
+        <v>0.05513037482649508</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B24">
-        <v>0.0004436300292405399</v>
+        <v>0.159188706782555</v>
       </c>
       <c r="C24">
-        <v>0.04212923261736685</v>
+        <v>3.952123389383041</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B25">
-        <v>4.605234665689553E-06</v>
+        <v>0.001476059913419235</v>
       </c>
       <c r="C25">
-        <v>0.02857737208188599</v>
+        <v>0.05704420488872693</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B26">
-        <v>0.001682585077349505</v>
+        <v>0.001008465522529407</v>
       </c>
       <c r="C26">
-        <v>0.04795013688534558</v>
+        <v>0.02369545043295094</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27">
+        <v>0.001438951936440881</v>
+      </c>
+      <c r="C27">
+        <v>0.045364769385676</v>
       </c>
     </row>
   </sheetData>
@@ -2808,57 +2802,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B2">
-        <v>-1.28447583177529E-05</v>
+        <v>2.026613336524383E-05</v>
       </c>
       <c r="C2">
-        <v>0.01201184060693191</v>
+        <v>0.0118874663092094</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3">
-        <v>0.0003072664386585315</v>
+        <v>0.0003593727847233353</v>
       </c>
       <c r="C3">
-        <v>0.01279721437434423</v>
+        <v>0.01259857966115602</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4">
-        <v>0.0002772623732336768</v>
+        <v>0.0003109221703421895</v>
       </c>
       <c r="C4">
-        <v>0.01237062834888296</v>
+        <v>0.01219371905728979</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5">
-        <v>0.0002144727224379599</v>
+        <v>0.0002509431370867394</v>
       </c>
       <c r="C5">
-        <v>0.01270016000634717</v>
+        <v>0.01250292553880173</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6">
-        <v>0.0001308948326562523</v>
+        <v>0.0001552443662596574</v>
       </c>
       <c r="C6">
-        <v>0.009590478528196261</v>
+        <v>0.009463182459917015</v>
       </c>
     </row>
   </sheetData>
